--- a/数据_区域双碳目标与路径规划研究（含拆分数据表）.xlsx
+++ b/数据_区域双碳目标与路径规划研究（含拆分数据表）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPGA_MATLAB_Learning\数学建模\结课报告\D题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B0BC0A-2367-447D-8338-FCB83F7F63DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CD1026-6045-4085-B10D-A53A8ACAB46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1751,31 +1751,16 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1787,16 +1772,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1805,7 +1790,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1835,19 +1820,37 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1858,21 +1861,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1890,6 +1878,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2296,7 +2296,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="129" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="14" t="s">
@@ -2346,7 +2346,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="135"/>
+      <c r="A4" s="130"/>
       <c r="B4" s="16" t="s">
         <v>34</v>
       </c>
@@ -2394,8 +2394,8 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="135"/>
-      <c r="B5" s="122" t="s">
+      <c r="A5" s="130"/>
+      <c r="B5" s="117" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="17" t="s">
@@ -2442,8 +2442,8 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="135"/>
-      <c r="B6" s="122"/>
+      <c r="A6" s="130"/>
+      <c r="B6" s="117"/>
       <c r="C6" s="17" t="s">
         <v>28</v>
       </c>
@@ -2488,8 +2488,8 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="135"/>
-      <c r="B7" s="122"/>
+      <c r="A7" s="130"/>
+      <c r="B7" s="117"/>
       <c r="C7" s="17" t="s">
         <v>30</v>
       </c>
@@ -2534,8 +2534,8 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="135"/>
-      <c r="B8" s="122" t="s">
+      <c r="A8" s="130"/>
+      <c r="B8" s="117" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="18" t="s">
@@ -2582,8 +2582,8 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="135"/>
-      <c r="B9" s="122"/>
+      <c r="A9" s="130"/>
+      <c r="B9" s="117"/>
       <c r="C9" s="18" t="s">
         <v>32</v>
       </c>
@@ -2628,8 +2628,8 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="136"/>
-      <c r="B10" s="131"/>
+      <c r="A10" s="131"/>
+      <c r="B10" s="126"/>
       <c r="C10" s="18" t="s">
         <v>33</v>
       </c>
@@ -2674,7 +2674,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="132" t="s">
+      <c r="A11" s="127" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="20" t="s">
@@ -2724,7 +2724,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="133"/>
+      <c r="A12" s="128"/>
       <c r="B12" s="23" t="s">
         <v>34</v>
       </c>
@@ -2772,14 +2772,14 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="133"/>
-      <c r="B13" s="121" t="s">
+      <c r="A13" s="128"/>
+      <c r="B13" s="116" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="112" t="s">
+      <c r="D13" s="113" t="s">
         <v>66</v>
       </c>
       <c r="E13" s="26" t="s">
@@ -2820,12 +2820,12 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="133"/>
-      <c r="B14" s="122"/>
-      <c r="C14" s="116" t="s">
+      <c r="A14" s="128"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="113"/>
+      <c r="D14" s="114"/>
       <c r="E14" s="16" t="s">
         <v>14</v>
       </c>
@@ -2864,10 +2864,10 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="133"/>
-      <c r="B15" s="122"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="113"/>
+      <c r="A15" s="128"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="114"/>
       <c r="E15" s="16" t="s">
         <v>15</v>
       </c>
@@ -2906,10 +2906,10 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="133"/>
-      <c r="B16" s="122"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="113"/>
+      <c r="A16" s="128"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="114"/>
       <c r="E16" s="16" t="s">
         <v>63</v>
       </c>
@@ -2948,10 +2948,10 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="133"/>
-      <c r="B17" s="122"/>
-      <c r="C17" s="116"/>
-      <c r="D17" s="113"/>
+      <c r="A17" s="128"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="114"/>
       <c r="E17" s="16" t="s">
         <v>17</v>
       </c>
@@ -2990,12 +2990,12 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="133"/>
-      <c r="B18" s="123"/>
+      <c r="A18" s="128"/>
+      <c r="B18" s="118"/>
       <c r="C18" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="124"/>
+      <c r="D18" s="115"/>
       <c r="E18" s="16" t="s">
         <v>23</v>
       </c>
@@ -3034,14 +3034,14 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="133"/>
-      <c r="B19" s="121" t="s">
+      <c r="A19" s="128"/>
+      <c r="B19" s="116" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="112" t="s">
+      <c r="D19" s="113" t="s">
         <v>66</v>
       </c>
       <c r="E19" s="26" t="s">
@@ -3082,12 +3082,12 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="133"/>
-      <c r="B20" s="122"/>
+      <c r="A20" s="128"/>
+      <c r="B20" s="117"/>
       <c r="C20" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="113"/>
+      <c r="D20" s="114"/>
       <c r="E20" s="16" t="s">
         <v>23</v>
       </c>
@@ -3126,12 +3126,12 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="133"/>
-      <c r="B21" s="123"/>
+      <c r="A21" s="128"/>
+      <c r="B21" s="118"/>
       <c r="C21" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="124"/>
+      <c r="D21" s="115"/>
       <c r="E21" s="28" t="s">
         <v>23</v>
       </c>
@@ -3170,7 +3170,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="133"/>
+      <c r="A22" s="128"/>
       <c r="B22" s="23" t="s">
         <v>37</v>
       </c>
@@ -3218,16 +3218,16 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="137" t="s">
+      <c r="A23" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="127" t="s">
+      <c r="B23" s="137" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="130" t="s">
+      <c r="C23" s="139" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="126" t="s">
+      <c r="D23" s="136" t="s">
         <v>66</v>
       </c>
       <c r="E23" s="14" t="s">
@@ -3268,10 +3268,10 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="138"/>
-      <c r="B24" s="128"/>
-      <c r="C24" s="116"/>
-      <c r="D24" s="113"/>
+      <c r="A24" s="133"/>
+      <c r="B24" s="123"/>
+      <c r="C24" s="119"/>
+      <c r="D24" s="114"/>
       <c r="E24" s="16" t="s">
         <v>5</v>
       </c>
@@ -3310,10 +3310,10 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="138"/>
-      <c r="B25" s="128"/>
-      <c r="C25" s="116"/>
-      <c r="D25" s="113"/>
+      <c r="A25" s="133"/>
+      <c r="B25" s="123"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="114"/>
       <c r="E25" s="16" t="s">
         <v>6</v>
       </c>
@@ -3352,10 +3352,10 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="138"/>
-      <c r="B26" s="128"/>
-      <c r="C26" s="116"/>
-      <c r="D26" s="113"/>
+      <c r="A26" s="133"/>
+      <c r="B26" s="123"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="114"/>
       <c r="E26" s="17" t="s">
         <v>7</v>
       </c>
@@ -3394,10 +3394,10 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="138"/>
-      <c r="B27" s="128"/>
-      <c r="C27" s="116"/>
-      <c r="D27" s="113"/>
+      <c r="A27" s="133"/>
+      <c r="B27" s="123"/>
+      <c r="C27" s="119"/>
+      <c r="D27" s="114"/>
       <c r="E27" s="17" t="s">
         <v>8</v>
       </c>
@@ -3436,10 +3436,10 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="138"/>
-      <c r="B28" s="129"/>
-      <c r="C28" s="117"/>
-      <c r="D28" s="124"/>
+      <c r="A28" s="133"/>
+      <c r="B28" s="124"/>
+      <c r="C28" s="125"/>
+      <c r="D28" s="115"/>
       <c r="E28" s="28" t="s">
         <v>20</v>
       </c>
@@ -3478,14 +3478,14 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="138"/>
-      <c r="B29" s="121" t="s">
+      <c r="A29" s="133"/>
+      <c r="B29" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="115" t="s">
+      <c r="C29" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="112" t="s">
+      <c r="D29" s="113" t="s">
         <v>66</v>
       </c>
       <c r="E29" s="26" t="s">
@@ -3526,10 +3526,10 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="138"/>
-      <c r="B30" s="122"/>
-      <c r="C30" s="116"/>
-      <c r="D30" s="113"/>
+      <c r="A30" s="133"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="119"/>
+      <c r="D30" s="114"/>
       <c r="E30" s="16" t="s">
         <v>5</v>
       </c>
@@ -3568,10 +3568,10 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="138"/>
-      <c r="B31" s="122"/>
-      <c r="C31" s="116"/>
-      <c r="D31" s="113"/>
+      <c r="A31" s="133"/>
+      <c r="B31" s="117"/>
+      <c r="C31" s="119"/>
+      <c r="D31" s="114"/>
       <c r="E31" s="16" t="s">
         <v>6</v>
       </c>
@@ -3610,10 +3610,10 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="138"/>
-      <c r="B32" s="122"/>
-      <c r="C32" s="116"/>
-      <c r="D32" s="113"/>
+      <c r="A32" s="133"/>
+      <c r="B32" s="117"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="114"/>
       <c r="E32" s="17" t="s">
         <v>7</v>
       </c>
@@ -3652,10 +3652,10 @@
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="138"/>
-      <c r="B33" s="122"/>
-      <c r="C33" s="116"/>
-      <c r="D33" s="113"/>
+      <c r="A33" s="133"/>
+      <c r="B33" s="117"/>
+      <c r="C33" s="119"/>
+      <c r="D33" s="114"/>
       <c r="E33" s="17" t="s">
         <v>8</v>
       </c>
@@ -3694,10 +3694,10 @@
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="138"/>
-      <c r="B34" s="122"/>
-      <c r="C34" s="117"/>
-      <c r="D34" s="124"/>
+      <c r="A34" s="133"/>
+      <c r="B34" s="117"/>
+      <c r="C34" s="125"/>
+      <c r="D34" s="115"/>
       <c r="E34" s="28" t="s">
         <v>20</v>
       </c>
@@ -3736,12 +3736,12 @@
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="138"/>
-      <c r="B35" s="122"/>
-      <c r="C35" s="115" t="s">
+      <c r="A35" s="133"/>
+      <c r="B35" s="117"/>
+      <c r="C35" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="121" t="s">
+      <c r="D35" s="116" t="s">
         <v>66</v>
       </c>
       <c r="E35" s="26" t="s">
@@ -3782,10 +3782,10 @@
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="138"/>
-      <c r="B36" s="122"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="122"/>
+      <c r="A36" s="133"/>
+      <c r="B36" s="117"/>
+      <c r="C36" s="119"/>
+      <c r="D36" s="117"/>
       <c r="E36" s="16" t="s">
         <v>5</v>
       </c>
@@ -3824,10 +3824,10 @@
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="138"/>
-      <c r="B37" s="122"/>
-      <c r="C37" s="116"/>
-      <c r="D37" s="122"/>
+      <c r="A37" s="133"/>
+      <c r="B37" s="117"/>
+      <c r="C37" s="119"/>
+      <c r="D37" s="117"/>
       <c r="E37" s="16" t="s">
         <v>6</v>
       </c>
@@ -3866,10 +3866,10 @@
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="138"/>
-      <c r="B38" s="122"/>
-      <c r="C38" s="116"/>
-      <c r="D38" s="122"/>
+      <c r="A38" s="133"/>
+      <c r="B38" s="117"/>
+      <c r="C38" s="119"/>
+      <c r="D38" s="117"/>
       <c r="E38" s="17" t="s">
         <v>7</v>
       </c>
@@ -3908,10 +3908,10 @@
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="138"/>
-      <c r="B39" s="122"/>
-      <c r="C39" s="116"/>
-      <c r="D39" s="122"/>
+      <c r="A39" s="133"/>
+      <c r="B39" s="117"/>
+      <c r="C39" s="119"/>
+      <c r="D39" s="117"/>
       <c r="E39" s="17" t="s">
         <v>8</v>
       </c>
@@ -3950,10 +3950,10 @@
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="138"/>
-      <c r="B40" s="122"/>
-      <c r="C40" s="117"/>
-      <c r="D40" s="123"/>
+      <c r="A40" s="133"/>
+      <c r="B40" s="117"/>
+      <c r="C40" s="125"/>
+      <c r="D40" s="118"/>
       <c r="E40" s="28" t="s">
         <v>20</v>
       </c>
@@ -3992,12 +3992,12 @@
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="138"/>
-      <c r="B41" s="122"/>
-      <c r="C41" s="118" t="s">
+      <c r="A41" s="133"/>
+      <c r="B41" s="117"/>
+      <c r="C41" s="141" t="s">
         <v>110</v>
       </c>
-      <c r="D41" s="121" t="s">
+      <c r="D41" s="116" t="s">
         <v>109</v>
       </c>
       <c r="E41" s="26" t="s">
@@ -4038,10 +4038,10 @@
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="138"/>
-      <c r="B42" s="122"/>
-      <c r="C42" s="119"/>
-      <c r="D42" s="122"/>
+      <c r="A42" s="133"/>
+      <c r="B42" s="117"/>
+      <c r="C42" s="142"/>
+      <c r="D42" s="117"/>
       <c r="E42" s="16" t="s">
         <v>5</v>
       </c>
@@ -4080,10 +4080,10 @@
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="138"/>
-      <c r="B43" s="122"/>
-      <c r="C43" s="119"/>
-      <c r="D43" s="122"/>
+      <c r="A43" s="133"/>
+      <c r="B43" s="117"/>
+      <c r="C43" s="142"/>
+      <c r="D43" s="117"/>
       <c r="E43" s="16" t="s">
         <v>6</v>
       </c>
@@ -4122,10 +4122,10 @@
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="138"/>
-      <c r="B44" s="122"/>
-      <c r="C44" s="119"/>
-      <c r="D44" s="122"/>
+      <c r="A44" s="133"/>
+      <c r="B44" s="117"/>
+      <c r="C44" s="142"/>
+      <c r="D44" s="117"/>
       <c r="E44" s="17" t="s">
         <v>7</v>
       </c>
@@ -4164,10 +4164,10 @@
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="138"/>
-      <c r="B45" s="122"/>
-      <c r="C45" s="119"/>
-      <c r="D45" s="122"/>
+      <c r="A45" s="133"/>
+      <c r="B45" s="117"/>
+      <c r="C45" s="142"/>
+      <c r="D45" s="117"/>
       <c r="E45" s="17" t="s">
         <v>8</v>
       </c>
@@ -4206,10 +4206,10 @@
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="138"/>
-      <c r="B46" s="123"/>
-      <c r="C46" s="120"/>
-      <c r="D46" s="123"/>
+      <c r="A46" s="133"/>
+      <c r="B46" s="118"/>
+      <c r="C46" s="143"/>
+      <c r="D46" s="118"/>
       <c r="E46" s="28" t="s">
         <v>20</v>
       </c>
@@ -4248,14 +4248,14 @@
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="138"/>
-      <c r="B47" s="121" t="s">
+      <c r="A47" s="133"/>
+      <c r="B47" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="C47" s="115" t="s">
+      <c r="C47" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="D47" s="112" t="s">
+      <c r="D47" s="113" t="s">
         <v>66</v>
       </c>
       <c r="E47" s="26" t="s">
@@ -4296,10 +4296,10 @@
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="138"/>
-      <c r="B48" s="122"/>
-      <c r="C48" s="116"/>
-      <c r="D48" s="113"/>
+      <c r="A48" s="133"/>
+      <c r="B48" s="117"/>
+      <c r="C48" s="119"/>
+      <c r="D48" s="114"/>
       <c r="E48" s="16" t="s">
         <v>5</v>
       </c>
@@ -4338,10 +4338,10 @@
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="138"/>
-      <c r="B49" s="122"/>
-      <c r="C49" s="116"/>
-      <c r="D49" s="113"/>
+      <c r="A49" s="133"/>
+      <c r="B49" s="117"/>
+      <c r="C49" s="119"/>
+      <c r="D49" s="114"/>
       <c r="E49" s="16" t="s">
         <v>6</v>
       </c>
@@ -4380,10 +4380,10 @@
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="138"/>
-      <c r="B50" s="122"/>
-      <c r="C50" s="116"/>
-      <c r="D50" s="113"/>
+      <c r="A50" s="133"/>
+      <c r="B50" s="117"/>
+      <c r="C50" s="119"/>
+      <c r="D50" s="114"/>
       <c r="E50" s="17" t="s">
         <v>7</v>
       </c>
@@ -4422,10 +4422,10 @@
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="138"/>
-      <c r="B51" s="122"/>
-      <c r="C51" s="116"/>
-      <c r="D51" s="113"/>
+      <c r="A51" s="133"/>
+      <c r="B51" s="117"/>
+      <c r="C51" s="119"/>
+      <c r="D51" s="114"/>
       <c r="E51" s="17" t="s">
         <v>8</v>
       </c>
@@ -4464,10 +4464,10 @@
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="138"/>
-      <c r="B52" s="122"/>
-      <c r="C52" s="117"/>
-      <c r="D52" s="124"/>
+      <c r="A52" s="133"/>
+      <c r="B52" s="117"/>
+      <c r="C52" s="125"/>
+      <c r="D52" s="115"/>
       <c r="E52" s="28" t="s">
         <v>20</v>
       </c>
@@ -4506,12 +4506,12 @@
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="138"/>
-      <c r="B53" s="122"/>
-      <c r="C53" s="115" t="s">
+      <c r="A53" s="133"/>
+      <c r="B53" s="117"/>
+      <c r="C53" s="138" t="s">
         <v>31</v>
       </c>
-      <c r="D53" s="112" t="s">
+      <c r="D53" s="113" t="s">
         <v>66</v>
       </c>
       <c r="E53" s="26" t="s">
@@ -4552,10 +4552,10 @@
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="138"/>
-      <c r="B54" s="122"/>
-      <c r="C54" s="116"/>
-      <c r="D54" s="113"/>
+      <c r="A54" s="133"/>
+      <c r="B54" s="117"/>
+      <c r="C54" s="119"/>
+      <c r="D54" s="114"/>
       <c r="E54" s="16" t="s">
         <v>5</v>
       </c>
@@ -4594,10 +4594,10 @@
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="138"/>
-      <c r="B55" s="122"/>
-      <c r="C55" s="116"/>
-      <c r="D55" s="113"/>
+      <c r="A55" s="133"/>
+      <c r="B55" s="117"/>
+      <c r="C55" s="119"/>
+      <c r="D55" s="114"/>
       <c r="E55" s="16" t="s">
         <v>6</v>
       </c>
@@ -4636,10 +4636,10 @@
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="138"/>
-      <c r="B56" s="122"/>
-      <c r="C56" s="116"/>
-      <c r="D56" s="113"/>
+      <c r="A56" s="133"/>
+      <c r="B56" s="117"/>
+      <c r="C56" s="119"/>
+      <c r="D56" s="114"/>
       <c r="E56" s="17" t="s">
         <v>7</v>
       </c>
@@ -4678,10 +4678,10 @@
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="138"/>
-      <c r="B57" s="122"/>
-      <c r="C57" s="116"/>
-      <c r="D57" s="113"/>
+      <c r="A57" s="133"/>
+      <c r="B57" s="117"/>
+      <c r="C57" s="119"/>
+      <c r="D57" s="114"/>
       <c r="E57" s="17" t="s">
         <v>8</v>
       </c>
@@ -4720,10 +4720,10 @@
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="138"/>
-      <c r="B58" s="122"/>
-      <c r="C58" s="117"/>
-      <c r="D58" s="124"/>
+      <c r="A58" s="133"/>
+      <c r="B58" s="117"/>
+      <c r="C58" s="125"/>
+      <c r="D58" s="115"/>
       <c r="E58" s="28" t="s">
         <v>20</v>
       </c>
@@ -4762,12 +4762,12 @@
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="138"/>
-      <c r="B59" s="122"/>
-      <c r="C59" s="116" t="s">
+      <c r="A59" s="133"/>
+      <c r="B59" s="117"/>
+      <c r="C59" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="D59" s="112" t="s">
+      <c r="D59" s="113" t="s">
         <v>66</v>
       </c>
       <c r="E59" s="26" t="s">
@@ -4808,10 +4808,10 @@
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="138"/>
-      <c r="B60" s="122"/>
-      <c r="C60" s="116"/>
-      <c r="D60" s="113"/>
+      <c r="A60" s="133"/>
+      <c r="B60" s="117"/>
+      <c r="C60" s="119"/>
+      <c r="D60" s="114"/>
       <c r="E60" s="16" t="s">
         <v>5</v>
       </c>
@@ -4850,10 +4850,10 @@
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="138"/>
-      <c r="B61" s="122"/>
-      <c r="C61" s="116"/>
-      <c r="D61" s="113"/>
+      <c r="A61" s="133"/>
+      <c r="B61" s="117"/>
+      <c r="C61" s="119"/>
+      <c r="D61" s="114"/>
       <c r="E61" s="16" t="s">
         <v>6</v>
       </c>
@@ -4892,10 +4892,10 @@
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A62" s="138"/>
-      <c r="B62" s="122"/>
-      <c r="C62" s="116"/>
-      <c r="D62" s="113"/>
+      <c r="A62" s="133"/>
+      <c r="B62" s="117"/>
+      <c r="C62" s="119"/>
+      <c r="D62" s="114"/>
       <c r="E62" s="17" t="s">
         <v>7</v>
       </c>
@@ -4934,10 +4934,10 @@
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A63" s="138"/>
-      <c r="B63" s="122"/>
-      <c r="C63" s="116"/>
-      <c r="D63" s="113"/>
+      <c r="A63" s="133"/>
+      <c r="B63" s="117"/>
+      <c r="C63" s="119"/>
+      <c r="D63" s="114"/>
       <c r="E63" s="17" t="s">
         <v>8</v>
       </c>
@@ -4976,10 +4976,10 @@
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A64" s="138"/>
-      <c r="B64" s="123"/>
-      <c r="C64" s="117"/>
-      <c r="D64" s="124"/>
+      <c r="A64" s="133"/>
+      <c r="B64" s="118"/>
+      <c r="C64" s="125"/>
+      <c r="D64" s="115"/>
       <c r="E64" s="28" t="s">
         <v>20</v>
       </c>
@@ -5018,14 +5018,14 @@
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A65" s="138"/>
-      <c r="B65" s="140" t="s">
+      <c r="A65" s="133"/>
+      <c r="B65" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="C65" s="115" t="s">
+      <c r="C65" s="138" t="s">
         <v>56</v>
       </c>
-      <c r="D65" s="112" t="s">
+      <c r="D65" s="113" t="s">
         <v>66</v>
       </c>
       <c r="E65" s="26" t="s">
@@ -5066,10 +5066,10 @@
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A66" s="138"/>
-      <c r="B66" s="128"/>
-      <c r="C66" s="116"/>
-      <c r="D66" s="113"/>
+      <c r="A66" s="133"/>
+      <c r="B66" s="123"/>
+      <c r="C66" s="119"/>
+      <c r="D66" s="114"/>
       <c r="E66" s="16" t="s">
         <v>5</v>
       </c>
@@ -5108,10 +5108,10 @@
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A67" s="138"/>
-      <c r="B67" s="128"/>
-      <c r="C67" s="116"/>
-      <c r="D67" s="113"/>
+      <c r="A67" s="133"/>
+      <c r="B67" s="123"/>
+      <c r="C67" s="119"/>
+      <c r="D67" s="114"/>
       <c r="E67" s="16" t="s">
         <v>6</v>
       </c>
@@ -5150,10 +5150,10 @@
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A68" s="138"/>
-      <c r="B68" s="128"/>
-      <c r="C68" s="116"/>
-      <c r="D68" s="113"/>
+      <c r="A68" s="133"/>
+      <c r="B68" s="123"/>
+      <c r="C68" s="119"/>
+      <c r="D68" s="114"/>
       <c r="E68" s="16" t="s">
         <v>7</v>
       </c>
@@ -5192,10 +5192,10 @@
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A69" s="138"/>
-      <c r="B69" s="128"/>
-      <c r="C69" s="116"/>
-      <c r="D69" s="113"/>
+      <c r="A69" s="133"/>
+      <c r="B69" s="123"/>
+      <c r="C69" s="119"/>
+      <c r="D69" s="114"/>
       <c r="E69" s="16" t="s">
         <v>8</v>
       </c>
@@ -5234,10 +5234,10 @@
       </c>
     </row>
     <row r="70" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="139"/>
-      <c r="B70" s="141"/>
-      <c r="C70" s="125"/>
-      <c r="D70" s="114"/>
+      <c r="A70" s="134"/>
+      <c r="B70" s="135"/>
+      <c r="C70" s="144"/>
+      <c r="D70" s="140"/>
       <c r="E70" s="19" t="s">
         <v>20</v>
       </c>
@@ -5276,16 +5276,16 @@
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A71" s="143" t="s">
+      <c r="A71" s="120" t="s">
         <v>38</v>
       </c>
-      <c r="B71" s="140" t="s">
+      <c r="B71" s="122" t="s">
         <v>9</v>
       </c>
       <c r="C71" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D71" s="112" t="s">
+      <c r="D71" s="113" t="s">
         <v>66</v>
       </c>
       <c r="E71" s="26" t="s">
@@ -5326,12 +5326,12 @@
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A72" s="143"/>
-      <c r="B72" s="128"/>
-      <c r="C72" s="116" t="s">
+      <c r="A72" s="120"/>
+      <c r="B72" s="123"/>
+      <c r="C72" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="D72" s="113"/>
+      <c r="D72" s="114"/>
       <c r="E72" s="16" t="s">
         <v>14</v>
       </c>
@@ -5370,10 +5370,10 @@
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A73" s="143"/>
-      <c r="B73" s="128"/>
-      <c r="C73" s="116"/>
-      <c r="D73" s="113"/>
+      <c r="A73" s="120"/>
+      <c r="B73" s="123"/>
+      <c r="C73" s="119"/>
+      <c r="D73" s="114"/>
       <c r="E73" s="16" t="s">
         <v>15</v>
       </c>
@@ -5412,10 +5412,10 @@
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A74" s="143"/>
-      <c r="B74" s="128"/>
-      <c r="C74" s="116"/>
-      <c r="D74" s="113"/>
+      <c r="A74" s="120"/>
+      <c r="B74" s="123"/>
+      <c r="C74" s="119"/>
+      <c r="D74" s="114"/>
       <c r="E74" s="16" t="s">
         <v>16</v>
       </c>
@@ -5454,10 +5454,10 @@
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A75" s="143"/>
-      <c r="B75" s="128"/>
-      <c r="C75" s="116"/>
-      <c r="D75" s="113"/>
+      <c r="A75" s="120"/>
+      <c r="B75" s="123"/>
+      <c r="C75" s="119"/>
+      <c r="D75" s="114"/>
       <c r="E75" s="16" t="s">
         <v>17</v>
       </c>
@@ -5496,10 +5496,10 @@
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A76" s="143"/>
-      <c r="B76" s="129"/>
-      <c r="C76" s="117"/>
-      <c r="D76" s="124"/>
+      <c r="A76" s="120"/>
+      <c r="B76" s="124"/>
+      <c r="C76" s="125"/>
+      <c r="D76" s="115"/>
       <c r="E76" s="28" t="s">
         <v>18</v>
       </c>
@@ -5538,14 +5538,14 @@
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A77" s="143"/>
-      <c r="B77" s="140" t="s">
+      <c r="A77" s="120"/>
+      <c r="B77" s="122" t="s">
         <v>10</v>
       </c>
       <c r="C77" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D77" s="112" t="s">
+      <c r="D77" s="113" t="s">
         <v>66</v>
       </c>
       <c r="E77" s="26" t="s">
@@ -5586,12 +5586,12 @@
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A78" s="143"/>
-      <c r="B78" s="128"/>
-      <c r="C78" s="116" t="s">
+      <c r="A78" s="120"/>
+      <c r="B78" s="123"/>
+      <c r="C78" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="D78" s="113"/>
+      <c r="D78" s="114"/>
       <c r="E78" s="16" t="s">
         <v>14</v>
       </c>
@@ -5630,10 +5630,10 @@
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A79" s="143"/>
-      <c r="B79" s="128"/>
-      <c r="C79" s="116"/>
-      <c r="D79" s="113"/>
+      <c r="A79" s="120"/>
+      <c r="B79" s="123"/>
+      <c r="C79" s="119"/>
+      <c r="D79" s="114"/>
       <c r="E79" s="16" t="s">
         <v>15</v>
       </c>
@@ -5672,10 +5672,10 @@
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A80" s="143"/>
-      <c r="B80" s="128"/>
-      <c r="C80" s="116"/>
-      <c r="D80" s="113"/>
+      <c r="A80" s="120"/>
+      <c r="B80" s="123"/>
+      <c r="C80" s="119"/>
+      <c r="D80" s="114"/>
       <c r="E80" s="16" t="s">
         <v>16</v>
       </c>
@@ -5714,10 +5714,10 @@
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A81" s="143"/>
-      <c r="B81" s="128"/>
-      <c r="C81" s="116"/>
-      <c r="D81" s="113"/>
+      <c r="A81" s="120"/>
+      <c r="B81" s="123"/>
+      <c r="C81" s="119"/>
+      <c r="D81" s="114"/>
       <c r="E81" s="16" t="s">
         <v>17</v>
       </c>
@@ -5756,10 +5756,10 @@
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A82" s="143"/>
-      <c r="B82" s="129"/>
-      <c r="C82" s="117"/>
-      <c r="D82" s="124"/>
+      <c r="A82" s="120"/>
+      <c r="B82" s="124"/>
+      <c r="C82" s="125"/>
+      <c r="D82" s="115"/>
       <c r="E82" s="28" t="s">
         <v>18</v>
       </c>
@@ -5804,14 +5804,14 @@
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A83" s="143"/>
-      <c r="B83" s="140" t="s">
+      <c r="A83" s="120"/>
+      <c r="B83" s="122" t="s">
         <v>11</v>
       </c>
       <c r="C83" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D83" s="112" t="s">
+      <c r="D83" s="113" t="s">
         <v>66</v>
       </c>
       <c r="E83" s="26" t="s">
@@ -5852,12 +5852,12 @@
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A84" s="143"/>
-      <c r="B84" s="128"/>
-      <c r="C84" s="116" t="s">
+      <c r="A84" s="120"/>
+      <c r="B84" s="123"/>
+      <c r="C84" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="D84" s="113"/>
+      <c r="D84" s="114"/>
       <c r="E84" s="16" t="s">
         <v>14</v>
       </c>
@@ -5896,10 +5896,10 @@
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A85" s="143"/>
-      <c r="B85" s="128"/>
-      <c r="C85" s="116"/>
-      <c r="D85" s="113"/>
+      <c r="A85" s="120"/>
+      <c r="B85" s="123"/>
+      <c r="C85" s="119"/>
+      <c r="D85" s="114"/>
       <c r="E85" s="16" t="s">
         <v>15</v>
       </c>
@@ -5938,10 +5938,10 @@
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A86" s="143"/>
-      <c r="B86" s="128"/>
-      <c r="C86" s="116"/>
-      <c r="D86" s="113"/>
+      <c r="A86" s="120"/>
+      <c r="B86" s="123"/>
+      <c r="C86" s="119"/>
+      <c r="D86" s="114"/>
       <c r="E86" s="16" t="s">
         <v>16</v>
       </c>
@@ -5980,10 +5980,10 @@
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A87" s="143"/>
-      <c r="B87" s="128"/>
-      <c r="C87" s="116"/>
-      <c r="D87" s="113"/>
+      <c r="A87" s="120"/>
+      <c r="B87" s="123"/>
+      <c r="C87" s="119"/>
+      <c r="D87" s="114"/>
       <c r="E87" s="16" t="s">
         <v>17</v>
       </c>
@@ -6022,10 +6022,10 @@
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A88" s="143"/>
-      <c r="B88" s="129"/>
-      <c r="C88" s="117"/>
-      <c r="D88" s="124"/>
+      <c r="A88" s="120"/>
+      <c r="B88" s="124"/>
+      <c r="C88" s="125"/>
+      <c r="D88" s="115"/>
       <c r="E88" s="28" t="s">
         <v>18</v>
       </c>
@@ -6070,7 +6070,7 @@
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A89" s="143"/>
+      <c r="A89" s="120"/>
       <c r="B89" s="35" t="s">
         <v>57</v>
       </c>
@@ -6118,7 +6118,7 @@
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A90" s="143"/>
+      <c r="A90" s="120"/>
       <c r="B90" s="35" t="s">
         <v>58</v>
       </c>
@@ -6166,7 +6166,7 @@
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A91" s="143"/>
+      <c r="A91" s="120"/>
       <c r="B91" s="33" t="s">
         <v>65</v>
       </c>
@@ -6214,7 +6214,7 @@
       </c>
     </row>
     <row r="92" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="144"/>
+      <c r="A92" s="121"/>
       <c r="B92" s="36" t="s">
         <v>59</v>
       </c>
@@ -6277,90 +6277,90 @@
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A97" s="142" t="s">
+      <c r="A97" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="B97" s="142"/>
-      <c r="C97" s="142"/>
-      <c r="D97" s="142"/>
-      <c r="E97" s="142"/>
-      <c r="F97" s="142"/>
-      <c r="G97" s="142"/>
-      <c r="H97" s="142"/>
-      <c r="I97" s="142"/>
-      <c r="J97" s="142"/>
-      <c r="K97" s="142"/>
-      <c r="L97" s="142"/>
-      <c r="M97" s="142"/>
-      <c r="N97" s="142"/>
-      <c r="O97" s="142"/>
-      <c r="P97" s="142"/>
-      <c r="Q97" s="142"/>
-      <c r="R97" s="142"/>
-      <c r="S97" s="142"/>
+      <c r="B97" s="112"/>
+      <c r="C97" s="112"/>
+      <c r="D97" s="112"/>
+      <c r="E97" s="112"/>
+      <c r="F97" s="112"/>
+      <c r="G97" s="112"/>
+      <c r="H97" s="112"/>
+      <c r="I97" s="112"/>
+      <c r="J97" s="112"/>
+      <c r="K97" s="112"/>
+      <c r="L97" s="112"/>
+      <c r="M97" s="112"/>
+      <c r="N97" s="112"/>
+      <c r="O97" s="112"/>
+      <c r="P97" s="112"/>
+      <c r="Q97" s="112"/>
+      <c r="R97" s="112"/>
+      <c r="S97" s="112"/>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A98" s="142"/>
-      <c r="B98" s="142"/>
-      <c r="C98" s="142"/>
-      <c r="D98" s="142"/>
-      <c r="E98" s="142"/>
-      <c r="F98" s="142"/>
-      <c r="G98" s="142"/>
-      <c r="H98" s="142"/>
-      <c r="I98" s="142"/>
-      <c r="J98" s="142"/>
-      <c r="K98" s="142"/>
-      <c r="L98" s="142"/>
-      <c r="M98" s="142"/>
-      <c r="N98" s="142"/>
-      <c r="O98" s="142"/>
-      <c r="P98" s="142"/>
-      <c r="Q98" s="142"/>
-      <c r="R98" s="142"/>
-      <c r="S98" s="142"/>
+      <c r="A98" s="112"/>
+      <c r="B98" s="112"/>
+      <c r="C98" s="112"/>
+      <c r="D98" s="112"/>
+      <c r="E98" s="112"/>
+      <c r="F98" s="112"/>
+      <c r="G98" s="112"/>
+      <c r="H98" s="112"/>
+      <c r="I98" s="112"/>
+      <c r="J98" s="112"/>
+      <c r="K98" s="112"/>
+      <c r="L98" s="112"/>
+      <c r="M98" s="112"/>
+      <c r="N98" s="112"/>
+      <c r="O98" s="112"/>
+      <c r="P98" s="112"/>
+      <c r="Q98" s="112"/>
+      <c r="R98" s="112"/>
+      <c r="S98" s="112"/>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A99" s="142" t="s">
+      <c r="A99" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="B99" s="142"/>
-      <c r="C99" s="142"/>
-      <c r="D99" s="142"/>
-      <c r="E99" s="142"/>
-      <c r="F99" s="142"/>
-      <c r="G99" s="142"/>
-      <c r="H99" s="142"/>
-      <c r="I99" s="142"/>
-      <c r="J99" s="142"/>
-      <c r="K99" s="142"/>
-      <c r="L99" s="142"/>
-      <c r="M99" s="142"/>
-      <c r="N99" s="142"/>
-      <c r="O99" s="142"/>
-      <c r="P99" s="142"/>
-      <c r="Q99" s="142"/>
-      <c r="R99" s="142"/>
+      <c r="B99" s="112"/>
+      <c r="C99" s="112"/>
+      <c r="D99" s="112"/>
+      <c r="E99" s="112"/>
+      <c r="F99" s="112"/>
+      <c r="G99" s="112"/>
+      <c r="H99" s="112"/>
+      <c r="I99" s="112"/>
+      <c r="J99" s="112"/>
+      <c r="K99" s="112"/>
+      <c r="L99" s="112"/>
+      <c r="M99" s="112"/>
+      <c r="N99" s="112"/>
+      <c r="O99" s="112"/>
+      <c r="P99" s="112"/>
+      <c r="Q99" s="112"/>
+      <c r="R99" s="112"/>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A100" s="142"/>
-      <c r="B100" s="142"/>
-      <c r="C100" s="142"/>
-      <c r="D100" s="142"/>
-      <c r="E100" s="142"/>
-      <c r="F100" s="142"/>
-      <c r="G100" s="142"/>
-      <c r="H100" s="142"/>
-      <c r="I100" s="142"/>
-      <c r="J100" s="142"/>
-      <c r="K100" s="142"/>
-      <c r="L100" s="142"/>
-      <c r="M100" s="142"/>
-      <c r="N100" s="142"/>
-      <c r="O100" s="142"/>
-      <c r="P100" s="142"/>
-      <c r="Q100" s="142"/>
-      <c r="R100" s="142"/>
+      <c r="A100" s="112"/>
+      <c r="B100" s="112"/>
+      <c r="C100" s="112"/>
+      <c r="D100" s="112"/>
+      <c r="E100" s="112"/>
+      <c r="F100" s="112"/>
+      <c r="G100" s="112"/>
+      <c r="H100" s="112"/>
+      <c r="I100" s="112"/>
+      <c r="J100" s="112"/>
+      <c r="K100" s="112"/>
+      <c r="L100" s="112"/>
+      <c r="M100" s="112"/>
+      <c r="N100" s="112"/>
+      <c r="O100" s="112"/>
+      <c r="P100" s="112"/>
+      <c r="Q100" s="112"/>
+      <c r="R100" s="112"/>
     </row>
     <row r="157" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D157" s="2"/>
@@ -6382,6 +6382,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="D65:D70"/>
+    <mergeCell ref="C35:C40"/>
+    <mergeCell ref="C41:C46"/>
+    <mergeCell ref="D35:D40"/>
+    <mergeCell ref="D41:D46"/>
+    <mergeCell ref="C47:C52"/>
+    <mergeCell ref="C59:C64"/>
+    <mergeCell ref="C53:C58"/>
+    <mergeCell ref="D53:D58"/>
+    <mergeCell ref="D59:D64"/>
+    <mergeCell ref="C65:C70"/>
+    <mergeCell ref="D23:D28"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="D29:D34"/>
+    <mergeCell ref="D47:D52"/>
+    <mergeCell ref="C29:C34"/>
+    <mergeCell ref="C23:C28"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A11:A22"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A23:A70"/>
+    <mergeCell ref="B65:B70"/>
+    <mergeCell ref="B47:B64"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="B29:B46"/>
     <mergeCell ref="A97:S98"/>
     <mergeCell ref="A99:R100"/>
     <mergeCell ref="D13:D18"/>
@@ -6398,32 +6424,6 @@
     <mergeCell ref="B83:B88"/>
     <mergeCell ref="D83:D88"/>
     <mergeCell ref="C84:C88"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A11:A22"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A23:A70"/>
-    <mergeCell ref="B65:B70"/>
-    <mergeCell ref="B47:B64"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="B29:B46"/>
-    <mergeCell ref="D23:D28"/>
-    <mergeCell ref="B23:B28"/>
-    <mergeCell ref="D29:D34"/>
-    <mergeCell ref="D47:D52"/>
-    <mergeCell ref="C29:C34"/>
-    <mergeCell ref="C23:C28"/>
-    <mergeCell ref="D65:D70"/>
-    <mergeCell ref="C35:C40"/>
-    <mergeCell ref="C41:C46"/>
-    <mergeCell ref="D35:D40"/>
-    <mergeCell ref="D41:D46"/>
-    <mergeCell ref="C47:C52"/>
-    <mergeCell ref="C59:C64"/>
-    <mergeCell ref="C53:C58"/>
-    <mergeCell ref="D53:D58"/>
-    <mergeCell ref="D59:D64"/>
-    <mergeCell ref="C65:C70"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6435,8 +6435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B09F221D-4B33-4C65-9CDA-6C45C4D602C8}">
   <dimension ref="B2:P122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="R76" sqref="R76"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19:P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6643,7 +6643,7 @@
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B7" s="121" t="s">
+      <c r="B7" s="116" t="s">
         <v>68</v>
       </c>
       <c r="C7" s="27" t="s">
@@ -6690,7 +6690,7 @@
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B8" s="122"/>
+      <c r="B8" s="117"/>
       <c r="C8" s="17" t="s">
         <v>28</v>
       </c>
@@ -6735,7 +6735,7 @@
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B9" s="123"/>
+      <c r="B9" s="118"/>
       <c r="C9" s="31" t="s">
         <v>30</v>
       </c>
@@ -6780,7 +6780,7 @@
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B10" s="122" t="s">
+      <c r="B10" s="117" t="s">
         <v>69</v>
       </c>
       <c r="C10" s="18" t="s">
@@ -6827,7 +6827,7 @@
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B11" s="122"/>
+      <c r="B11" s="117"/>
       <c r="C11" s="18" t="s">
         <v>32</v>
       </c>
@@ -6872,7 +6872,7 @@
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B12" s="123"/>
+      <c r="B12" s="118"/>
       <c r="C12" s="32" t="s">
         <v>33</v>
       </c>
@@ -7073,13 +7073,13 @@
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B21" s="140" t="s">
+      <c r="B21" s="122" t="s">
         <v>73</v>
       </c>
       <c r="C21" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="140" t="s">
+      <c r="D21" s="122" t="s">
         <v>66</v>
       </c>
       <c r="E21" s="26" t="s">
@@ -7120,11 +7120,11 @@
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B22" s="128"/>
-      <c r="C22" s="146" t="s">
+      <c r="B22" s="123"/>
+      <c r="C22" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="128"/>
+      <c r="D22" s="123"/>
       <c r="E22" s="16" t="s">
         <v>14</v>
       </c>
@@ -7163,9 +7163,9 @@
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B23" s="128"/>
-      <c r="C23" s="146"/>
-      <c r="D23" s="128"/>
+      <c r="B23" s="123"/>
+      <c r="C23" s="147"/>
+      <c r="D23" s="123"/>
       <c r="E23" s="16" t="s">
         <v>15</v>
       </c>
@@ -7204,9 +7204,9 @@
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B24" s="128"/>
-      <c r="C24" s="146"/>
-      <c r="D24" s="128"/>
+      <c r="B24" s="123"/>
+      <c r="C24" s="147"/>
+      <c r="D24" s="123"/>
       <c r="E24" s="16" t="s">
         <v>63</v>
       </c>
@@ -7245,9 +7245,9 @@
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B25" s="128"/>
-      <c r="C25" s="146"/>
-      <c r="D25" s="128"/>
+      <c r="B25" s="123"/>
+      <c r="C25" s="147"/>
+      <c r="D25" s="123"/>
       <c r="E25" s="16" t="s">
         <v>17</v>
       </c>
@@ -7286,11 +7286,11 @@
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B26" s="129"/>
+      <c r="B26" s="124"/>
       <c r="C26" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="129"/>
+      <c r="D26" s="124"/>
       <c r="E26" s="28" t="s">
         <v>23</v>
       </c>
@@ -7329,13 +7329,13 @@
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B27" s="140" t="s">
+      <c r="B27" s="122" t="s">
         <v>74</v>
       </c>
       <c r="C27" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="140" t="s">
+      <c r="D27" s="122" t="s">
         <v>66</v>
       </c>
       <c r="E27" s="26" t="s">
@@ -7376,11 +7376,11 @@
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B28" s="128"/>
+      <c r="B28" s="123"/>
       <c r="C28" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="128"/>
+      <c r="D28" s="123"/>
       <c r="E28" s="16" t="s">
         <v>23</v>
       </c>
@@ -7419,11 +7419,11 @@
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B29" s="129"/>
+      <c r="B29" s="124"/>
       <c r="C29" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="129"/>
+      <c r="D29" s="124"/>
       <c r="E29" s="28" t="s">
         <v>23</v>
       </c>
@@ -7509,61 +7509,61 @@
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B32" s="147" t="s">
+      <c r="B32" s="148" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="147"/>
-      <c r="D32" s="147"/>
-      <c r="E32" s="147"/>
-      <c r="F32" s="147"/>
-      <c r="G32" s="147"/>
-      <c r="H32" s="147"/>
-      <c r="I32" s="147"/>
-      <c r="J32" s="147"/>
-      <c r="K32" s="147"/>
-      <c r="L32" s="147"/>
-      <c r="M32" s="147"/>
-      <c r="N32" s="147"/>
-      <c r="O32" s="147"/>
-      <c r="P32" s="147"/>
+      <c r="C32" s="148"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="148"/>
+      <c r="N32" s="148"/>
+      <c r="O32" s="148"/>
+      <c r="P32" s="148"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B33" s="147" t="s">
+      <c r="B33" s="148" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="147"/>
-      <c r="D33" s="147"/>
-      <c r="E33" s="147"/>
-      <c r="F33" s="147"/>
-      <c r="G33" s="147"/>
-      <c r="H33" s="147"/>
-      <c r="I33" s="147"/>
-      <c r="J33" s="147"/>
-      <c r="K33" s="147"/>
-      <c r="L33" s="147"/>
-      <c r="M33" s="147"/>
-      <c r="N33" s="147"/>
-      <c r="O33" s="147"/>
-      <c r="P33" s="147"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="148"/>
+      <c r="N33" s="148"/>
+      <c r="O33" s="148"/>
+      <c r="P33" s="148"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B34" s="147" t="s">
+      <c r="B34" s="148" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="147"/>
-      <c r="D34" s="147"/>
-      <c r="E34" s="147"/>
-      <c r="F34" s="147"/>
-      <c r="G34" s="147"/>
-      <c r="H34" s="147"/>
-      <c r="I34" s="147"/>
-      <c r="J34" s="147"/>
-      <c r="K34" s="147"/>
-      <c r="L34" s="147"/>
-      <c r="M34" s="147"/>
-      <c r="N34" s="147"/>
-      <c r="O34" s="147"/>
-      <c r="P34" s="147"/>
+      <c r="C34" s="148"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="148"/>
+      <c r="N34" s="148"/>
+      <c r="O34" s="148"/>
+      <c r="P34" s="148"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
@@ -7618,13 +7618,13 @@
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B38" s="140" t="s">
+      <c r="B38" s="122" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="115" t="s">
+      <c r="C38" s="138" t="s">
         <v>55</v>
       </c>
-      <c r="D38" s="112" t="s">
+      <c r="D38" s="113" t="s">
         <v>66</v>
       </c>
       <c r="E38" s="26" t="s">
@@ -7665,9 +7665,9 @@
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B39" s="128"/>
-      <c r="C39" s="116"/>
-      <c r="D39" s="113"/>
+      <c r="B39" s="123"/>
+      <c r="C39" s="119"/>
+      <c r="D39" s="114"/>
       <c r="E39" s="16" t="s">
         <v>5</v>
       </c>
@@ -7706,9 +7706,9 @@
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B40" s="128"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="113"/>
+      <c r="B40" s="123"/>
+      <c r="C40" s="119"/>
+      <c r="D40" s="114"/>
       <c r="E40" s="16" t="s">
         <v>6</v>
       </c>
@@ -7747,9 +7747,9 @@
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B41" s="128"/>
-      <c r="C41" s="116"/>
-      <c r="D41" s="113"/>
+      <c r="B41" s="123"/>
+      <c r="C41" s="119"/>
+      <c r="D41" s="114"/>
       <c r="E41" s="17" t="s">
         <v>7</v>
       </c>
@@ -7788,9 +7788,9 @@
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B42" s="128"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="113"/>
+      <c r="B42" s="123"/>
+      <c r="C42" s="119"/>
+      <c r="D42" s="114"/>
       <c r="E42" s="17" t="s">
         <v>8</v>
       </c>
@@ -7829,9 +7829,9 @@
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B43" s="129"/>
-      <c r="C43" s="117"/>
-      <c r="D43" s="124"/>
+      <c r="B43" s="124"/>
+      <c r="C43" s="125"/>
+      <c r="D43" s="115"/>
       <c r="E43" s="28" t="s">
         <v>20</v>
       </c>
@@ -7870,13 +7870,13 @@
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B44" s="121" t="s">
+      <c r="B44" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="115" t="s">
+      <c r="C44" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="D44" s="112" t="s">
+      <c r="D44" s="113" t="s">
         <v>66</v>
       </c>
       <c r="E44" s="26" t="s">
@@ -7917,9 +7917,9 @@
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B45" s="122"/>
-      <c r="C45" s="116"/>
-      <c r="D45" s="113"/>
+      <c r="B45" s="117"/>
+      <c r="C45" s="119"/>
+      <c r="D45" s="114"/>
       <c r="E45" s="16" t="s">
         <v>5</v>
       </c>
@@ -7958,9 +7958,9 @@
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B46" s="122"/>
-      <c r="C46" s="116"/>
-      <c r="D46" s="113"/>
+      <c r="B46" s="117"/>
+      <c r="C46" s="119"/>
+      <c r="D46" s="114"/>
       <c r="E46" s="16" t="s">
         <v>6</v>
       </c>
@@ -7999,9 +7999,9 @@
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B47" s="122"/>
-      <c r="C47" s="116"/>
-      <c r="D47" s="113"/>
+      <c r="B47" s="117"/>
+      <c r="C47" s="119"/>
+      <c r="D47" s="114"/>
       <c r="E47" s="17" t="s">
         <v>7</v>
       </c>
@@ -8040,9 +8040,9 @@
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B48" s="122"/>
-      <c r="C48" s="116"/>
-      <c r="D48" s="113"/>
+      <c r="B48" s="117"/>
+      <c r="C48" s="119"/>
+      <c r="D48" s="114"/>
       <c r="E48" s="17" t="s">
         <v>8</v>
       </c>
@@ -8081,9 +8081,9 @@
       </c>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B49" s="122"/>
-      <c r="C49" s="117"/>
-      <c r="D49" s="124"/>
+      <c r="B49" s="117"/>
+      <c r="C49" s="125"/>
+      <c r="D49" s="115"/>
       <c r="E49" s="28" t="s">
         <v>20</v>
       </c>
@@ -8122,11 +8122,11 @@
       </c>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B50" s="122"/>
-      <c r="C50" s="115" t="s">
+      <c r="B50" s="117"/>
+      <c r="C50" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="D50" s="121" t="s">
+      <c r="D50" s="116" t="s">
         <v>66</v>
       </c>
       <c r="E50" s="26" t="s">
@@ -8167,9 +8167,9 @@
       </c>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B51" s="122"/>
-      <c r="C51" s="116"/>
-      <c r="D51" s="122"/>
+      <c r="B51" s="117"/>
+      <c r="C51" s="119"/>
+      <c r="D51" s="117"/>
       <c r="E51" s="16" t="s">
         <v>5</v>
       </c>
@@ -8208,9 +8208,9 @@
       </c>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B52" s="122"/>
-      <c r="C52" s="116"/>
-      <c r="D52" s="122"/>
+      <c r="B52" s="117"/>
+      <c r="C52" s="119"/>
+      <c r="D52" s="117"/>
       <c r="E52" s="16" t="s">
         <v>6</v>
       </c>
@@ -8249,9 +8249,9 @@
       </c>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B53" s="122"/>
-      <c r="C53" s="116"/>
-      <c r="D53" s="122"/>
+      <c r="B53" s="117"/>
+      <c r="C53" s="119"/>
+      <c r="D53" s="117"/>
       <c r="E53" s="17" t="s">
         <v>7</v>
       </c>
@@ -8290,9 +8290,9 @@
       </c>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B54" s="122"/>
-      <c r="C54" s="116"/>
-      <c r="D54" s="122"/>
+      <c r="B54" s="117"/>
+      <c r="C54" s="119"/>
+      <c r="D54" s="117"/>
       <c r="E54" s="17" t="s">
         <v>8</v>
       </c>
@@ -8331,9 +8331,9 @@
       </c>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B55" s="122"/>
-      <c r="C55" s="117"/>
-      <c r="D55" s="123"/>
+      <c r="B55" s="117"/>
+      <c r="C55" s="125"/>
+      <c r="D55" s="118"/>
       <c r="E55" s="28" t="s">
         <v>20</v>
       </c>
@@ -8372,11 +8372,11 @@
       </c>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B56" s="122"/>
-      <c r="C56" s="115" t="s">
+      <c r="B56" s="117"/>
+      <c r="C56" s="138" t="s">
         <v>29</v>
       </c>
-      <c r="D56" s="121" t="s">
+      <c r="D56" s="116" t="s">
         <v>66</v>
       </c>
       <c r="E56" s="26" t="s">
@@ -8417,9 +8417,9 @@
       </c>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B57" s="122"/>
-      <c r="C57" s="116"/>
-      <c r="D57" s="122"/>
+      <c r="B57" s="117"/>
+      <c r="C57" s="119"/>
+      <c r="D57" s="117"/>
       <c r="E57" s="16" t="s">
         <v>5</v>
       </c>
@@ -8458,9 +8458,9 @@
       </c>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B58" s="122"/>
-      <c r="C58" s="116"/>
-      <c r="D58" s="122"/>
+      <c r="B58" s="117"/>
+      <c r="C58" s="119"/>
+      <c r="D58" s="117"/>
       <c r="E58" s="16" t="s">
         <v>6</v>
       </c>
@@ -8499,9 +8499,9 @@
       </c>
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B59" s="122"/>
-      <c r="C59" s="116"/>
-      <c r="D59" s="122"/>
+      <c r="B59" s="117"/>
+      <c r="C59" s="119"/>
+      <c r="D59" s="117"/>
       <c r="E59" s="17" t="s">
         <v>7</v>
       </c>
@@ -8540,9 +8540,9 @@
       </c>
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B60" s="122"/>
-      <c r="C60" s="116"/>
-      <c r="D60" s="122"/>
+      <c r="B60" s="117"/>
+      <c r="C60" s="119"/>
+      <c r="D60" s="117"/>
       <c r="E60" s="17" t="s">
         <v>8</v>
       </c>
@@ -8581,9 +8581,9 @@
       </c>
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B61" s="123"/>
-      <c r="C61" s="117"/>
-      <c r="D61" s="123"/>
+      <c r="B61" s="118"/>
+      <c r="C61" s="125"/>
+      <c r="D61" s="118"/>
       <c r="E61" s="28" t="s">
         <v>20</v>
       </c>
@@ -8622,13 +8622,13 @@
       </c>
     </row>
     <row r="62" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B62" s="121" t="s">
+      <c r="B62" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="C62" s="115" t="s">
+      <c r="C62" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="D62" s="112" t="s">
+      <c r="D62" s="113" t="s">
         <v>66</v>
       </c>
       <c r="E62" s="26" t="s">
@@ -8669,9 +8669,9 @@
       </c>
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B63" s="122"/>
-      <c r="C63" s="116"/>
-      <c r="D63" s="113"/>
+      <c r="B63" s="117"/>
+      <c r="C63" s="119"/>
+      <c r="D63" s="114"/>
       <c r="E63" s="16" t="s">
         <v>5</v>
       </c>
@@ -8710,9 +8710,9 @@
       </c>
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B64" s="122"/>
-      <c r="C64" s="116"/>
-      <c r="D64" s="113"/>
+      <c r="B64" s="117"/>
+      <c r="C64" s="119"/>
+      <c r="D64" s="114"/>
       <c r="E64" s="16" t="s">
         <v>6</v>
       </c>
@@ -8751,9 +8751,9 @@
       </c>
     </row>
     <row r="65" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B65" s="122"/>
-      <c r="C65" s="116"/>
-      <c r="D65" s="113"/>
+      <c r="B65" s="117"/>
+      <c r="C65" s="119"/>
+      <c r="D65" s="114"/>
       <c r="E65" s="17" t="s">
         <v>7</v>
       </c>
@@ -8792,9 +8792,9 @@
       </c>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B66" s="122"/>
-      <c r="C66" s="116"/>
-      <c r="D66" s="113"/>
+      <c r="B66" s="117"/>
+      <c r="C66" s="119"/>
+      <c r="D66" s="114"/>
       <c r="E66" s="17" t="s">
         <v>8</v>
       </c>
@@ -8833,9 +8833,9 @@
       </c>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B67" s="122"/>
-      <c r="C67" s="117"/>
-      <c r="D67" s="124"/>
+      <c r="B67" s="117"/>
+      <c r="C67" s="125"/>
+      <c r="D67" s="115"/>
       <c r="E67" s="28" t="s">
         <v>20</v>
       </c>
@@ -8874,11 +8874,11 @@
       </c>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B68" s="122"/>
-      <c r="C68" s="115" t="s">
+      <c r="B68" s="117"/>
+      <c r="C68" s="138" t="s">
         <v>31</v>
       </c>
-      <c r="D68" s="112" t="s">
+      <c r="D68" s="113" t="s">
         <v>66</v>
       </c>
       <c r="E68" s="26" t="s">
@@ -8919,9 +8919,9 @@
       </c>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B69" s="122"/>
-      <c r="C69" s="116"/>
-      <c r="D69" s="113"/>
+      <c r="B69" s="117"/>
+      <c r="C69" s="119"/>
+      <c r="D69" s="114"/>
       <c r="E69" s="16" t="s">
         <v>5</v>
       </c>
@@ -8960,9 +8960,9 @@
       </c>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B70" s="122"/>
-      <c r="C70" s="116"/>
-      <c r="D70" s="113"/>
+      <c r="B70" s="117"/>
+      <c r="C70" s="119"/>
+      <c r="D70" s="114"/>
       <c r="E70" s="16" t="s">
         <v>6</v>
       </c>
@@ -9001,9 +9001,9 @@
       </c>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B71" s="122"/>
-      <c r="C71" s="116"/>
-      <c r="D71" s="113"/>
+      <c r="B71" s="117"/>
+      <c r="C71" s="119"/>
+      <c r="D71" s="114"/>
       <c r="E71" s="17" t="s">
         <v>7</v>
       </c>
@@ -9042,9 +9042,9 @@
       </c>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B72" s="122"/>
-      <c r="C72" s="116"/>
-      <c r="D72" s="113"/>
+      <c r="B72" s="117"/>
+      <c r="C72" s="119"/>
+      <c r="D72" s="114"/>
       <c r="E72" s="17" t="s">
         <v>8</v>
       </c>
@@ -9083,9 +9083,9 @@
       </c>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B73" s="122"/>
-      <c r="C73" s="117"/>
-      <c r="D73" s="124"/>
+      <c r="B73" s="117"/>
+      <c r="C73" s="125"/>
+      <c r="D73" s="115"/>
       <c r="E73" s="28" t="s">
         <v>20</v>
       </c>
@@ -9124,11 +9124,11 @@
       </c>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B74" s="122"/>
-      <c r="C74" s="115" t="s">
+      <c r="B74" s="117"/>
+      <c r="C74" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="D74" s="112" t="s">
+      <c r="D74" s="113" t="s">
         <v>66</v>
       </c>
       <c r="E74" s="26" t="s">
@@ -9169,9 +9169,9 @@
       </c>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B75" s="122"/>
-      <c r="C75" s="116"/>
-      <c r="D75" s="113"/>
+      <c r="B75" s="117"/>
+      <c r="C75" s="119"/>
+      <c r="D75" s="114"/>
       <c r="E75" s="16" t="s">
         <v>5</v>
       </c>
@@ -9210,9 +9210,9 @@
       </c>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B76" s="122"/>
-      <c r="C76" s="116"/>
-      <c r="D76" s="113"/>
+      <c r="B76" s="117"/>
+      <c r="C76" s="119"/>
+      <c r="D76" s="114"/>
       <c r="E76" s="16" t="s">
         <v>6</v>
       </c>
@@ -9251,9 +9251,9 @@
       </c>
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B77" s="122"/>
-      <c r="C77" s="116"/>
-      <c r="D77" s="113"/>
+      <c r="B77" s="117"/>
+      <c r="C77" s="119"/>
+      <c r="D77" s="114"/>
       <c r="E77" s="17" t="s">
         <v>7</v>
       </c>
@@ -9292,9 +9292,9 @@
       </c>
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B78" s="122"/>
-      <c r="C78" s="116"/>
-      <c r="D78" s="113"/>
+      <c r="B78" s="117"/>
+      <c r="C78" s="119"/>
+      <c r="D78" s="114"/>
       <c r="E78" s="17" t="s">
         <v>8</v>
       </c>
@@ -9333,9 +9333,9 @@
       </c>
     </row>
     <row r="79" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B79" s="123"/>
-      <c r="C79" s="117"/>
-      <c r="D79" s="124"/>
+      <c r="B79" s="118"/>
+      <c r="C79" s="125"/>
+      <c r="D79" s="115"/>
       <c r="E79" s="28" t="s">
         <v>20</v>
       </c>
@@ -9374,13 +9374,13 @@
       </c>
     </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B80" s="140" t="s">
+      <c r="B80" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="C80" s="115" t="s">
+      <c r="C80" s="138" t="s">
         <v>56</v>
       </c>
-      <c r="D80" s="112" t="s">
+      <c r="D80" s="113" t="s">
         <v>66</v>
       </c>
       <c r="E80" s="26" t="s">
@@ -9421,9 +9421,9 @@
       </c>
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B81" s="128"/>
-      <c r="C81" s="116"/>
-      <c r="D81" s="113"/>
+      <c r="B81" s="123"/>
+      <c r="C81" s="119"/>
+      <c r="D81" s="114"/>
       <c r="E81" s="16" t="s">
         <v>5</v>
       </c>
@@ -9462,9 +9462,9 @@
       </c>
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B82" s="128"/>
-      <c r="C82" s="116"/>
-      <c r="D82" s="113"/>
+      <c r="B82" s="123"/>
+      <c r="C82" s="119"/>
+      <c r="D82" s="114"/>
       <c r="E82" s="16" t="s">
         <v>6</v>
       </c>
@@ -9503,9 +9503,9 @@
       </c>
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B83" s="128"/>
-      <c r="C83" s="116"/>
-      <c r="D83" s="113"/>
+      <c r="B83" s="123"/>
+      <c r="C83" s="119"/>
+      <c r="D83" s="114"/>
       <c r="E83" s="16" t="s">
         <v>7</v>
       </c>
@@ -9544,9 +9544,9 @@
       </c>
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B84" s="128"/>
-      <c r="C84" s="116"/>
-      <c r="D84" s="113"/>
+      <c r="B84" s="123"/>
+      <c r="C84" s="119"/>
+      <c r="D84" s="114"/>
       <c r="E84" s="16" t="s">
         <v>8</v>
       </c>
@@ -9585,9 +9585,9 @@
       </c>
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B85" s="129"/>
-      <c r="C85" s="117"/>
-      <c r="D85" s="124"/>
+      <c r="B85" s="124"/>
+      <c r="C85" s="125"/>
+      <c r="D85" s="115"/>
       <c r="E85" s="28" t="s">
         <v>20</v>
       </c>
@@ -9626,74 +9626,74 @@
       </c>
     </row>
     <row r="87" spans="2:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="148" t="s">
+      <c r="B87" s="145" t="s">
         <v>96</v>
       </c>
-      <c r="C87" s="148"/>
-      <c r="D87" s="148"/>
-      <c r="E87" s="148"/>
-      <c r="F87" s="148"/>
-      <c r="G87" s="148"/>
-      <c r="H87" s="148"/>
-      <c r="I87" s="148"/>
-      <c r="J87" s="148"/>
-      <c r="K87" s="148"/>
-      <c r="L87" s="148"/>
-      <c r="M87" s="148"/>
-      <c r="N87" s="148"/>
-      <c r="O87" s="148"/>
-      <c r="P87" s="148"/>
+      <c r="C87" s="145"/>
+      <c r="D87" s="145"/>
+      <c r="E87" s="145"/>
+      <c r="F87" s="145"/>
+      <c r="G87" s="145"/>
+      <c r="H87" s="145"/>
+      <c r="I87" s="145"/>
+      <c r="J87" s="145"/>
+      <c r="K87" s="145"/>
+      <c r="L87" s="145"/>
+      <c r="M87" s="145"/>
+      <c r="N87" s="145"/>
+      <c r="O87" s="145"/>
+      <c r="P87" s="145"/>
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B88" s="148"/>
-      <c r="C88" s="148"/>
-      <c r="D88" s="148"/>
-      <c r="E88" s="148"/>
-      <c r="F88" s="148"/>
-      <c r="G88" s="148"/>
-      <c r="H88" s="148"/>
-      <c r="I88" s="148"/>
-      <c r="J88" s="148"/>
-      <c r="K88" s="148"/>
-      <c r="L88" s="148"/>
-      <c r="M88" s="148"/>
-      <c r="N88" s="148"/>
-      <c r="O88" s="148"/>
-      <c r="P88" s="148"/>
+      <c r="B88" s="145"/>
+      <c r="C88" s="145"/>
+      <c r="D88" s="145"/>
+      <c r="E88" s="145"/>
+      <c r="F88" s="145"/>
+      <c r="G88" s="145"/>
+      <c r="H88" s="145"/>
+      <c r="I88" s="145"/>
+      <c r="J88" s="145"/>
+      <c r="K88" s="145"/>
+      <c r="L88" s="145"/>
+      <c r="M88" s="145"/>
+      <c r="N88" s="145"/>
+      <c r="O88" s="145"/>
+      <c r="P88" s="145"/>
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B89" s="148"/>
-      <c r="C89" s="148"/>
-      <c r="D89" s="148"/>
-      <c r="E89" s="148"/>
-      <c r="F89" s="148"/>
-      <c r="G89" s="148"/>
-      <c r="H89" s="148"/>
-      <c r="I89" s="148"/>
-      <c r="J89" s="148"/>
-      <c r="K89" s="148"/>
-      <c r="L89" s="148"/>
-      <c r="M89" s="148"/>
-      <c r="N89" s="148"/>
-      <c r="O89" s="148"/>
-      <c r="P89" s="148"/>
+      <c r="B89" s="145"/>
+      <c r="C89" s="145"/>
+      <c r="D89" s="145"/>
+      <c r="E89" s="145"/>
+      <c r="F89" s="145"/>
+      <c r="G89" s="145"/>
+      <c r="H89" s="145"/>
+      <c r="I89" s="145"/>
+      <c r="J89" s="145"/>
+      <c r="K89" s="145"/>
+      <c r="L89" s="145"/>
+      <c r="M89" s="145"/>
+      <c r="N89" s="145"/>
+      <c r="O89" s="145"/>
+      <c r="P89" s="145"/>
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B90" s="148"/>
-      <c r="C90" s="148"/>
-      <c r="D90" s="148"/>
-      <c r="E90" s="148"/>
-      <c r="F90" s="148"/>
-      <c r="G90" s="148"/>
-      <c r="H90" s="148"/>
-      <c r="I90" s="148"/>
-      <c r="J90" s="148"/>
-      <c r="K90" s="148"/>
-      <c r="L90" s="148"/>
-      <c r="M90" s="148"/>
-      <c r="N90" s="148"/>
-      <c r="O90" s="148"/>
-      <c r="P90" s="148"/>
+      <c r="B90" s="145"/>
+      <c r="C90" s="145"/>
+      <c r="D90" s="145"/>
+      <c r="E90" s="145"/>
+      <c r="F90" s="145"/>
+      <c r="G90" s="145"/>
+      <c r="H90" s="145"/>
+      <c r="I90" s="145"/>
+      <c r="J90" s="145"/>
+      <c r="K90" s="145"/>
+      <c r="L90" s="145"/>
+      <c r="M90" s="145"/>
+      <c r="N90" s="145"/>
+      <c r="O90" s="145"/>
+      <c r="P90" s="145"/>
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B91" s="50"/>
@@ -9765,13 +9765,13 @@
       </c>
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B94" s="140" t="s">
+      <c r="B94" s="122" t="s">
         <v>9</v>
       </c>
       <c r="C94" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D94" s="121" t="s">
+      <c r="D94" s="116" t="s">
         <v>66</v>
       </c>
       <c r="E94" s="23" t="s">
@@ -9812,11 +9812,11 @@
       </c>
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B95" s="128"/>
-      <c r="C95" s="115" t="s">
+      <c r="B95" s="123"/>
+      <c r="C95" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="D95" s="122"/>
+      <c r="D95" s="117"/>
       <c r="E95" s="16" t="s">
         <v>14</v>
       </c>
@@ -9855,9 +9855,9 @@
       </c>
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B96" s="128"/>
-      <c r="C96" s="116"/>
-      <c r="D96" s="122"/>
+      <c r="B96" s="123"/>
+      <c r="C96" s="119"/>
+      <c r="D96" s="117"/>
       <c r="E96" s="16" t="s">
         <v>15</v>
       </c>
@@ -9896,9 +9896,9 @@
       </c>
     </row>
     <row r="97" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B97" s="128"/>
-      <c r="C97" s="116"/>
-      <c r="D97" s="122"/>
+      <c r="B97" s="123"/>
+      <c r="C97" s="119"/>
+      <c r="D97" s="117"/>
       <c r="E97" s="16" t="s">
         <v>61</v>
       </c>
@@ -9937,9 +9937,9 @@
       </c>
     </row>
     <row r="98" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B98" s="128"/>
-      <c r="C98" s="116"/>
-      <c r="D98" s="122"/>
+      <c r="B98" s="123"/>
+      <c r="C98" s="119"/>
+      <c r="D98" s="117"/>
       <c r="E98" s="16" t="s">
         <v>17</v>
       </c>
@@ -9978,9 +9978,9 @@
       </c>
     </row>
     <row r="99" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B99" s="129"/>
-      <c r="C99" s="117"/>
-      <c r="D99" s="123"/>
+      <c r="B99" s="124"/>
+      <c r="C99" s="125"/>
+      <c r="D99" s="118"/>
       <c r="E99" s="28" t="s">
         <v>89</v>
       </c>
@@ -10019,13 +10019,13 @@
       </c>
     </row>
     <row r="100" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B100" s="140" t="s">
+      <c r="B100" s="122" t="s">
         <v>10</v>
       </c>
       <c r="C100" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D100" s="121" t="s">
+      <c r="D100" s="116" t="s">
         <v>66</v>
       </c>
       <c r="E100" s="23" t="s">
@@ -10066,11 +10066,11 @@
       </c>
     </row>
     <row r="101" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B101" s="128"/>
-      <c r="C101" s="116" t="s">
+      <c r="B101" s="123"/>
+      <c r="C101" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="D101" s="122"/>
+      <c r="D101" s="117"/>
       <c r="E101" s="16" t="s">
         <v>14</v>
       </c>
@@ -10109,9 +10109,9 @@
       </c>
     </row>
     <row r="102" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B102" s="128"/>
-      <c r="C102" s="116"/>
-      <c r="D102" s="122"/>
+      <c r="B102" s="123"/>
+      <c r="C102" s="119"/>
+      <c r="D102" s="117"/>
       <c r="E102" s="16" t="s">
         <v>15</v>
       </c>
@@ -10150,9 +10150,9 @@
       </c>
     </row>
     <row r="103" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B103" s="128"/>
-      <c r="C103" s="116"/>
-      <c r="D103" s="122"/>
+      <c r="B103" s="123"/>
+      <c r="C103" s="119"/>
+      <c r="D103" s="117"/>
       <c r="E103" s="16" t="s">
         <v>61</v>
       </c>
@@ -10191,9 +10191,9 @@
       </c>
     </row>
     <row r="104" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B104" s="128"/>
-      <c r="C104" s="116"/>
-      <c r="D104" s="122"/>
+      <c r="B104" s="123"/>
+      <c r="C104" s="119"/>
+      <c r="D104" s="117"/>
       <c r="E104" s="16" t="s">
         <v>17</v>
       </c>
@@ -10232,9 +10232,9 @@
       </c>
     </row>
     <row r="105" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B105" s="129"/>
-      <c r="C105" s="117"/>
-      <c r="D105" s="123"/>
+      <c r="B105" s="124"/>
+      <c r="C105" s="125"/>
+      <c r="D105" s="118"/>
       <c r="E105" s="28" t="s">
         <v>18</v>
       </c>
@@ -10279,13 +10279,13 @@
       </c>
     </row>
     <row r="106" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B106" s="140" t="s">
+      <c r="B106" s="122" t="s">
         <v>11</v>
       </c>
       <c r="C106" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D106" s="121" t="s">
+      <c r="D106" s="116" t="s">
         <v>66</v>
       </c>
       <c r="E106" s="23" t="s">
@@ -10326,11 +10326,11 @@
       </c>
     </row>
     <row r="107" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B107" s="128"/>
-      <c r="C107" s="116" t="s">
+      <c r="B107" s="123"/>
+      <c r="C107" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="D107" s="122"/>
+      <c r="D107" s="117"/>
       <c r="E107" s="16" t="s">
         <v>14</v>
       </c>
@@ -10369,9 +10369,9 @@
       </c>
     </row>
     <row r="108" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B108" s="128"/>
-      <c r="C108" s="116"/>
-      <c r="D108" s="122"/>
+      <c r="B108" s="123"/>
+      <c r="C108" s="119"/>
+      <c r="D108" s="117"/>
       <c r="E108" s="16" t="s">
         <v>15</v>
       </c>
@@ -10410,9 +10410,9 @@
       </c>
     </row>
     <row r="109" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B109" s="128"/>
-      <c r="C109" s="116"/>
-      <c r="D109" s="122"/>
+      <c r="B109" s="123"/>
+      <c r="C109" s="119"/>
+      <c r="D109" s="117"/>
       <c r="E109" s="16" t="s">
         <v>61</v>
       </c>
@@ -10451,9 +10451,9 @@
       </c>
     </row>
     <row r="110" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B110" s="128"/>
-      <c r="C110" s="116"/>
-      <c r="D110" s="122"/>
+      <c r="B110" s="123"/>
+      <c r="C110" s="119"/>
+      <c r="D110" s="117"/>
       <c r="E110" s="16" t="s">
         <v>17</v>
       </c>
@@ -10492,9 +10492,9 @@
       </c>
     </row>
     <row r="111" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B111" s="129"/>
-      <c r="C111" s="117"/>
-      <c r="D111" s="123"/>
+      <c r="B111" s="124"/>
+      <c r="C111" s="125"/>
+      <c r="D111" s="118"/>
       <c r="E111" s="28" t="s">
         <v>18</v>
       </c>
@@ -10727,40 +10727,40 @@
       </c>
     </row>
     <row r="117" spans="2:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="145" t="s">
+      <c r="B117" s="146" t="s">
         <v>97</v>
       </c>
-      <c r="C117" s="145"/>
-      <c r="D117" s="145"/>
-      <c r="E117" s="145"/>
-      <c r="F117" s="145"/>
-      <c r="G117" s="145"/>
-      <c r="H117" s="145"/>
-      <c r="I117" s="145"/>
-      <c r="J117" s="145"/>
-      <c r="K117" s="145"/>
-      <c r="L117" s="145"/>
-      <c r="M117" s="145"/>
-      <c r="N117" s="145"/>
-      <c r="O117" s="145"/>
-      <c r="P117" s="145"/>
+      <c r="C117" s="146"/>
+      <c r="D117" s="146"/>
+      <c r="E117" s="146"/>
+      <c r="F117" s="146"/>
+      <c r="G117" s="146"/>
+      <c r="H117" s="146"/>
+      <c r="I117" s="146"/>
+      <c r="J117" s="146"/>
+      <c r="K117" s="146"/>
+      <c r="L117" s="146"/>
+      <c r="M117" s="146"/>
+      <c r="N117" s="146"/>
+      <c r="O117" s="146"/>
+      <c r="P117" s="146"/>
     </row>
     <row r="118" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B118" s="145"/>
-      <c r="C118" s="145"/>
-      <c r="D118" s="145"/>
-      <c r="E118" s="145"/>
-      <c r="F118" s="145"/>
-      <c r="G118" s="145"/>
-      <c r="H118" s="145"/>
-      <c r="I118" s="145"/>
-      <c r="J118" s="145"/>
-      <c r="K118" s="145"/>
-      <c r="L118" s="145"/>
-      <c r="M118" s="145"/>
-      <c r="N118" s="145"/>
-      <c r="O118" s="145"/>
-      <c r="P118" s="145"/>
+      <c r="B118" s="146"/>
+      <c r="C118" s="146"/>
+      <c r="D118" s="146"/>
+      <c r="E118" s="146"/>
+      <c r="F118" s="146"/>
+      <c r="G118" s="146"/>
+      <c r="H118" s="146"/>
+      <c r="I118" s="146"/>
+      <c r="J118" s="146"/>
+      <c r="K118" s="146"/>
+      <c r="L118" s="146"/>
+      <c r="M118" s="146"/>
+      <c r="N118" s="146"/>
+      <c r="O118" s="146"/>
+      <c r="P118" s="146"/>
     </row>
     <row r="119" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B119" s="49"/>
@@ -10780,70 +10780,76 @@
       <c r="P119" s="49"/>
     </row>
     <row r="120" spans="2:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B120" s="145" t="s">
+      <c r="B120" s="146" t="s">
         <v>98</v>
       </c>
-      <c r="C120" s="145"/>
-      <c r="D120" s="145"/>
-      <c r="E120" s="145"/>
-      <c r="F120" s="145"/>
-      <c r="G120" s="145"/>
-      <c r="H120" s="145"/>
-      <c r="I120" s="145"/>
-      <c r="J120" s="145"/>
-      <c r="K120" s="145"/>
-      <c r="L120" s="145"/>
-      <c r="M120" s="145"/>
-      <c r="N120" s="145"/>
-      <c r="O120" s="145"/>
-      <c r="P120" s="145"/>
+      <c r="C120" s="146"/>
+      <c r="D120" s="146"/>
+      <c r="E120" s="146"/>
+      <c r="F120" s="146"/>
+      <c r="G120" s="146"/>
+      <c r="H120" s="146"/>
+      <c r="I120" s="146"/>
+      <c r="J120" s="146"/>
+      <c r="K120" s="146"/>
+      <c r="L120" s="146"/>
+      <c r="M120" s="146"/>
+      <c r="N120" s="146"/>
+      <c r="O120" s="146"/>
+      <c r="P120" s="146"/>
     </row>
     <row r="121" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B121" s="145"/>
-      <c r="C121" s="145"/>
-      <c r="D121" s="145"/>
-      <c r="E121" s="145"/>
-      <c r="F121" s="145"/>
-      <c r="G121" s="145"/>
-      <c r="H121" s="145"/>
-      <c r="I121" s="145"/>
-      <c r="J121" s="145"/>
-      <c r="K121" s="145"/>
-      <c r="L121" s="145"/>
-      <c r="M121" s="145"/>
-      <c r="N121" s="145"/>
-      <c r="O121" s="145"/>
-      <c r="P121" s="145"/>
+      <c r="B121" s="146"/>
+      <c r="C121" s="146"/>
+      <c r="D121" s="146"/>
+      <c r="E121" s="146"/>
+      <c r="F121" s="146"/>
+      <c r="G121" s="146"/>
+      <c r="H121" s="146"/>
+      <c r="I121" s="146"/>
+      <c r="J121" s="146"/>
+      <c r="K121" s="146"/>
+      <c r="L121" s="146"/>
+      <c r="M121" s="146"/>
+      <c r="N121" s="146"/>
+      <c r="O121" s="146"/>
+      <c r="P121" s="146"/>
     </row>
     <row r="122" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B122" s="145"/>
-      <c r="C122" s="145"/>
-      <c r="D122" s="145"/>
-      <c r="E122" s="145"/>
-      <c r="F122" s="145"/>
-      <c r="G122" s="145"/>
-      <c r="H122" s="145"/>
-      <c r="I122" s="145"/>
-      <c r="J122" s="145"/>
-      <c r="K122" s="145"/>
-      <c r="L122" s="145"/>
-      <c r="M122" s="145"/>
-      <c r="N122" s="145"/>
-      <c r="O122" s="145"/>
-      <c r="P122" s="145"/>
+      <c r="B122" s="146"/>
+      <c r="C122" s="146"/>
+      <c r="D122" s="146"/>
+      <c r="E122" s="146"/>
+      <c r="F122" s="146"/>
+      <c r="G122" s="146"/>
+      <c r="H122" s="146"/>
+      <c r="I122" s="146"/>
+      <c r="J122" s="146"/>
+      <c r="K122" s="146"/>
+      <c r="L122" s="146"/>
+      <c r="M122" s="146"/>
+      <c r="N122" s="146"/>
+      <c r="O122" s="146"/>
+      <c r="P122" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B87:P90"/>
-    <mergeCell ref="D106:D111"/>
-    <mergeCell ref="C107:C111"/>
-    <mergeCell ref="B94:B99"/>
-    <mergeCell ref="D94:D99"/>
-    <mergeCell ref="C95:C99"/>
-    <mergeCell ref="B100:B105"/>
-    <mergeCell ref="D100:D105"/>
-    <mergeCell ref="C101:C105"/>
-    <mergeCell ref="B106:B111"/>
+    <mergeCell ref="B117:P118"/>
+    <mergeCell ref="B120:P122"/>
+    <mergeCell ref="D50:D55"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="D21:D26"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="B32:P32"/>
+    <mergeCell ref="B33:P33"/>
+    <mergeCell ref="B34:P34"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="C38:C43"/>
+    <mergeCell ref="D38:D43"/>
     <mergeCell ref="B80:B85"/>
     <mergeCell ref="C80:C85"/>
     <mergeCell ref="D80:D85"/>
@@ -10860,25 +10866,20 @@
     <mergeCell ref="C44:C49"/>
     <mergeCell ref="D44:D49"/>
     <mergeCell ref="C50:C55"/>
-    <mergeCell ref="B117:P118"/>
-    <mergeCell ref="B120:P122"/>
-    <mergeCell ref="D50:D55"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="D21:D26"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="B32:P32"/>
-    <mergeCell ref="B33:P33"/>
-    <mergeCell ref="B34:P34"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="B38:B43"/>
-    <mergeCell ref="C38:C43"/>
-    <mergeCell ref="D38:D43"/>
+    <mergeCell ref="B87:P90"/>
+    <mergeCell ref="D106:D111"/>
+    <mergeCell ref="C107:C111"/>
+    <mergeCell ref="B94:B99"/>
+    <mergeCell ref="D94:D99"/>
+    <mergeCell ref="C95:C99"/>
+    <mergeCell ref="B100:B105"/>
+    <mergeCell ref="D100:D105"/>
+    <mergeCell ref="C101:C105"/>
+    <mergeCell ref="B106:B111"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10958,7 +10959,7 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="149" t="s">
         <v>78</v>
       </c>
       <c r="B2" s="20" t="s">
@@ -11008,7 +11009,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="154"/>
+      <c r="A3" s="150"/>
       <c r="B3" s="23" t="s">
         <v>34</v>
       </c>
@@ -11056,7 +11057,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="154"/>
+      <c r="A4" s="150"/>
       <c r="B4" s="26" t="s">
         <v>35</v>
       </c>
@@ -11104,14 +11105,14 @@
       </c>
     </row>
     <row r="5" spans="1:16" s="1" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="154"/>
-      <c r="B5" s="121" t="s">
+      <c r="A5" s="150"/>
+      <c r="B5" s="116" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="121" t="s">
+      <c r="D5" s="116" t="s">
         <v>82</v>
       </c>
       <c r="E5" s="26" t="s">
@@ -11152,12 +11153,12 @@
       </c>
     </row>
     <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="154"/>
-      <c r="B6" s="122"/>
+      <c r="A6" s="150"/>
+      <c r="B6" s="117"/>
       <c r="C6" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="122"/>
+      <c r="D6" s="117"/>
       <c r="E6" s="16" t="s">
         <v>23</v>
       </c>
@@ -11196,12 +11197,12 @@
       </c>
     </row>
     <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="154"/>
-      <c r="B7" s="123"/>
+      <c r="A7" s="150"/>
+      <c r="B7" s="118"/>
       <c r="C7" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="123"/>
+      <c r="D7" s="118"/>
       <c r="E7" s="28" t="s">
         <v>23</v>
       </c>
@@ -11240,7 +11241,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="155"/>
+      <c r="A8" s="151"/>
       <c r="B8" s="19" t="s">
         <v>37</v>
       </c>
@@ -11288,16 +11289,16 @@
       </c>
     </row>
     <row r="9" spans="1:16" s="1" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="150" t="s">
+      <c r="A9" s="156" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="149" t="s">
+      <c r="B9" s="155" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="130" t="s">
+      <c r="C9" s="139" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="149" t="s">
+      <c r="D9" s="155" t="s">
         <v>83</v>
       </c>
       <c r="E9" s="14" t="s">
@@ -11338,10 +11339,10 @@
       </c>
     </row>
     <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="151"/>
-      <c r="B10" s="122"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="122"/>
+      <c r="A10" s="157"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="117"/>
       <c r="E10" s="16" t="s">
         <v>41</v>
       </c>
@@ -11380,10 +11381,10 @@
       </c>
     </row>
     <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="151"/>
-      <c r="B11" s="122"/>
-      <c r="C11" s="116"/>
-      <c r="D11" s="122"/>
+      <c r="A11" s="157"/>
+      <c r="B11" s="117"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="117"/>
       <c r="E11" s="16" t="s">
         <v>42</v>
       </c>
@@ -11422,10 +11423,10 @@
       </c>
     </row>
     <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="151"/>
-      <c r="B12" s="122"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="122"/>
+      <c r="A12" s="157"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="117"/>
       <c r="E12" s="16" t="s">
         <v>43</v>
       </c>
@@ -11464,10 +11465,10 @@
       </c>
     </row>
     <row r="13" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="151"/>
-      <c r="B13" s="122"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="122"/>
+      <c r="A13" s="157"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="117"/>
       <c r="E13" s="16" t="s">
         <v>44</v>
       </c>
@@ -11506,10 +11507,10 @@
       </c>
     </row>
     <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="151"/>
-      <c r="B14" s="123"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="123"/>
+      <c r="A14" s="157"/>
+      <c r="B14" s="118"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="118"/>
       <c r="E14" s="28" t="s">
         <v>20</v>
       </c>
@@ -11548,14 +11549,14 @@
       </c>
     </row>
     <row r="15" spans="1:16" s="1" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="151"/>
-      <c r="B15" s="121" t="s">
+      <c r="A15" s="157"/>
+      <c r="B15" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="115" t="s">
+      <c r="C15" s="138" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="121" t="s">
+      <c r="D15" s="116" t="s">
         <v>83</v>
       </c>
       <c r="E15" s="26" t="s">
@@ -11596,10 +11597,10 @@
       </c>
     </row>
     <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="151"/>
-      <c r="B16" s="122"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="122"/>
+      <c r="A16" s="157"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="117"/>
       <c r="E16" s="16" t="s">
         <v>41</v>
       </c>
@@ -11638,10 +11639,10 @@
       </c>
     </row>
     <row r="17" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="151"/>
-      <c r="B17" s="122"/>
-      <c r="C17" s="116"/>
-      <c r="D17" s="122"/>
+      <c r="A17" s="157"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="117"/>
       <c r="E17" s="16" t="s">
         <v>42</v>
       </c>
@@ -11680,10 +11681,10 @@
       </c>
     </row>
     <row r="18" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="151"/>
-      <c r="B18" s="122"/>
-      <c r="C18" s="116"/>
-      <c r="D18" s="122"/>
+      <c r="A18" s="157"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="117"/>
       <c r="E18" s="16" t="s">
         <v>43</v>
       </c>
@@ -11722,10 +11723,10 @@
       </c>
     </row>
     <row r="19" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="151"/>
-      <c r="B19" s="122"/>
-      <c r="C19" s="116"/>
-      <c r="D19" s="122"/>
+      <c r="A19" s="157"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="117"/>
       <c r="E19" s="16" t="s">
         <v>44</v>
       </c>
@@ -11764,10 +11765,10 @@
       </c>
     </row>
     <row r="20" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="151"/>
-      <c r="B20" s="123"/>
-      <c r="C20" s="117"/>
-      <c r="D20" s="123"/>
+      <c r="A20" s="157"/>
+      <c r="B20" s="118"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="118"/>
       <c r="E20" s="28" t="s">
         <v>20</v>
       </c>
@@ -11806,14 +11807,14 @@
       </c>
     </row>
     <row r="21" spans="1:16" s="1" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="151"/>
-      <c r="B21" s="121" t="s">
+      <c r="A21" s="157"/>
+      <c r="B21" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="115" t="s">
+      <c r="C21" s="138" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="121" t="s">
+      <c r="D21" s="116" t="s">
         <v>83</v>
       </c>
       <c r="E21" s="26" t="s">
@@ -11854,10 +11855,10 @@
       </c>
     </row>
     <row r="22" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="151"/>
-      <c r="B22" s="122"/>
-      <c r="C22" s="116"/>
-      <c r="D22" s="122"/>
+      <c r="A22" s="157"/>
+      <c r="B22" s="117"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="117"/>
       <c r="E22" s="16" t="s">
         <v>41</v>
       </c>
@@ -11896,10 +11897,10 @@
       </c>
     </row>
     <row r="23" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="151"/>
-      <c r="B23" s="122"/>
-      <c r="C23" s="116"/>
-      <c r="D23" s="122"/>
+      <c r="A23" s="157"/>
+      <c r="B23" s="117"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="117"/>
       <c r="E23" s="16" t="s">
         <v>42</v>
       </c>
@@ -11938,10 +11939,10 @@
       </c>
     </row>
     <row r="24" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="151"/>
-      <c r="B24" s="122"/>
-      <c r="C24" s="116"/>
-      <c r="D24" s="122"/>
+      <c r="A24" s="157"/>
+      <c r="B24" s="117"/>
+      <c r="C24" s="119"/>
+      <c r="D24" s="117"/>
       <c r="E24" s="16" t="s">
         <v>43</v>
       </c>
@@ -11980,10 +11981,10 @@
       </c>
     </row>
     <row r="25" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="151"/>
-      <c r="B25" s="122"/>
-      <c r="C25" s="116"/>
-      <c r="D25" s="122"/>
+      <c r="A25" s="157"/>
+      <c r="B25" s="117"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="117"/>
       <c r="E25" s="16" t="s">
         <v>44</v>
       </c>
@@ -12022,10 +12023,10 @@
       </c>
     </row>
     <row r="26" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="151"/>
-      <c r="B26" s="122"/>
-      <c r="C26" s="117"/>
-      <c r="D26" s="123"/>
+      <c r="A26" s="157"/>
+      <c r="B26" s="117"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="118"/>
       <c r="E26" s="28" t="s">
         <v>20</v>
       </c>
@@ -12064,12 +12065,12 @@
       </c>
     </row>
     <row r="27" spans="1:16" s="1" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="151"/>
-      <c r="B27" s="122"/>
-      <c r="C27" s="115" t="s">
+      <c r="A27" s="157"/>
+      <c r="B27" s="117"/>
+      <c r="C27" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="121" t="s">
+      <c r="D27" s="116" t="s">
         <v>83</v>
       </c>
       <c r="E27" s="26" t="s">
@@ -12110,10 +12111,10 @@
       </c>
     </row>
     <row r="28" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="151"/>
-      <c r="B28" s="122"/>
-      <c r="C28" s="116"/>
-      <c r="D28" s="122"/>
+      <c r="A28" s="157"/>
+      <c r="B28" s="117"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="117"/>
       <c r="E28" s="16" t="s">
         <v>41</v>
       </c>
@@ -12152,10 +12153,10 @@
       </c>
     </row>
     <row r="29" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="151"/>
-      <c r="B29" s="122"/>
-      <c r="C29" s="116"/>
-      <c r="D29" s="122"/>
+      <c r="A29" s="157"/>
+      <c r="B29" s="117"/>
+      <c r="C29" s="119"/>
+      <c r="D29" s="117"/>
       <c r="E29" s="16" t="s">
         <v>42</v>
       </c>
@@ -12194,10 +12195,10 @@
       </c>
     </row>
     <row r="30" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="151"/>
-      <c r="B30" s="122"/>
-      <c r="C30" s="116"/>
-      <c r="D30" s="122"/>
+      <c r="A30" s="157"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="119"/>
+      <c r="D30" s="117"/>
       <c r="E30" s="16" t="s">
         <v>43</v>
       </c>
@@ -12236,10 +12237,10 @@
       </c>
     </row>
     <row r="31" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="151"/>
-      <c r="B31" s="122"/>
-      <c r="C31" s="116"/>
-      <c r="D31" s="122"/>
+      <c r="A31" s="157"/>
+      <c r="B31" s="117"/>
+      <c r="C31" s="119"/>
+      <c r="D31" s="117"/>
       <c r="E31" s="16" t="s">
         <v>44</v>
       </c>
@@ -12278,10 +12279,10 @@
       </c>
     </row>
     <row r="32" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="151"/>
-      <c r="B32" s="123"/>
-      <c r="C32" s="117"/>
-      <c r="D32" s="123"/>
+      <c r="A32" s="157"/>
+      <c r="B32" s="118"/>
+      <c r="C32" s="125"/>
+      <c r="D32" s="118"/>
       <c r="E32" s="28" t="s">
         <v>20</v>
       </c>
@@ -12320,14 +12321,14 @@
       </c>
     </row>
     <row r="33" spans="1:16" s="1" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="151"/>
-      <c r="B33" s="121" t="s">
+      <c r="A33" s="157"/>
+      <c r="B33" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="115" t="s">
+      <c r="C33" s="138" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="121" t="s">
+      <c r="D33" s="116" t="s">
         <v>83</v>
       </c>
       <c r="E33" s="16" t="s">
@@ -12368,10 +12369,10 @@
       </c>
     </row>
     <row r="34" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="151"/>
-      <c r="B34" s="122"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="122"/>
+      <c r="A34" s="157"/>
+      <c r="B34" s="117"/>
+      <c r="C34" s="119"/>
+      <c r="D34" s="117"/>
       <c r="E34" s="16" t="s">
         <v>41</v>
       </c>
@@ -12410,10 +12411,10 @@
       </c>
     </row>
     <row r="35" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="151"/>
-      <c r="B35" s="122"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="122"/>
+      <c r="A35" s="157"/>
+      <c r="B35" s="117"/>
+      <c r="C35" s="119"/>
+      <c r="D35" s="117"/>
       <c r="E35" s="16" t="s">
         <v>42</v>
       </c>
@@ -12452,10 +12453,10 @@
       </c>
     </row>
     <row r="36" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="151"/>
-      <c r="B36" s="122"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="122"/>
+      <c r="A36" s="157"/>
+      <c r="B36" s="117"/>
+      <c r="C36" s="119"/>
+      <c r="D36" s="117"/>
       <c r="E36" s="16" t="s">
         <v>43</v>
       </c>
@@ -12494,10 +12495,10 @@
       </c>
     </row>
     <row r="37" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="151"/>
-      <c r="B37" s="122"/>
-      <c r="C37" s="116"/>
-      <c r="D37" s="122"/>
+      <c r="A37" s="157"/>
+      <c r="B37" s="117"/>
+      <c r="C37" s="119"/>
+      <c r="D37" s="117"/>
       <c r="E37" s="16" t="s">
         <v>44</v>
       </c>
@@ -12536,10 +12537,10 @@
       </c>
     </row>
     <row r="38" spans="1:16" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="152"/>
-      <c r="B38" s="131"/>
-      <c r="C38" s="125"/>
-      <c r="D38" s="131"/>
+      <c r="A38" s="158"/>
+      <c r="B38" s="126"/>
+      <c r="C38" s="144"/>
+      <c r="D38" s="126"/>
       <c r="E38" s="19" t="s">
         <v>20</v>
       </c>
@@ -12578,16 +12579,16 @@
       </c>
     </row>
     <row r="39" spans="1:16" s="1" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="156" t="s">
+      <c r="A39" s="152" t="s">
         <v>80</v>
       </c>
-      <c r="B39" s="149" t="s">
+      <c r="B39" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="130" t="s">
-        <v>23</v>
-      </c>
-      <c r="D39" s="149" t="s">
+      <c r="C39" s="139" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="155" t="s">
         <v>83</v>
       </c>
       <c r="E39" s="14" t="s">
@@ -12628,10 +12629,10 @@
       </c>
     </row>
     <row r="40" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="157"/>
-      <c r="B40" s="122"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="122"/>
+      <c r="A40" s="153"/>
+      <c r="B40" s="117"/>
+      <c r="C40" s="119"/>
+      <c r="D40" s="117"/>
       <c r="E40" s="16" t="s">
         <v>41</v>
       </c>
@@ -12670,10 +12671,10 @@
       </c>
     </row>
     <row r="41" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="157"/>
-      <c r="B41" s="122"/>
-      <c r="C41" s="116"/>
-      <c r="D41" s="122"/>
+      <c r="A41" s="153"/>
+      <c r="B41" s="117"/>
+      <c r="C41" s="119"/>
+      <c r="D41" s="117"/>
       <c r="E41" s="16" t="s">
         <v>42</v>
       </c>
@@ -12712,10 +12713,10 @@
       </c>
     </row>
     <row r="42" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="157"/>
-      <c r="B42" s="122"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="122"/>
+      <c r="A42" s="153"/>
+      <c r="B42" s="117"/>
+      <c r="C42" s="119"/>
+      <c r="D42" s="117"/>
       <c r="E42" s="16" t="s">
         <v>43</v>
       </c>
@@ -12754,10 +12755,10 @@
       </c>
     </row>
     <row r="43" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="157"/>
-      <c r="B43" s="122"/>
-      <c r="C43" s="116"/>
-      <c r="D43" s="122"/>
+      <c r="A43" s="153"/>
+      <c r="B43" s="117"/>
+      <c r="C43" s="119"/>
+      <c r="D43" s="117"/>
       <c r="E43" s="16" t="s">
         <v>44</v>
       </c>
@@ -12796,10 +12797,10 @@
       </c>
     </row>
     <row r="44" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="157"/>
-      <c r="B44" s="123"/>
-      <c r="C44" s="117"/>
-      <c r="D44" s="123"/>
+      <c r="A44" s="153"/>
+      <c r="B44" s="118"/>
+      <c r="C44" s="125"/>
+      <c r="D44" s="118"/>
       <c r="E44" s="28" t="s">
         <v>20</v>
       </c>
@@ -12838,14 +12839,14 @@
       </c>
     </row>
     <row r="45" spans="1:16" s="1" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="157"/>
-      <c r="B45" s="121" t="s">
+      <c r="A45" s="153"/>
+      <c r="B45" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="115" t="s">
-        <v>23</v>
-      </c>
-      <c r="D45" s="121" t="s">
+      <c r="C45" s="138" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="116" t="s">
         <v>83</v>
       </c>
       <c r="E45" s="26" t="s">
@@ -12886,10 +12887,10 @@
       </c>
     </row>
     <row r="46" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="157"/>
-      <c r="B46" s="122"/>
-      <c r="C46" s="116"/>
-      <c r="D46" s="122"/>
+      <c r="A46" s="153"/>
+      <c r="B46" s="117"/>
+      <c r="C46" s="119"/>
+      <c r="D46" s="117"/>
       <c r="E46" s="16" t="s">
         <v>41</v>
       </c>
@@ -12928,10 +12929,10 @@
       </c>
     </row>
     <row r="47" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="157"/>
-      <c r="B47" s="122"/>
-      <c r="C47" s="116"/>
-      <c r="D47" s="122"/>
+      <c r="A47" s="153"/>
+      <c r="B47" s="117"/>
+      <c r="C47" s="119"/>
+      <c r="D47" s="117"/>
       <c r="E47" s="16" t="s">
         <v>42</v>
       </c>
@@ -12970,10 +12971,10 @@
       </c>
     </row>
     <row r="48" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="157"/>
-      <c r="B48" s="122"/>
-      <c r="C48" s="116"/>
-      <c r="D48" s="122"/>
+      <c r="A48" s="153"/>
+      <c r="B48" s="117"/>
+      <c r="C48" s="119"/>
+      <c r="D48" s="117"/>
       <c r="E48" s="16" t="s">
         <v>43</v>
       </c>
@@ -13012,10 +13013,10 @@
       </c>
     </row>
     <row r="49" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="157"/>
-      <c r="B49" s="122"/>
-      <c r="C49" s="116"/>
-      <c r="D49" s="122"/>
+      <c r="A49" s="153"/>
+      <c r="B49" s="117"/>
+      <c r="C49" s="119"/>
+      <c r="D49" s="117"/>
       <c r="E49" s="16" t="s">
         <v>44</v>
       </c>
@@ -13054,10 +13055,10 @@
       </c>
     </row>
     <row r="50" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="157"/>
-      <c r="B50" s="123"/>
-      <c r="C50" s="117"/>
-      <c r="D50" s="123"/>
+      <c r="A50" s="153"/>
+      <c r="B50" s="118"/>
+      <c r="C50" s="125"/>
+      <c r="D50" s="118"/>
       <c r="E50" s="28" t="s">
         <v>20</v>
       </c>
@@ -13096,14 +13097,14 @@
       </c>
     </row>
     <row r="51" spans="1:16" s="1" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="157"/>
-      <c r="B51" s="121" t="s">
+      <c r="A51" s="153"/>
+      <c r="B51" s="116" t="s">
         <v>61</v>
       </c>
-      <c r="C51" s="115" t="s">
-        <v>23</v>
-      </c>
-      <c r="D51" s="121" t="s">
+      <c r="C51" s="138" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" s="116" t="s">
         <v>83</v>
       </c>
       <c r="E51" s="26" t="s">
@@ -13144,10 +13145,10 @@
       </c>
     </row>
     <row r="52" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="157"/>
-      <c r="B52" s="122"/>
-      <c r="C52" s="116"/>
-      <c r="D52" s="122"/>
+      <c r="A52" s="153"/>
+      <c r="B52" s="117"/>
+      <c r="C52" s="119"/>
+      <c r="D52" s="117"/>
       <c r="E52" s="16" t="s">
         <v>41</v>
       </c>
@@ -13186,10 +13187,10 @@
       </c>
     </row>
     <row r="53" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="157"/>
-      <c r="B53" s="122"/>
-      <c r="C53" s="116"/>
-      <c r="D53" s="122"/>
+      <c r="A53" s="153"/>
+      <c r="B53" s="117"/>
+      <c r="C53" s="119"/>
+      <c r="D53" s="117"/>
       <c r="E53" s="16" t="s">
         <v>42</v>
       </c>
@@ -13228,10 +13229,10 @@
       </c>
     </row>
     <row r="54" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="157"/>
-      <c r="B54" s="122"/>
-      <c r="C54" s="116"/>
-      <c r="D54" s="122"/>
+      <c r="A54" s="153"/>
+      <c r="B54" s="117"/>
+      <c r="C54" s="119"/>
+      <c r="D54" s="117"/>
       <c r="E54" s="16" t="s">
         <v>43</v>
       </c>
@@ -13270,10 +13271,10 @@
       </c>
     </row>
     <row r="55" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="157"/>
-      <c r="B55" s="122"/>
-      <c r="C55" s="116"/>
-      <c r="D55" s="122"/>
+      <c r="A55" s="153"/>
+      <c r="B55" s="117"/>
+      <c r="C55" s="119"/>
+      <c r="D55" s="117"/>
       <c r="E55" s="16" t="s">
         <v>44</v>
       </c>
@@ -13312,10 +13313,10 @@
       </c>
     </row>
     <row r="56" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="157"/>
-      <c r="B56" s="123"/>
-      <c r="C56" s="117"/>
-      <c r="D56" s="123"/>
+      <c r="A56" s="153"/>
+      <c r="B56" s="118"/>
+      <c r="C56" s="125"/>
+      <c r="D56" s="118"/>
       <c r="E56" s="28" t="s">
         <v>20</v>
       </c>
@@ -13354,14 +13355,14 @@
       </c>
     </row>
     <row r="57" spans="1:16" s="1" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="157"/>
-      <c r="B57" s="121" t="s">
+      <c r="A57" s="153"/>
+      <c r="B57" s="116" t="s">
         <v>105</v>
       </c>
-      <c r="C57" s="115" t="s">
-        <v>23</v>
-      </c>
-      <c r="D57" s="121" t="s">
+      <c r="C57" s="138" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57" s="116" t="s">
         <v>83</v>
       </c>
       <c r="E57" s="16" t="s">
@@ -13402,10 +13403,10 @@
       </c>
     </row>
     <row r="58" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="157"/>
-      <c r="B58" s="122"/>
-      <c r="C58" s="116"/>
-      <c r="D58" s="122"/>
+      <c r="A58" s="153"/>
+      <c r="B58" s="117"/>
+      <c r="C58" s="119"/>
+      <c r="D58" s="117"/>
       <c r="E58" s="16" t="s">
         <v>41</v>
       </c>
@@ -13444,10 +13445,10 @@
       </c>
     </row>
     <row r="59" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="157"/>
-      <c r="B59" s="122"/>
-      <c r="C59" s="116"/>
-      <c r="D59" s="122"/>
+      <c r="A59" s="153"/>
+      <c r="B59" s="117"/>
+      <c r="C59" s="119"/>
+      <c r="D59" s="117"/>
       <c r="E59" s="16" t="s">
         <v>42</v>
       </c>
@@ -13486,10 +13487,10 @@
       </c>
     </row>
     <row r="60" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="157"/>
-      <c r="B60" s="122"/>
-      <c r="C60" s="116"/>
-      <c r="D60" s="122"/>
+      <c r="A60" s="153"/>
+      <c r="B60" s="117"/>
+      <c r="C60" s="119"/>
+      <c r="D60" s="117"/>
       <c r="E60" s="16" t="s">
         <v>43</v>
       </c>
@@ -13528,10 +13529,10 @@
       </c>
     </row>
     <row r="61" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="157"/>
-      <c r="B61" s="122"/>
-      <c r="C61" s="116"/>
-      <c r="D61" s="122"/>
+      <c r="A61" s="153"/>
+      <c r="B61" s="117"/>
+      <c r="C61" s="119"/>
+      <c r="D61" s="117"/>
       <c r="E61" s="16" t="s">
         <v>44</v>
       </c>
@@ -13570,10 +13571,10 @@
       </c>
     </row>
     <row r="62" spans="1:16" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="158"/>
-      <c r="B62" s="131"/>
-      <c r="C62" s="125"/>
-      <c r="D62" s="131"/>
+      <c r="A62" s="154"/>
+      <c r="B62" s="126"/>
+      <c r="C62" s="144"/>
+      <c r="D62" s="126"/>
       <c r="E62" s="19" t="s">
         <v>20</v>
       </c>
@@ -13693,6 +13694,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="D21:D26"/>
+    <mergeCell ref="D27:D32"/>
+    <mergeCell ref="D33:D38"/>
+    <mergeCell ref="D39:D44"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="A9:A38"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="D45:D50"/>
     <mergeCell ref="D51:D56"/>
@@ -13709,21 +13725,6 @@
     <mergeCell ref="B21:B32"/>
     <mergeCell ref="C33:C38"/>
     <mergeCell ref="B33:B38"/>
-    <mergeCell ref="D33:D38"/>
-    <mergeCell ref="D39:D44"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="A9:A38"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D9:D14"/>
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="D21:D26"/>
-    <mergeCell ref="D27:D32"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="C21:C26"/>
-    <mergeCell ref="C27:C32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13941,13 +13942,13 @@
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B7" s="115" t="s">
+      <c r="B7" s="138" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="115" t="s">
+      <c r="D7" s="138" t="s">
         <v>82</v>
       </c>
       <c r="E7" s="27" t="s">
@@ -13988,11 +13989,11 @@
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B8" s="116"/>
+      <c r="B8" s="119"/>
       <c r="C8" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="116"/>
+      <c r="D8" s="119"/>
       <c r="E8" s="17" t="s">
         <v>23</v>
       </c>
@@ -14031,11 +14032,11 @@
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B9" s="117"/>
+      <c r="B9" s="125"/>
       <c r="C9" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="117"/>
+      <c r="D9" s="125"/>
       <c r="E9" s="31" t="s">
         <v>23</v>
       </c>
@@ -14192,13 +14193,13 @@
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B16" s="115" t="s">
+      <c r="B16" s="138" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="115" t="s">
+      <c r="C16" s="138" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="115" t="s">
+      <c r="D16" s="138" t="s">
         <v>83</v>
       </c>
       <c r="E16" s="27" t="s">
@@ -14239,9 +14240,9 @@
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B17" s="116"/>
-      <c r="C17" s="116"/>
-      <c r="D17" s="116"/>
+      <c r="B17" s="119"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="119"/>
       <c r="E17" s="17" t="s">
         <v>41</v>
       </c>
@@ -14280,9 +14281,9 @@
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B18" s="116"/>
-      <c r="C18" s="116"/>
-      <c r="D18" s="116"/>
+      <c r="B18" s="119"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="119"/>
       <c r="E18" s="17" t="s">
         <v>42</v>
       </c>
@@ -14321,9 +14322,9 @@
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B19" s="116"/>
-      <c r="C19" s="116"/>
-      <c r="D19" s="116"/>
+      <c r="B19" s="119"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="119"/>
       <c r="E19" s="17" t="s">
         <v>43</v>
       </c>
@@ -14362,9 +14363,9 @@
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B20" s="116"/>
-      <c r="C20" s="116"/>
-      <c r="D20" s="116"/>
+      <c r="B20" s="119"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="119"/>
       <c r="E20" s="17" t="s">
         <v>44</v>
       </c>
@@ -14403,9 +14404,9 @@
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B21" s="117"/>
-      <c r="C21" s="117"/>
-      <c r="D21" s="117"/>
+      <c r="B21" s="125"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="125"/>
       <c r="E21" s="31" t="s">
         <v>20</v>
       </c>
@@ -14444,13 +14445,13 @@
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B22" s="115" t="s">
+      <c r="B22" s="138" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="115" t="s">
+      <c r="C22" s="138" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="115" t="s">
+      <c r="D22" s="138" t="s">
         <v>83</v>
       </c>
       <c r="E22" s="27" t="s">
@@ -14491,9 +14492,9 @@
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B23" s="116"/>
-      <c r="C23" s="116"/>
-      <c r="D23" s="116"/>
+      <c r="B23" s="119"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="119"/>
       <c r="E23" s="17" t="s">
         <v>41</v>
       </c>
@@ -14532,9 +14533,9 @@
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B24" s="116"/>
-      <c r="C24" s="116"/>
-      <c r="D24" s="116"/>
+      <c r="B24" s="119"/>
+      <c r="C24" s="119"/>
+      <c r="D24" s="119"/>
       <c r="E24" s="17" t="s">
         <v>42</v>
       </c>
@@ -14573,9 +14574,9 @@
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B25" s="116"/>
-      <c r="C25" s="116"/>
-      <c r="D25" s="116"/>
+      <c r="B25" s="119"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="119"/>
       <c r="E25" s="17" t="s">
         <v>43</v>
       </c>
@@ -14614,9 +14615,9 @@
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B26" s="116"/>
-      <c r="C26" s="116"/>
-      <c r="D26" s="116"/>
+      <c r="B26" s="119"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="119"/>
       <c r="E26" s="17" t="s">
         <v>44</v>
       </c>
@@ -14655,9 +14656,9 @@
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B27" s="117"/>
-      <c r="C27" s="117"/>
-      <c r="D27" s="117"/>
+      <c r="B27" s="125"/>
+      <c r="C27" s="125"/>
+      <c r="D27" s="125"/>
       <c r="E27" s="31" t="s">
         <v>20</v>
       </c>
@@ -14696,13 +14697,13 @@
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B28" s="115" t="s">
+      <c r="B28" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="115" t="s">
+      <c r="C28" s="138" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="115" t="s">
+      <c r="D28" s="138" t="s">
         <v>83</v>
       </c>
       <c r="E28" s="27" t="s">
@@ -14743,9 +14744,9 @@
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B29" s="116"/>
-      <c r="C29" s="116"/>
-      <c r="D29" s="116"/>
+      <c r="B29" s="119"/>
+      <c r="C29" s="119"/>
+      <c r="D29" s="119"/>
       <c r="E29" s="17" t="s">
         <v>41</v>
       </c>
@@ -14784,9 +14785,9 @@
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B30" s="116"/>
-      <c r="C30" s="116"/>
-      <c r="D30" s="116"/>
+      <c r="B30" s="119"/>
+      <c r="C30" s="119"/>
+      <c r="D30" s="119"/>
       <c r="E30" s="17" t="s">
         <v>42</v>
       </c>
@@ -14825,9 +14826,9 @@
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B31" s="116"/>
-      <c r="C31" s="116"/>
-      <c r="D31" s="116"/>
+      <c r="B31" s="119"/>
+      <c r="C31" s="119"/>
+      <c r="D31" s="119"/>
       <c r="E31" s="17" t="s">
         <v>43</v>
       </c>
@@ -14866,9 +14867,9 @@
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B32" s="116"/>
-      <c r="C32" s="116"/>
-      <c r="D32" s="116"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="119"/>
       <c r="E32" s="17" t="s">
         <v>44</v>
       </c>
@@ -14907,9 +14908,9 @@
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B33" s="116"/>
-      <c r="C33" s="117"/>
-      <c r="D33" s="117"/>
+      <c r="B33" s="119"/>
+      <c r="C33" s="125"/>
+      <c r="D33" s="125"/>
       <c r="E33" s="31" t="s">
         <v>20</v>
       </c>
@@ -14948,11 +14949,11 @@
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B34" s="116"/>
-      <c r="C34" s="115" t="s">
+      <c r="B34" s="119"/>
+      <c r="C34" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="115" t="s">
+      <c r="D34" s="138" t="s">
         <v>83</v>
       </c>
       <c r="E34" s="27" t="s">
@@ -14993,9 +14994,9 @@
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B35" s="116"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="116"/>
+      <c r="B35" s="119"/>
+      <c r="C35" s="119"/>
+      <c r="D35" s="119"/>
       <c r="E35" s="17" t="s">
         <v>41</v>
       </c>
@@ -15034,9 +15035,9 @@
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B36" s="116"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="116"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="119"/>
+      <c r="D36" s="119"/>
       <c r="E36" s="17" t="s">
         <v>42</v>
       </c>
@@ -15075,9 +15076,9 @@
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B37" s="116"/>
-      <c r="C37" s="116"/>
-      <c r="D37" s="116"/>
+      <c r="B37" s="119"/>
+      <c r="C37" s="119"/>
+      <c r="D37" s="119"/>
       <c r="E37" s="17" t="s">
         <v>43</v>
       </c>
@@ -15116,9 +15117,9 @@
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B38" s="116"/>
-      <c r="C38" s="116"/>
-      <c r="D38" s="116"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="119"/>
+      <c r="D38" s="119"/>
       <c r="E38" s="17" t="s">
         <v>44</v>
       </c>
@@ -15157,9 +15158,9 @@
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B39" s="117"/>
-      <c r="C39" s="117"/>
-      <c r="D39" s="117"/>
+      <c r="B39" s="125"/>
+      <c r="C39" s="125"/>
+      <c r="D39" s="125"/>
       <c r="E39" s="31" t="s">
         <v>20</v>
       </c>
@@ -15198,13 +15199,13 @@
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B40" s="115" t="s">
+      <c r="B40" s="138" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="115" t="s">
+      <c r="C40" s="138" t="s">
         <v>56</v>
       </c>
-      <c r="D40" s="115" t="s">
+      <c r="D40" s="138" t="s">
         <v>83</v>
       </c>
       <c r="E40" s="27" t="s">
@@ -15245,9 +15246,9 @@
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B41" s="116"/>
-      <c r="C41" s="116"/>
-      <c r="D41" s="116"/>
+      <c r="B41" s="119"/>
+      <c r="C41" s="119"/>
+      <c r="D41" s="119"/>
       <c r="E41" s="17" t="s">
         <v>41</v>
       </c>
@@ -15286,9 +15287,9 @@
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B42" s="116"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="116"/>
+      <c r="B42" s="119"/>
+      <c r="C42" s="119"/>
+      <c r="D42" s="119"/>
       <c r="E42" s="17" t="s">
         <v>42</v>
       </c>
@@ -15327,9 +15328,9 @@
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B43" s="116"/>
-      <c r="C43" s="116"/>
-      <c r="D43" s="116"/>
+      <c r="B43" s="119"/>
+      <c r="C43" s="119"/>
+      <c r="D43" s="119"/>
       <c r="E43" s="17" t="s">
         <v>43</v>
       </c>
@@ -15368,9 +15369,9 @@
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B44" s="116"/>
-      <c r="C44" s="116"/>
-      <c r="D44" s="116"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="119"/>
+      <c r="D44" s="119"/>
       <c r="E44" s="17" t="s">
         <v>44</v>
       </c>
@@ -15409,9 +15410,9 @@
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B45" s="117"/>
-      <c r="C45" s="117"/>
-      <c r="D45" s="117"/>
+      <c r="B45" s="125"/>
+      <c r="C45" s="125"/>
+      <c r="D45" s="125"/>
       <c r="E45" s="31" t="s">
         <v>20</v>
       </c>
@@ -15534,13 +15535,13 @@
       </c>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B52" s="115" t="s">
+      <c r="B52" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="115" t="s">
-        <v>23</v>
-      </c>
-      <c r="D52" s="115" t="s">
+      <c r="C52" s="138" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" s="138" t="s">
         <v>83</v>
       </c>
       <c r="E52" s="27" t="s">
@@ -15581,9 +15582,9 @@
       </c>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B53" s="116"/>
-      <c r="C53" s="116"/>
-      <c r="D53" s="116"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="119"/>
+      <c r="D53" s="119"/>
       <c r="E53" s="17" t="s">
         <v>41</v>
       </c>
@@ -15622,9 +15623,9 @@
       </c>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B54" s="116"/>
-      <c r="C54" s="116"/>
-      <c r="D54" s="116"/>
+      <c r="B54" s="119"/>
+      <c r="C54" s="119"/>
+      <c r="D54" s="119"/>
       <c r="E54" s="17" t="s">
         <v>42</v>
       </c>
@@ -15663,9 +15664,9 @@
       </c>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B55" s="116"/>
-      <c r="C55" s="116"/>
-      <c r="D55" s="116"/>
+      <c r="B55" s="119"/>
+      <c r="C55" s="119"/>
+      <c r="D55" s="119"/>
       <c r="E55" s="17" t="s">
         <v>43</v>
       </c>
@@ -15704,9 +15705,9 @@
       </c>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B56" s="116"/>
-      <c r="C56" s="116"/>
-      <c r="D56" s="116"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="119"/>
+      <c r="D56" s="119"/>
       <c r="E56" s="17" t="s">
         <v>44</v>
       </c>
@@ -15745,9 +15746,9 @@
       </c>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B57" s="117"/>
-      <c r="C57" s="117"/>
-      <c r="D57" s="117"/>
+      <c r="B57" s="125"/>
+      <c r="C57" s="125"/>
+      <c r="D57" s="125"/>
       <c r="E57" s="31" t="s">
         <v>20</v>
       </c>
@@ -15786,13 +15787,13 @@
       </c>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B58" s="115" t="s">
+      <c r="B58" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="C58" s="115" t="s">
-        <v>23</v>
-      </c>
-      <c r="D58" s="115" t="s">
+      <c r="C58" s="138" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" s="138" t="s">
         <v>83</v>
       </c>
       <c r="E58" s="27" t="s">
@@ -15833,9 +15834,9 @@
       </c>
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B59" s="116"/>
-      <c r="C59" s="116"/>
-      <c r="D59" s="116"/>
+      <c r="B59" s="119"/>
+      <c r="C59" s="119"/>
+      <c r="D59" s="119"/>
       <c r="E59" s="17" t="s">
         <v>41</v>
       </c>
@@ -15874,9 +15875,9 @@
       </c>
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B60" s="116"/>
-      <c r="C60" s="116"/>
-      <c r="D60" s="116"/>
+      <c r="B60" s="119"/>
+      <c r="C60" s="119"/>
+      <c r="D60" s="119"/>
       <c r="E60" s="17" t="s">
         <v>42</v>
       </c>
@@ -15915,9 +15916,9 @@
       </c>
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B61" s="116"/>
-      <c r="C61" s="116"/>
-      <c r="D61" s="116"/>
+      <c r="B61" s="119"/>
+      <c r="C61" s="119"/>
+      <c r="D61" s="119"/>
       <c r="E61" s="17" t="s">
         <v>43</v>
       </c>
@@ -15956,9 +15957,9 @@
       </c>
     </row>
     <row r="62" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B62" s="116"/>
-      <c r="C62" s="116"/>
-      <c r="D62" s="116"/>
+      <c r="B62" s="119"/>
+      <c r="C62" s="119"/>
+      <c r="D62" s="119"/>
       <c r="E62" s="17" t="s">
         <v>44</v>
       </c>
@@ -15997,9 +15998,9 @@
       </c>
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B63" s="117"/>
-      <c r="C63" s="117"/>
-      <c r="D63" s="117"/>
+      <c r="B63" s="125"/>
+      <c r="C63" s="125"/>
+      <c r="D63" s="125"/>
       <c r="E63" s="31" t="s">
         <v>20</v>
       </c>
@@ -16038,13 +16039,13 @@
       </c>
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B64" s="115" t="s">
+      <c r="B64" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="C64" s="115" t="s">
-        <v>23</v>
-      </c>
-      <c r="D64" s="115" t="s">
+      <c r="C64" s="138" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" s="138" t="s">
         <v>83</v>
       </c>
       <c r="E64" s="27" t="s">
@@ -16085,9 +16086,9 @@
       </c>
     </row>
     <row r="65" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B65" s="116"/>
-      <c r="C65" s="116"/>
-      <c r="D65" s="116"/>
+      <c r="B65" s="119"/>
+      <c r="C65" s="119"/>
+      <c r="D65" s="119"/>
       <c r="E65" s="17" t="s">
         <v>41</v>
       </c>
@@ -16126,9 +16127,9 @@
       </c>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B66" s="116"/>
-      <c r="C66" s="116"/>
-      <c r="D66" s="116"/>
+      <c r="B66" s="119"/>
+      <c r="C66" s="119"/>
+      <c r="D66" s="119"/>
       <c r="E66" s="17" t="s">
         <v>42</v>
       </c>
@@ -16167,9 +16168,9 @@
       </c>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B67" s="116"/>
-      <c r="C67" s="116"/>
-      <c r="D67" s="116"/>
+      <c r="B67" s="119"/>
+      <c r="C67" s="119"/>
+      <c r="D67" s="119"/>
       <c r="E67" s="17" t="s">
         <v>43</v>
       </c>
@@ -16208,9 +16209,9 @@
       </c>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B68" s="116"/>
-      <c r="C68" s="116"/>
-      <c r="D68" s="116"/>
+      <c r="B68" s="119"/>
+      <c r="C68" s="119"/>
+      <c r="D68" s="119"/>
       <c r="E68" s="17" t="s">
         <v>44</v>
       </c>
@@ -16249,9 +16250,9 @@
       </c>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B69" s="117"/>
-      <c r="C69" s="117"/>
-      <c r="D69" s="117"/>
+      <c r="B69" s="125"/>
+      <c r="C69" s="125"/>
+      <c r="D69" s="125"/>
       <c r="E69" s="31" t="s">
         <v>20</v>
       </c>
@@ -16290,13 +16291,13 @@
       </c>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B70" s="115" t="s">
+      <c r="B70" s="138" t="s">
         <v>108</v>
       </c>
-      <c r="C70" s="115" t="s">
-        <v>23</v>
-      </c>
-      <c r="D70" s="115" t="s">
+      <c r="C70" s="138" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70" s="138" t="s">
         <v>83</v>
       </c>
       <c r="E70" s="27" t="s">
@@ -16337,9 +16338,9 @@
       </c>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B71" s="116"/>
-      <c r="C71" s="116"/>
-      <c r="D71" s="116"/>
+      <c r="B71" s="119"/>
+      <c r="C71" s="119"/>
+      <c r="D71" s="119"/>
       <c r="E71" s="17" t="s">
         <v>41</v>
       </c>
@@ -16378,9 +16379,9 @@
       </c>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B72" s="116"/>
-      <c r="C72" s="116"/>
-      <c r="D72" s="116"/>
+      <c r="B72" s="119"/>
+      <c r="C72" s="119"/>
+      <c r="D72" s="119"/>
       <c r="E72" s="17" t="s">
         <v>42</v>
       </c>
@@ -16419,9 +16420,9 @@
       </c>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B73" s="116"/>
-      <c r="C73" s="116"/>
-      <c r="D73" s="116"/>
+      <c r="B73" s="119"/>
+      <c r="C73" s="119"/>
+      <c r="D73" s="119"/>
       <c r="E73" s="17" t="s">
         <v>43</v>
       </c>
@@ -16460,9 +16461,9 @@
       </c>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B74" s="116"/>
-      <c r="C74" s="116"/>
-      <c r="D74" s="116"/>
+      <c r="B74" s="119"/>
+      <c r="C74" s="119"/>
+      <c r="D74" s="119"/>
       <c r="E74" s="17" t="s">
         <v>44</v>
       </c>
@@ -16501,9 +16502,9 @@
       </c>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B75" s="117"/>
-      <c r="C75" s="117"/>
-      <c r="D75" s="117"/>
+      <c r="B75" s="125"/>
+      <c r="C75" s="125"/>
+      <c r="D75" s="125"/>
       <c r="E75" s="31" t="s">
         <v>20</v>
       </c>
@@ -16717,6 +16718,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="D64:D69"/>
+    <mergeCell ref="B77:P77"/>
+    <mergeCell ref="B84:P85"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="D16:D21"/>
+    <mergeCell ref="B12:P12"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="B28:B39"/>
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="D28:D33"/>
+    <mergeCell ref="C34:C39"/>
     <mergeCell ref="D34:D39"/>
     <mergeCell ref="B40:B45"/>
     <mergeCell ref="C40:C45"/>
@@ -16733,22 +16750,6 @@
     <mergeCell ref="D58:D63"/>
     <mergeCell ref="B64:B69"/>
     <mergeCell ref="C64:C69"/>
-    <mergeCell ref="D64:D69"/>
-    <mergeCell ref="B77:P77"/>
-    <mergeCell ref="B84:P85"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="D16:D21"/>
-    <mergeCell ref="B12:P12"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="B28:B39"/>
-    <mergeCell ref="C28:C33"/>
-    <mergeCell ref="D28:D33"/>
-    <mergeCell ref="C34:C39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据_区域双碳目标与路径规划研究（含拆分数据表）.xlsx
+++ b/数据_区域双碳目标与路径规划研究（含拆分数据表）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPGA_MATLAB_Learning\数学建模\结课报告\D题\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2022_2023_second\课程学习\数学模型\数模结课报告\D题\D题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CD1026-6045-4085-B10D-A53A8ACAB46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A14B25-8054-43F1-AE91-77B14CB019B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="经济与能源" sheetId="1" r:id="rId1"/>
@@ -19,25 +19,17 @@
     <sheet name="碳排放拆分表" sheetId="11" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="112">
   <si>
     <t>人口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -724,6 +716,10 @@
     <t>工业消费部门</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>油品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -806,7 +802,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -864,6 +860,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1420,7 +1428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1750,6 +1758,36 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="11" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="12" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="12" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2180,22 +2218,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S162"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A76" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="3.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.125" style="1" customWidth="1"/>
-    <col min="6" max="16" width="4.375" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.625" style="1"/>
+    <col min="3" max="3" width="7.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="3.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.109375" style="1" customWidth="1"/>
+    <col min="6" max="16" width="4.33203125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
@@ -2245,7 +2283,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -2295,8 +2333,8 @@
         <v>8477.26</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="129" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="139" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="14" t="s">
@@ -2345,8 +2383,8 @@
         <v>88683.214628733374</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="130"/>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="140"/>
       <c r="B4" s="16" t="s">
         <v>34</v>
       </c>
@@ -2393,9 +2431,9 @@
         <v>3916.8118050867261</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="130"/>
-      <c r="B5" s="117" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="140"/>
+      <c r="B5" s="127" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="17" t="s">
@@ -2441,9 +2479,9 @@
         <v>38183.225572845957</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="130"/>
-      <c r="B6" s="117"/>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="140"/>
+      <c r="B6" s="127"/>
       <c r="C6" s="17" t="s">
         <v>28</v>
       </c>
@@ -2487,9 +2525,9 @@
         <v>1660.679968048458</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="130"/>
-      <c r="B7" s="117"/>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="140"/>
+      <c r="B7" s="127"/>
       <c r="C7" s="17" t="s">
         <v>30</v>
       </c>
@@ -2533,9 +2571,9 @@
         <v>36522.545604797502</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="130"/>
-      <c r="B8" s="117" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="140"/>
+      <c r="B8" s="127" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="18" t="s">
@@ -2581,9 +2619,9 @@
         <v>46583.177250800691</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="130"/>
-      <c r="B9" s="117"/>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="140"/>
+      <c r="B9" s="127"/>
       <c r="C9" s="18" t="s">
         <v>32</v>
       </c>
@@ -2627,9 +2665,9 @@
         <v>2761.5106468268996</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="131"/>
-      <c r="B10" s="126"/>
+    <row r="10" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="141"/>
+      <c r="B10" s="136"/>
       <c r="C10" s="18" t="s">
         <v>33</v>
       </c>
@@ -2673,8 +2711,8 @@
         <v>43821.66660397379</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="127" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="137" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="20" t="s">
@@ -2723,8 +2761,8 @@
         <v>31437.997554448099</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="128"/>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="138"/>
       <c r="B12" s="23" t="s">
         <v>34</v>
       </c>
@@ -2771,15 +2809,15 @@
         <v>423.7818192603138</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="128"/>
-      <c r="B13" s="116" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="138"/>
+      <c r="B13" s="126" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="113" t="s">
+      <c r="D13" s="123" t="s">
         <v>66</v>
       </c>
       <c r="E13" s="26" t="s">
@@ -2819,13 +2857,13 @@
         <v>25325.993062383372</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="128"/>
-      <c r="B14" s="117"/>
-      <c r="C14" s="119" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="138"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="114"/>
+      <c r="D14" s="124"/>
       <c r="E14" s="16" t="s">
         <v>14</v>
       </c>
@@ -2863,11 +2901,11 @@
         <v>7491.0483759503895</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="128"/>
-      <c r="B15" s="117"/>
-      <c r="C15" s="119"/>
-      <c r="D15" s="114"/>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="138"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="124"/>
       <c r="E15" s="16" t="s">
         <v>15</v>
       </c>
@@ -2905,11 +2943,11 @@
         <v>1003.9694483524332</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="128"/>
-      <c r="B16" s="117"/>
-      <c r="C16" s="119"/>
-      <c r="D16" s="114"/>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="138"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="124"/>
       <c r="E16" s="16" t="s">
         <v>63</v>
       </c>
@@ -2947,11 +2985,11 @@
         <v>-2414.6633436989423</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="128"/>
-      <c r="B17" s="117"/>
-      <c r="C17" s="119"/>
-      <c r="D17" s="114"/>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="138"/>
+      <c r="B17" s="127"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="124"/>
       <c r="E17" s="16" t="s">
         <v>17</v>
       </c>
@@ -2989,13 +3027,13 @@
         <v>372.89528216417955</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="128"/>
-      <c r="B18" s="118"/>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="138"/>
+      <c r="B18" s="128"/>
       <c r="C18" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="115"/>
+      <c r="D18" s="125"/>
       <c r="E18" s="16" t="s">
         <v>23</v>
       </c>
@@ -3033,15 +3071,15 @@
         <v>18872.743299615311</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="128"/>
-      <c r="B19" s="116" t="s">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="138"/>
+      <c r="B19" s="126" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="113" t="s">
+      <c r="D19" s="123" t="s">
         <v>66</v>
       </c>
       <c r="E19" s="26" t="s">
@@ -3081,13 +3119,13 @@
         <v>3507.6180865862634</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="128"/>
-      <c r="B20" s="117"/>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="138"/>
+      <c r="B20" s="127"/>
       <c r="C20" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="114"/>
+      <c r="D20" s="124"/>
       <c r="E20" s="16" t="s">
         <v>23</v>
       </c>
@@ -3125,13 +3163,13 @@
         <v>2484.4650329971887</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="128"/>
-      <c r="B21" s="118"/>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="138"/>
+      <c r="B21" s="128"/>
       <c r="C21" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="115"/>
+      <c r="D21" s="125"/>
       <c r="E21" s="28" t="s">
         <v>23</v>
       </c>
@@ -3169,8 +3207,8 @@
         <v>1023.1530535890747</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="128"/>
+    <row r="22" spans="1:16" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="138"/>
       <c r="B22" s="23" t="s">
         <v>37</v>
       </c>
@@ -3217,17 +3255,17 @@
         <v>2180.6045862181545</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="132" t="s">
+    <row r="23" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="137" t="s">
+      <c r="B23" s="147" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="139" t="s">
+      <c r="C23" s="149" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="136" t="s">
+      <c r="D23" s="146" t="s">
         <v>66</v>
       </c>
       <c r="E23" s="14" t="s">
@@ -3267,11 +3305,11 @@
         <v>31.757778000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="133"/>
-      <c r="B24" s="123"/>
-      <c r="C24" s="119"/>
-      <c r="D24" s="114"/>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="143"/>
+      <c r="B24" s="133"/>
+      <c r="C24" s="129"/>
+      <c r="D24" s="124"/>
       <c r="E24" s="16" t="s">
         <v>5</v>
       </c>
@@ -3309,11 +3347,11 @@
         <v>293.32306089266126</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="133"/>
-      <c r="B25" s="123"/>
-      <c r="C25" s="119"/>
-      <c r="D25" s="114"/>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="143"/>
+      <c r="B25" s="133"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="124"/>
       <c r="E25" s="16" t="s">
         <v>6</v>
       </c>
@@ -3351,11 +3389,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="133"/>
-      <c r="B26" s="123"/>
-      <c r="C26" s="119"/>
-      <c r="D26" s="114"/>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="143"/>
+      <c r="B26" s="133"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="124"/>
       <c r="E26" s="17" t="s">
         <v>7</v>
       </c>
@@ -3393,11 +3431,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="133"/>
-      <c r="B27" s="123"/>
-      <c r="C27" s="119"/>
-      <c r="D27" s="114"/>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="143"/>
+      <c r="B27" s="133"/>
+      <c r="C27" s="129"/>
+      <c r="D27" s="124"/>
       <c r="E27" s="17" t="s">
         <v>8</v>
       </c>
@@ -3435,11 +3473,11 @@
         <v>98.700980367652534</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="133"/>
-      <c r="B28" s="124"/>
-      <c r="C28" s="125"/>
-      <c r="D28" s="115"/>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="143"/>
+      <c r="B28" s="134"/>
+      <c r="C28" s="135"/>
+      <c r="D28" s="125"/>
       <c r="E28" s="28" t="s">
         <v>20</v>
       </c>
@@ -3477,15 +3515,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="133"/>
-      <c r="B29" s="116" t="s">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="143"/>
+      <c r="B29" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="138" t="s">
+      <c r="C29" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="113" t="s">
+      <c r="D29" s="123" t="s">
         <v>66</v>
       </c>
       <c r="E29" s="26" t="s">
@@ -3525,11 +3563,11 @@
         <v>20260.682737487325</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="133"/>
-      <c r="B30" s="117"/>
-      <c r="C30" s="119"/>
-      <c r="D30" s="114"/>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="143"/>
+      <c r="B30" s="127"/>
+      <c r="C30" s="129"/>
+      <c r="D30" s="124"/>
       <c r="E30" s="16" t="s">
         <v>5</v>
       </c>
@@ -3567,11 +3605,11 @@
         <v>1503.396717937248</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="133"/>
-      <c r="B31" s="117"/>
-      <c r="C31" s="119"/>
-      <c r="D31" s="114"/>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="143"/>
+      <c r="B31" s="127"/>
+      <c r="C31" s="129"/>
+      <c r="D31" s="124"/>
       <c r="E31" s="16" t="s">
         <v>6</v>
       </c>
@@ -3609,11 +3647,11 @@
         <v>3034.8838880000003</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="133"/>
-      <c r="B32" s="117"/>
-      <c r="C32" s="119"/>
-      <c r="D32" s="114"/>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="143"/>
+      <c r="B32" s="127"/>
+      <c r="C32" s="129"/>
+      <c r="D32" s="124"/>
       <c r="E32" s="17" t="s">
         <v>7</v>
       </c>
@@ -3651,11 +3689,11 @@
         <v>-10.261033154610686</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="133"/>
-      <c r="B33" s="117"/>
-      <c r="C33" s="119"/>
-      <c r="D33" s="114"/>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="143"/>
+      <c r="B33" s="127"/>
+      <c r="C33" s="129"/>
+      <c r="D33" s="124"/>
       <c r="E33" s="17" t="s">
         <v>8</v>
       </c>
@@ -3693,11 +3731,11 @@
         <v>183.28075211341093</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="133"/>
-      <c r="B34" s="117"/>
-      <c r="C34" s="125"/>
-      <c r="D34" s="115"/>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="143"/>
+      <c r="B34" s="127"/>
+      <c r="C34" s="135"/>
+      <c r="D34" s="125"/>
       <c r="E34" s="28" t="s">
         <v>20</v>
       </c>
@@ -3735,13 +3773,13 @@
         <v>354.01</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="133"/>
-      <c r="B35" s="117"/>
-      <c r="C35" s="138" t="s">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="143"/>
+      <c r="B35" s="127"/>
+      <c r="C35" s="148" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="116" t="s">
+      <c r="D35" s="126" t="s">
         <v>66</v>
       </c>
       <c r="E35" s="26" t="s">
@@ -3781,11 +3819,11 @@
         <v>11969.33815725684</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="133"/>
-      <c r="B36" s="117"/>
-      <c r="C36" s="119"/>
-      <c r="D36" s="117"/>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="143"/>
+      <c r="B36" s="127"/>
+      <c r="C36" s="129"/>
+      <c r="D36" s="127"/>
       <c r="E36" s="16" t="s">
         <v>5</v>
       </c>
@@ -3823,11 +3861,11 @@
         <v>277.74211862434765</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="133"/>
-      <c r="B37" s="117"/>
-      <c r="C37" s="119"/>
-      <c r="D37" s="117"/>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="143"/>
+      <c r="B37" s="127"/>
+      <c r="C37" s="129"/>
+      <c r="D37" s="127"/>
       <c r="E37" s="16" t="s">
         <v>6</v>
       </c>
@@ -3865,11 +3903,11 @@
         <v>1368.522232</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="133"/>
-      <c r="B38" s="117"/>
-      <c r="C38" s="119"/>
-      <c r="D38" s="117"/>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="143"/>
+      <c r="B38" s="127"/>
+      <c r="C38" s="129"/>
+      <c r="D38" s="127"/>
       <c r="E38" s="17" t="s">
         <v>7</v>
       </c>
@@ -3907,11 +3945,11 @@
         <v>-2244.5112343022106</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="133"/>
-      <c r="B39" s="117"/>
-      <c r="C39" s="119"/>
-      <c r="D39" s="117"/>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="143"/>
+      <c r="B39" s="127"/>
+      <c r="C39" s="129"/>
+      <c r="D39" s="127"/>
       <c r="E39" s="17" t="s">
         <v>8</v>
       </c>
@@ -3949,11 +3987,11 @@
         <v>-5217.5715108109171</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="133"/>
-      <c r="B40" s="117"/>
-      <c r="C40" s="125"/>
-      <c r="D40" s="118"/>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="143"/>
+      <c r="B40" s="127"/>
+      <c r="C40" s="135"/>
+      <c r="D40" s="128"/>
       <c r="E40" s="28" t="s">
         <v>20</v>
       </c>
@@ -3991,13 +4029,13 @@
         <v>299.73</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="133"/>
-      <c r="B41" s="117"/>
-      <c r="C41" s="141" t="s">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="143"/>
+      <c r="B41" s="127"/>
+      <c r="C41" s="151" t="s">
         <v>110</v>
       </c>
-      <c r="D41" s="116" t="s">
+      <c r="D41" s="126" t="s">
         <v>109</v>
       </c>
       <c r="E41" s="26" t="s">
@@ -4037,11 +4075,11 @@
         <v>8291.344580230485</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="133"/>
-      <c r="B42" s="117"/>
-      <c r="C42" s="142"/>
-      <c r="D42" s="117"/>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="143"/>
+      <c r="B42" s="127"/>
+      <c r="C42" s="152"/>
+      <c r="D42" s="127"/>
       <c r="E42" s="16" t="s">
         <v>5</v>
       </c>
@@ -4079,11 +4117,11 @@
         <v>1225.6545993129005</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="133"/>
-      <c r="B43" s="117"/>
-      <c r="C43" s="142"/>
-      <c r="D43" s="117"/>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="143"/>
+      <c r="B43" s="127"/>
+      <c r="C43" s="152"/>
+      <c r="D43" s="127"/>
       <c r="E43" s="16" t="s">
         <v>6</v>
       </c>
@@ -4121,11 +4159,11 @@
         <v>1666.3616560000003</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="133"/>
-      <c r="B44" s="117"/>
-      <c r="C44" s="142"/>
-      <c r="D44" s="117"/>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="143"/>
+      <c r="B44" s="127"/>
+      <c r="C44" s="152"/>
+      <c r="D44" s="127"/>
       <c r="E44" s="17" t="s">
         <v>7</v>
       </c>
@@ -4163,11 +4201,11 @@
         <v>2234.2502011475999</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="133"/>
-      <c r="B45" s="117"/>
-      <c r="C45" s="142"/>
-      <c r="D45" s="117"/>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="143"/>
+      <c r="B45" s="127"/>
+      <c r="C45" s="152"/>
+      <c r="D45" s="127"/>
       <c r="E45" s="17" t="s">
         <v>8</v>
       </c>
@@ -4205,11 +4243,11 @@
         <v>5400.852262924328</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="133"/>
-      <c r="B46" s="118"/>
-      <c r="C46" s="143"/>
-      <c r="D46" s="118"/>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="143"/>
+      <c r="B46" s="128"/>
+      <c r="C46" s="153"/>
+      <c r="D46" s="128"/>
       <c r="E46" s="28" t="s">
         <v>20</v>
       </c>
@@ -4247,15 +4285,15 @@
         <v>54.28</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="133"/>
-      <c r="B47" s="116" t="s">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="143"/>
+      <c r="B47" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="C47" s="138" t="s">
+      <c r="C47" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="D47" s="113" t="s">
+      <c r="D47" s="123" t="s">
         <v>66</v>
       </c>
       <c r="E47" s="26" t="s">
@@ -4295,11 +4333,11 @@
         <v>0.22857600000000003</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="133"/>
-      <c r="B48" s="117"/>
-      <c r="C48" s="119"/>
-      <c r="D48" s="114"/>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="143"/>
+      <c r="B48" s="127"/>
+      <c r="C48" s="129"/>
+      <c r="D48" s="124"/>
       <c r="E48" s="16" t="s">
         <v>5</v>
       </c>
@@ -4337,11 +4375,11 @@
         <v>2167.3791238473409</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="133"/>
-      <c r="B49" s="117"/>
-      <c r="C49" s="119"/>
-      <c r="D49" s="114"/>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="143"/>
+      <c r="B49" s="127"/>
+      <c r="C49" s="129"/>
+      <c r="D49" s="124"/>
       <c r="E49" s="16" t="s">
         <v>6</v>
       </c>
@@ -4379,11 +4417,11 @@
         <v>217.40270800000002</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="133"/>
-      <c r="B50" s="117"/>
-      <c r="C50" s="119"/>
-      <c r="D50" s="114"/>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="143"/>
+      <c r="B50" s="127"/>
+      <c r="C50" s="129"/>
+      <c r="D50" s="124"/>
       <c r="E50" s="17" t="s">
         <v>7</v>
       </c>
@@ -4421,11 +4459,11 @@
         <v>0.96093820177769285</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="133"/>
-      <c r="B51" s="117"/>
-      <c r="C51" s="119"/>
-      <c r="D51" s="114"/>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="143"/>
+      <c r="B51" s="127"/>
+      <c r="C51" s="129"/>
+      <c r="D51" s="124"/>
       <c r="E51" s="17" t="s">
         <v>8</v>
       </c>
@@ -4463,11 +4501,11 @@
         <v>1121.6467405371445</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="133"/>
-      <c r="B52" s="117"/>
-      <c r="C52" s="125"/>
-      <c r="D52" s="115"/>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="143"/>
+      <c r="B52" s="127"/>
+      <c r="C52" s="135"/>
+      <c r="D52" s="125"/>
       <c r="E52" s="28" t="s">
         <v>20</v>
       </c>
@@ -4505,13 +4543,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="133"/>
-      <c r="B53" s="117"/>
-      <c r="C53" s="138" t="s">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="143"/>
+      <c r="B53" s="127"/>
+      <c r="C53" s="148" t="s">
         <v>31</v>
       </c>
-      <c r="D53" s="113" t="s">
+      <c r="D53" s="123" t="s">
         <v>66</v>
       </c>
       <c r="E53" s="26" t="s">
@@ -4551,11 +4589,11 @@
         <v>0.22857600000000003</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="133"/>
-      <c r="B54" s="117"/>
-      <c r="C54" s="119"/>
-      <c r="D54" s="114"/>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="143"/>
+      <c r="B54" s="127"/>
+      <c r="C54" s="129"/>
+      <c r="D54" s="124"/>
       <c r="E54" s="16" t="s">
         <v>5</v>
       </c>
@@ -4593,11 +4631,11 @@
         <v>2156.1306668254169</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="133"/>
-      <c r="B55" s="117"/>
-      <c r="C55" s="119"/>
-      <c r="D55" s="114"/>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="143"/>
+      <c r="B55" s="127"/>
+      <c r="C55" s="129"/>
+      <c r="D55" s="124"/>
       <c r="E55" s="16" t="s">
         <v>6</v>
       </c>
@@ -4635,11 +4673,11 @@
         <v>205.964708</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="133"/>
-      <c r="B56" s="117"/>
-      <c r="C56" s="119"/>
-      <c r="D56" s="114"/>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="143"/>
+      <c r="B56" s="127"/>
+      <c r="C56" s="129"/>
+      <c r="D56" s="124"/>
       <c r="E56" s="17" t="s">
         <v>7</v>
       </c>
@@ -4677,11 +4715,11 @@
         <v>0.29803406258115811</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="133"/>
-      <c r="B57" s="117"/>
-      <c r="C57" s="119"/>
-      <c r="D57" s="114"/>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="143"/>
+      <c r="B57" s="127"/>
+      <c r="C57" s="129"/>
+      <c r="D57" s="124"/>
       <c r="E57" s="17" t="s">
         <v>8</v>
       </c>
@@ -4719,11 +4757,11 @@
         <v>121.84304810919029</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="133"/>
-      <c r="B58" s="117"/>
-      <c r="C58" s="125"/>
-      <c r="D58" s="115"/>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="143"/>
+      <c r="B58" s="127"/>
+      <c r="C58" s="135"/>
+      <c r="D58" s="125"/>
       <c r="E58" s="28" t="s">
         <v>20</v>
       </c>
@@ -4761,13 +4799,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="133"/>
-      <c r="B59" s="117"/>
-      <c r="C59" s="119" t="s">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="143"/>
+      <c r="B59" s="127"/>
+      <c r="C59" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="D59" s="113" t="s">
+      <c r="D59" s="123" t="s">
         <v>66</v>
       </c>
       <c r="E59" s="26" t="s">
@@ -4807,11 +4845,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="133"/>
-      <c r="B60" s="117"/>
-      <c r="C60" s="119"/>
-      <c r="D60" s="114"/>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" s="143"/>
+      <c r="B60" s="127"/>
+      <c r="C60" s="129"/>
+      <c r="D60" s="124"/>
       <c r="E60" s="16" t="s">
         <v>5</v>
       </c>
@@ -4849,11 +4887,11 @@
         <v>11.248457021923878</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="133"/>
-      <c r="B61" s="117"/>
-      <c r="C61" s="119"/>
-      <c r="D61" s="114"/>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="143"/>
+      <c r="B61" s="127"/>
+      <c r="C61" s="129"/>
+      <c r="D61" s="124"/>
       <c r="E61" s="16" t="s">
         <v>6</v>
       </c>
@@ -4891,11 +4929,11 @@
         <v>11.438000000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A62" s="133"/>
-      <c r="B62" s="117"/>
-      <c r="C62" s="119"/>
-      <c r="D62" s="114"/>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="143"/>
+      <c r="B62" s="127"/>
+      <c r="C62" s="129"/>
+      <c r="D62" s="124"/>
       <c r="E62" s="17" t="s">
         <v>7</v>
       </c>
@@ -4933,11 +4971,11 @@
         <v>0.66290413919653479</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A63" s="133"/>
-      <c r="B63" s="117"/>
-      <c r="C63" s="119"/>
-      <c r="D63" s="114"/>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" s="143"/>
+      <c r="B63" s="127"/>
+      <c r="C63" s="129"/>
+      <c r="D63" s="124"/>
       <c r="E63" s="17" t="s">
         <v>8</v>
       </c>
@@ -4975,11 +5013,11 @@
         <v>999.80369242795427</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A64" s="133"/>
-      <c r="B64" s="118"/>
-      <c r="C64" s="125"/>
-      <c r="D64" s="115"/>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" s="143"/>
+      <c r="B64" s="128"/>
+      <c r="C64" s="135"/>
+      <c r="D64" s="125"/>
       <c r="E64" s="28" t="s">
         <v>20</v>
       </c>
@@ -5017,15 +5055,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A65" s="133"/>
-      <c r="B65" s="122" t="s">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" s="143"/>
+      <c r="B65" s="132" t="s">
         <v>37</v>
       </c>
-      <c r="C65" s="138" t="s">
+      <c r="C65" s="148" t="s">
         <v>56</v>
       </c>
-      <c r="D65" s="113" t="s">
+      <c r="D65" s="123" t="s">
         <v>66</v>
       </c>
       <c r="E65" s="26" t="s">
@@ -5065,11 +5103,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A66" s="133"/>
-      <c r="B66" s="123"/>
-      <c r="C66" s="119"/>
-      <c r="D66" s="114"/>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" s="143"/>
+      <c r="B66" s="133"/>
+      <c r="C66" s="129"/>
+      <c r="D66" s="124"/>
       <c r="E66" s="16" t="s">
         <v>5</v>
       </c>
@@ -5107,11 +5145,11 @@
         <v>735.80528694112229</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A67" s="133"/>
-      <c r="B67" s="123"/>
-      <c r="C67" s="119"/>
-      <c r="D67" s="114"/>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" s="143"/>
+      <c r="B67" s="133"/>
+      <c r="C67" s="129"/>
+      <c r="D67" s="124"/>
       <c r="E67" s="16" t="s">
         <v>6</v>
       </c>
@@ -5149,11 +5187,11 @@
         <v>455.12600000000003</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A68" s="133"/>
-      <c r="B68" s="123"/>
-      <c r="C68" s="119"/>
-      <c r="D68" s="114"/>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" s="143"/>
+      <c r="B68" s="133"/>
+      <c r="C68" s="129"/>
+      <c r="D68" s="124"/>
       <c r="E68" s="16" t="s">
         <v>7</v>
       </c>
@@ -5191,11 +5229,11 @@
         <v>9.3000949528328682</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A69" s="133"/>
-      <c r="B69" s="123"/>
-      <c r="C69" s="119"/>
-      <c r="D69" s="114"/>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" s="143"/>
+      <c r="B69" s="133"/>
+      <c r="C69" s="129"/>
+      <c r="D69" s="124"/>
       <c r="E69" s="16" t="s">
         <v>8</v>
       </c>
@@ -5233,11 +5271,11 @@
         <v>980.37320432419904</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="134"/>
-      <c r="B70" s="135"/>
-      <c r="C70" s="144"/>
-      <c r="D70" s="140"/>
+    <row r="70" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="144"/>
+      <c r="B70" s="145"/>
+      <c r="C70" s="154"/>
+      <c r="D70" s="150"/>
       <c r="E70" s="19" t="s">
         <v>20</v>
       </c>
@@ -5275,17 +5313,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A71" s="120" t="s">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71" s="130" t="s">
         <v>38</v>
       </c>
-      <c r="B71" s="122" t="s">
+      <c r="B71" s="132" t="s">
         <v>9</v>
       </c>
       <c r="C71" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D71" s="113" t="s">
+      <c r="D71" s="123" t="s">
         <v>66</v>
       </c>
       <c r="E71" s="26" t="s">
@@ -5325,13 +5363,13 @@
         <v>20292.669091487325</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A72" s="120"/>
-      <c r="B72" s="123"/>
-      <c r="C72" s="119" t="s">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72" s="130"/>
+      <c r="B72" s="133"/>
+      <c r="C72" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="D72" s="114"/>
+      <c r="D72" s="124"/>
       <c r="E72" s="16" t="s">
         <v>14</v>
       </c>
@@ -5369,11 +5407,11 @@
         <v>11305.034139737198</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A73" s="120"/>
-      <c r="B73" s="123"/>
-      <c r="C73" s="119"/>
-      <c r="D73" s="114"/>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73" s="130"/>
+      <c r="B73" s="133"/>
+      <c r="C73" s="129"/>
+      <c r="D73" s="124"/>
       <c r="E73" s="16" t="s">
         <v>15</v>
       </c>
@@ -5411,11 +5449,11 @@
         <v>2784.1871060788162</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A74" s="120"/>
-      <c r="B74" s="123"/>
-      <c r="C74" s="119"/>
-      <c r="D74" s="114"/>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A74" s="130"/>
+      <c r="B74" s="133"/>
+      <c r="C74" s="129"/>
+      <c r="D74" s="124"/>
       <c r="E74" s="16" t="s">
         <v>16</v>
       </c>
@@ -5453,11 +5491,11 @@
         <v>-2119.8830885591747</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A75" s="120"/>
-      <c r="B75" s="123"/>
-      <c r="C75" s="119"/>
-      <c r="D75" s="114"/>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A75" s="130"/>
+      <c r="B75" s="133"/>
+      <c r="C75" s="129"/>
+      <c r="D75" s="124"/>
       <c r="E75" s="16" t="s">
         <v>17</v>
       </c>
@@ -5495,11 +5533,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A76" s="120"/>
-      <c r="B76" s="124"/>
-      <c r="C76" s="125"/>
-      <c r="D76" s="115"/>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A76" s="130"/>
+      <c r="B76" s="134"/>
+      <c r="C76" s="135"/>
+      <c r="D76" s="125"/>
       <c r="E76" s="28" t="s">
         <v>18</v>
       </c>
@@ -5537,15 +5575,15 @@
         <v>8323.3309342304838</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A77" s="120"/>
-      <c r="B77" s="122" t="s">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A77" s="130"/>
+      <c r="B77" s="132" t="s">
         <v>10</v>
       </c>
       <c r="C77" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D77" s="113" t="s">
+      <c r="D77" s="123" t="s">
         <v>66</v>
       </c>
       <c r="E77" s="26" t="s">
@@ -5585,13 +5623,13 @@
         <v>4699.9041896183726</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A78" s="120"/>
-      <c r="B78" s="123"/>
-      <c r="C78" s="119" t="s">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A78" s="130"/>
+      <c r="B78" s="133"/>
+      <c r="C78" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="D78" s="114"/>
+      <c r="D78" s="124"/>
       <c r="E78" s="16" t="s">
         <v>14</v>
       </c>
@@ -5629,11 +5667,11 @@
         <v>7.1196297988029391</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A79" s="120"/>
-      <c r="B79" s="123"/>
-      <c r="C79" s="119"/>
-      <c r="D79" s="114"/>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A79" s="130"/>
+      <c r="B79" s="133"/>
+      <c r="C79" s="129"/>
+      <c r="D79" s="124"/>
       <c r="E79" s="16" t="s">
         <v>15</v>
       </c>
@@ -5671,11 +5709,11 @@
         <v>9.3681393400964303</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A80" s="120"/>
-      <c r="B80" s="123"/>
-      <c r="C80" s="119"/>
-      <c r="D80" s="114"/>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A80" s="130"/>
+      <c r="B80" s="133"/>
+      <c r="C80" s="129"/>
+      <c r="D80" s="124"/>
       <c r="E80" s="16" t="s">
         <v>16</v>
       </c>
@@ -5713,11 +5751,11 @@
         <v>253.98289864318181</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A81" s="120"/>
-      <c r="B81" s="123"/>
-      <c r="C81" s="119"/>
-      <c r="D81" s="114"/>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A81" s="130"/>
+      <c r="B81" s="133"/>
+      <c r="C81" s="129"/>
+      <c r="D81" s="124"/>
       <c r="E81" s="16" t="s">
         <v>17</v>
       </c>
@@ -5755,11 +5793,11 @@
         <v>7.2714508422664617</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A82" s="120"/>
-      <c r="B82" s="124"/>
-      <c r="C82" s="125"/>
-      <c r="D82" s="115"/>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A82" s="130"/>
+      <c r="B82" s="134"/>
+      <c r="C82" s="135"/>
+      <c r="D82" s="125"/>
       <c r="E82" s="28" t="s">
         <v>18</v>
       </c>
@@ -5803,15 +5841,15 @@
         <v>4422.1620709940244</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A83" s="120"/>
-      <c r="B83" s="122" t="s">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A83" s="130"/>
+      <c r="B83" s="132" t="s">
         <v>11</v>
       </c>
       <c r="C83" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D83" s="113" t="s">
+      <c r="D83" s="123" t="s">
         <v>66</v>
       </c>
       <c r="E83" s="26" t="s">
@@ -5851,13 +5889,13 @@
         <v>3707.4125960000006</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A84" s="120"/>
-      <c r="B84" s="123"/>
-      <c r="C84" s="119" t="s">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A84" s="130"/>
+      <c r="B84" s="133"/>
+      <c r="C84" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="D84" s="114"/>
+      <c r="D84" s="124"/>
       <c r="E84" s="16" t="s">
         <v>14</v>
       </c>
@@ -5895,11 +5933,11 @@
         <v>1085.56852</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A85" s="120"/>
-      <c r="B85" s="123"/>
-      <c r="C85" s="119"/>
-      <c r="D85" s="114"/>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A85" s="130"/>
+      <c r="B85" s="133"/>
+      <c r="C85" s="129"/>
+      <c r="D85" s="124"/>
       <c r="E85" s="16" t="s">
         <v>15</v>
       </c>
@@ -5937,11 +5975,11 @@
         <v>243.83961199999999</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A86" s="120"/>
-      <c r="B86" s="123"/>
-      <c r="C86" s="119"/>
-      <c r="D86" s="114"/>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A86" s="130"/>
+      <c r="B86" s="133"/>
+      <c r="C86" s="129"/>
+      <c r="D86" s="124"/>
       <c r="E86" s="16" t="s">
         <v>16</v>
       </c>
@@ -5979,11 +6017,11 @@
         <v>0.14510000000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A87" s="120"/>
-      <c r="B87" s="123"/>
-      <c r="C87" s="119"/>
-      <c r="D87" s="114"/>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A87" s="130"/>
+      <c r="B87" s="133"/>
+      <c r="C87" s="129"/>
+      <c r="D87" s="124"/>
       <c r="E87" s="16" t="s">
         <v>17</v>
       </c>
@@ -6021,11 +6059,11 @@
         <v>38.969000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A88" s="120"/>
-      <c r="B88" s="124"/>
-      <c r="C88" s="125"/>
-      <c r="D88" s="115"/>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A88" s="130"/>
+      <c r="B88" s="134"/>
+      <c r="C88" s="135"/>
+      <c r="D88" s="125"/>
       <c r="E88" s="28" t="s">
         <v>18</v>
       </c>
@@ -6069,8 +6107,8 @@
         <v>2338.8903640000003</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A89" s="120"/>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A89" s="130"/>
       <c r="B89" s="35" t="s">
         <v>57</v>
       </c>
@@ -6117,8 +6155,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A90" s="120"/>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A90" s="130"/>
       <c r="B90" s="35" t="s">
         <v>58</v>
       </c>
@@ -6165,8 +6203,8 @@
         <v>963.06888601294827</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A91" s="120"/>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A91" s="130"/>
       <c r="B91" s="33" t="s">
         <v>65</v>
       </c>
@@ -6213,8 +6251,8 @@
         <v>1420.9327913294587</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="121"/>
+    <row r="92" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="131"/>
       <c r="B92" s="36" t="s">
         <v>59</v>
       </c>
@@ -6261,123 +6299,123 @@
         <v>354.01</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="52" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="52" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="52" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A97" s="112" t="s">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A97" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="B97" s="112"/>
-      <c r="C97" s="112"/>
-      <c r="D97" s="112"/>
-      <c r="E97" s="112"/>
-      <c r="F97" s="112"/>
-      <c r="G97" s="112"/>
-      <c r="H97" s="112"/>
-      <c r="I97" s="112"/>
-      <c r="J97" s="112"/>
-      <c r="K97" s="112"/>
-      <c r="L97" s="112"/>
-      <c r="M97" s="112"/>
-      <c r="N97" s="112"/>
-      <c r="O97" s="112"/>
-      <c r="P97" s="112"/>
-      <c r="Q97" s="112"/>
-      <c r="R97" s="112"/>
-      <c r="S97" s="112"/>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A98" s="112"/>
-      <c r="B98" s="112"/>
-      <c r="C98" s="112"/>
-      <c r="D98" s="112"/>
-      <c r="E98" s="112"/>
-      <c r="F98" s="112"/>
-      <c r="G98" s="112"/>
-      <c r="H98" s="112"/>
-      <c r="I98" s="112"/>
-      <c r="J98" s="112"/>
-      <c r="K98" s="112"/>
-      <c r="L98" s="112"/>
-      <c r="M98" s="112"/>
-      <c r="N98" s="112"/>
-      <c r="O98" s="112"/>
-      <c r="P98" s="112"/>
-      <c r="Q98" s="112"/>
-      <c r="R98" s="112"/>
-      <c r="S98" s="112"/>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A99" s="112" t="s">
+      <c r="B97" s="122"/>
+      <c r="C97" s="122"/>
+      <c r="D97" s="122"/>
+      <c r="E97" s="122"/>
+      <c r="F97" s="122"/>
+      <c r="G97" s="122"/>
+      <c r="H97" s="122"/>
+      <c r="I97" s="122"/>
+      <c r="J97" s="122"/>
+      <c r="K97" s="122"/>
+      <c r="L97" s="122"/>
+      <c r="M97" s="122"/>
+      <c r="N97" s="122"/>
+      <c r="O97" s="122"/>
+      <c r="P97" s="122"/>
+      <c r="Q97" s="122"/>
+      <c r="R97" s="122"/>
+      <c r="S97" s="122"/>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A98" s="122"/>
+      <c r="B98" s="122"/>
+      <c r="C98" s="122"/>
+      <c r="D98" s="122"/>
+      <c r="E98" s="122"/>
+      <c r="F98" s="122"/>
+      <c r="G98" s="122"/>
+      <c r="H98" s="122"/>
+      <c r="I98" s="122"/>
+      <c r="J98" s="122"/>
+      <c r="K98" s="122"/>
+      <c r="L98" s="122"/>
+      <c r="M98" s="122"/>
+      <c r="N98" s="122"/>
+      <c r="O98" s="122"/>
+      <c r="P98" s="122"/>
+      <c r="Q98" s="122"/>
+      <c r="R98" s="122"/>
+      <c r="S98" s="122"/>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A99" s="122" t="s">
         <v>52</v>
       </c>
-      <c r="B99" s="112"/>
-      <c r="C99" s="112"/>
-      <c r="D99" s="112"/>
-      <c r="E99" s="112"/>
-      <c r="F99" s="112"/>
-      <c r="G99" s="112"/>
-      <c r="H99" s="112"/>
-      <c r="I99" s="112"/>
-      <c r="J99" s="112"/>
-      <c r="K99" s="112"/>
-      <c r="L99" s="112"/>
-      <c r="M99" s="112"/>
-      <c r="N99" s="112"/>
-      <c r="O99" s="112"/>
-      <c r="P99" s="112"/>
-      <c r="Q99" s="112"/>
-      <c r="R99" s="112"/>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A100" s="112"/>
-      <c r="B100" s="112"/>
-      <c r="C100" s="112"/>
-      <c r="D100" s="112"/>
-      <c r="E100" s="112"/>
-      <c r="F100" s="112"/>
-      <c r="G100" s="112"/>
-      <c r="H100" s="112"/>
-      <c r="I100" s="112"/>
-      <c r="J100" s="112"/>
-      <c r="K100" s="112"/>
-      <c r="L100" s="112"/>
-      <c r="M100" s="112"/>
-      <c r="N100" s="112"/>
-      <c r="O100" s="112"/>
-      <c r="P100" s="112"/>
-      <c r="Q100" s="112"/>
-      <c r="R100" s="112"/>
-    </row>
-    <row r="157" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="B99" s="122"/>
+      <c r="C99" s="122"/>
+      <c r="D99" s="122"/>
+      <c r="E99" s="122"/>
+      <c r="F99" s="122"/>
+      <c r="G99" s="122"/>
+      <c r="H99" s="122"/>
+      <c r="I99" s="122"/>
+      <c r="J99" s="122"/>
+      <c r="K99" s="122"/>
+      <c r="L99" s="122"/>
+      <c r="M99" s="122"/>
+      <c r="N99" s="122"/>
+      <c r="O99" s="122"/>
+      <c r="P99" s="122"/>
+      <c r="Q99" s="122"/>
+      <c r="R99" s="122"/>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A100" s="122"/>
+      <c r="B100" s="122"/>
+      <c r="C100" s="122"/>
+      <c r="D100" s="122"/>
+      <c r="E100" s="122"/>
+      <c r="F100" s="122"/>
+      <c r="G100" s="122"/>
+      <c r="H100" s="122"/>
+      <c r="I100" s="122"/>
+      <c r="J100" s="122"/>
+      <c r="K100" s="122"/>
+      <c r="L100" s="122"/>
+      <c r="M100" s="122"/>
+      <c r="N100" s="122"/>
+      <c r="O100" s="122"/>
+      <c r="P100" s="122"/>
+      <c r="Q100" s="122"/>
+      <c r="R100" s="122"/>
+    </row>
+    <row r="157" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D157" s="2"/>
     </row>
-    <row r="158" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D158" s="2"/>
     </row>
-    <row r="159" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D159" s="2"/>
     </row>
-    <row r="160" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D160" s="2"/>
     </row>
-    <row r="161" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D161" s="2"/>
     </row>
-    <row r="162" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D162" s="2"/>
     </row>
   </sheetData>
@@ -6435,26 +6473,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B09F221D-4B33-4C65-9CDA-6C45C4D602C8}">
   <dimension ref="B2:P122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19:P19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.125" customWidth="1"/>
-    <col min="3" max="3" width="7.875" customWidth="1"/>
-    <col min="4" max="4" width="3.75" customWidth="1"/>
-    <col min="5" max="5" width="7.125" customWidth="1"/>
-    <col min="6" max="15" width="5.5" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" customWidth="1"/>
+    <col min="4" max="4" width="3.77734375" customWidth="1"/>
+    <col min="5" max="5" width="7.109375" customWidth="1"/>
+    <col min="6" max="15" width="5.44140625" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="23" t="s">
         <v>25</v>
       </c>
@@ -6501,7 +6539,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
         <v>27</v>
       </c>
@@ -6514,41 +6552,41 @@
       <c r="E4" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="62">
+      <c r="F4" s="114">
         <v>7869.34</v>
       </c>
-      <c r="G4" s="62">
+      <c r="G4" s="114">
         <v>8022.99</v>
       </c>
-      <c r="H4" s="62">
+      <c r="H4" s="114">
         <v>8119.81</v>
       </c>
-      <c r="I4" s="62">
+      <c r="I4" s="114">
         <v>8192.44</v>
       </c>
-      <c r="J4" s="62">
+      <c r="J4" s="114">
         <v>8281.09</v>
       </c>
-      <c r="K4" s="62">
+      <c r="K4" s="114">
         <v>8315.11</v>
       </c>
-      <c r="L4" s="62">
+      <c r="L4" s="114">
         <v>8381.4699999999993</v>
       </c>
-      <c r="M4" s="62">
+      <c r="M4" s="114">
         <v>8423.5</v>
       </c>
-      <c r="N4" s="62">
+      <c r="N4" s="114">
         <v>8446.19</v>
       </c>
-      <c r="O4" s="62">
+      <c r="O4" s="114">
         <v>8469.09</v>
       </c>
-      <c r="P4" s="79">
+      <c r="P4" s="115">
         <v>8477.26</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
         <v>67</v>
       </c>
@@ -6561,41 +6599,41 @@
       <c r="E5" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="62">
+      <c r="F5" s="116">
         <v>41383.870000000003</v>
       </c>
-      <c r="G5" s="62">
+      <c r="G5" s="116">
         <v>45952.65</v>
       </c>
-      <c r="H5" s="62">
+      <c r="H5" s="116">
         <v>50660.2</v>
       </c>
-      <c r="I5" s="62">
+      <c r="I5" s="116">
         <v>55580.11</v>
       </c>
-      <c r="J5" s="62">
+      <c r="J5" s="116">
         <v>60359.43</v>
       </c>
-      <c r="K5" s="62">
+      <c r="K5" s="116">
         <v>65552</v>
       </c>
-      <c r="L5" s="62">
+      <c r="L5" s="116">
         <v>70665.706828891314</v>
       </c>
-      <c r="M5" s="62">
+      <c r="M5" s="116">
         <v>75752.201492282824</v>
       </c>
-      <c r="N5" s="62">
+      <c r="N5" s="116">
         <v>80827.711934711959</v>
       </c>
-      <c r="O5" s="62">
+      <c r="O5" s="116">
         <v>85556.133874050909</v>
       </c>
-      <c r="P5" s="79">
+      <c r="P5" s="117">
         <v>88683.214628733374</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
         <v>86</v>
       </c>
@@ -6642,8 +6680,8 @@
         <v>3916.8118050867261</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B7" s="116" t="s">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="126" t="s">
         <v>68</v>
       </c>
       <c r="C7" s="27" t="s">
@@ -6689,8 +6727,8 @@
         <v>38183.225572845957</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B8" s="117"/>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="127"/>
       <c r="C8" s="17" t="s">
         <v>28</v>
       </c>
@@ -6734,8 +6772,8 @@
         <v>1660.679968048458</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B9" s="118"/>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="128"/>
       <c r="C9" s="31" t="s">
         <v>30</v>
       </c>
@@ -6779,8 +6817,8 @@
         <v>36522.545604797502</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B10" s="117" t="s">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="127" t="s">
         <v>69</v>
       </c>
       <c r="C10" s="18" t="s">
@@ -6826,8 +6864,8 @@
         <v>46583.177250800691</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B11" s="117"/>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="127"/>
       <c r="C11" s="18" t="s">
         <v>32</v>
       </c>
@@ -6871,8 +6909,8 @@
         <v>2761.5106468268996</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B12" s="118"/>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="128"/>
       <c r="C12" s="32" t="s">
         <v>33</v>
       </c>
@@ -6916,22 +6954,22 @@
         <v>43821.66660397379</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="35" t="s">
         <v>25</v>
       </c>
@@ -6978,7 +7016,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="35" t="s">
         <v>39</v>
       </c>
@@ -6991,41 +7029,41 @@
       <c r="E19" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="62">
+      <c r="F19" s="118">
         <v>23539.314431299459</v>
       </c>
-      <c r="G19" s="62">
+      <c r="G19" s="118">
         <v>26860.02581166237</v>
       </c>
-      <c r="H19" s="62">
+      <c r="H19" s="118">
         <v>27999.218108462737</v>
       </c>
-      <c r="I19" s="62">
+      <c r="I19" s="118">
         <v>28203.104274886711</v>
       </c>
-      <c r="J19" s="62">
+      <c r="J19" s="118">
         <v>28170.505764677109</v>
       </c>
-      <c r="K19" s="62">
+      <c r="K19" s="118">
         <v>29033.608068382076</v>
       </c>
-      <c r="L19" s="62">
+      <c r="L19" s="118">
         <v>29947.976618213484</v>
       </c>
-      <c r="M19" s="62">
+      <c r="M19" s="118">
         <v>30669.886456735469</v>
       </c>
-      <c r="N19" s="62">
+      <c r="N19" s="118">
         <v>31373.126649143542</v>
       </c>
-      <c r="O19" s="62">
+      <c r="O19" s="118">
         <v>32227.505385373526</v>
       </c>
-      <c r="P19" s="79">
+      <c r="P19" s="119">
         <v>31437.997554448099</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="35" t="s">
         <v>72</v>
       </c>
@@ -7072,14 +7110,14 @@
         <v>423.7818192603138</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B21" s="122" t="s">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="132" t="s">
         <v>73</v>
       </c>
       <c r="C21" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="122" t="s">
+      <c r="D21" s="132" t="s">
         <v>66</v>
       </c>
       <c r="E21" s="26" t="s">
@@ -7119,12 +7157,12 @@
         <v>25325.993062383372</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B22" s="123"/>
-      <c r="C22" s="147" t="s">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="133"/>
+      <c r="C22" s="157" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="123"/>
+      <c r="D22" s="133"/>
       <c r="E22" s="16" t="s">
         <v>14</v>
       </c>
@@ -7162,10 +7200,10 @@
         <v>7491.0483759503895</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B23" s="123"/>
-      <c r="C23" s="147"/>
-      <c r="D23" s="123"/>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="133"/>
+      <c r="C23" s="157"/>
+      <c r="D23" s="133"/>
       <c r="E23" s="16" t="s">
         <v>15</v>
       </c>
@@ -7203,10 +7241,10 @@
         <v>1003.9694483524332</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B24" s="123"/>
-      <c r="C24" s="147"/>
-      <c r="D24" s="123"/>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="133"/>
+      <c r="C24" s="157"/>
+      <c r="D24" s="133"/>
       <c r="E24" s="16" t="s">
         <v>63</v>
       </c>
@@ -7244,10 +7282,10 @@
         <v>-2414.6633436989423</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B25" s="123"/>
-      <c r="C25" s="147"/>
-      <c r="D25" s="123"/>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="133"/>
+      <c r="C25" s="157"/>
+      <c r="D25" s="133"/>
       <c r="E25" s="16" t="s">
         <v>17</v>
       </c>
@@ -7285,12 +7323,12 @@
         <v>372.89528216417955</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B26" s="124"/>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" s="134"/>
       <c r="C26" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="124"/>
+      <c r="D26" s="134"/>
       <c r="E26" s="28" t="s">
         <v>23</v>
       </c>
@@ -7328,14 +7366,14 @@
         <v>18872.743299615311</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B27" s="122" t="s">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" s="132" t="s">
         <v>74</v>
       </c>
       <c r="C27" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="122" t="s">
+      <c r="D27" s="132" t="s">
         <v>66</v>
       </c>
       <c r="E27" s="26" t="s">
@@ -7375,12 +7413,12 @@
         <v>3507.6180865862634</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B28" s="123"/>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28" s="133"/>
       <c r="C28" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="123"/>
+      <c r="D28" s="133"/>
       <c r="E28" s="16" t="s">
         <v>23</v>
       </c>
@@ -7418,12 +7456,12 @@
         <v>2484.4650329971887</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B29" s="124"/>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="134"/>
       <c r="C29" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="124"/>
+      <c r="D29" s="134"/>
       <c r="E29" s="28" t="s">
         <v>23</v>
       </c>
@@ -7461,7 +7499,7 @@
         <v>1023.1530535890747</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="35" t="s">
         <v>75</v>
       </c>
@@ -7508,69 +7546,69 @@
         <v>2180.6045862181545</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B32" s="148" t="s">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B32" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="148"/>
-      <c r="D32" s="148"/>
-      <c r="E32" s="148"/>
-      <c r="F32" s="148"/>
-      <c r="G32" s="148"/>
-      <c r="H32" s="148"/>
-      <c r="I32" s="148"/>
-      <c r="J32" s="148"/>
-      <c r="K32" s="148"/>
-      <c r="L32" s="148"/>
-      <c r="M32" s="148"/>
-      <c r="N32" s="148"/>
-      <c r="O32" s="148"/>
-      <c r="P32" s="148"/>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B33" s="148" t="s">
+      <c r="C32" s="158"/>
+      <c r="D32" s="158"/>
+      <c r="E32" s="158"/>
+      <c r="F32" s="158"/>
+      <c r="G32" s="158"/>
+      <c r="H32" s="158"/>
+      <c r="I32" s="158"/>
+      <c r="J32" s="158"/>
+      <c r="K32" s="158"/>
+      <c r="L32" s="158"/>
+      <c r="M32" s="158"/>
+      <c r="N32" s="158"/>
+      <c r="O32" s="158"/>
+      <c r="P32" s="158"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B33" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="148"/>
-      <c r="D33" s="148"/>
-      <c r="E33" s="148"/>
-      <c r="F33" s="148"/>
-      <c r="G33" s="148"/>
-      <c r="H33" s="148"/>
-      <c r="I33" s="148"/>
-      <c r="J33" s="148"/>
-      <c r="K33" s="148"/>
-      <c r="L33" s="148"/>
-      <c r="M33" s="148"/>
-      <c r="N33" s="148"/>
-      <c r="O33" s="148"/>
-      <c r="P33" s="148"/>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B34" s="148" t="s">
+      <c r="C33" s="158"/>
+      <c r="D33" s="158"/>
+      <c r="E33" s="158"/>
+      <c r="F33" s="158"/>
+      <c r="G33" s="158"/>
+      <c r="H33" s="158"/>
+      <c r="I33" s="158"/>
+      <c r="J33" s="158"/>
+      <c r="K33" s="158"/>
+      <c r="L33" s="158"/>
+      <c r="M33" s="158"/>
+      <c r="N33" s="158"/>
+      <c r="O33" s="158"/>
+      <c r="P33" s="158"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B34" s="158" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="148"/>
-      <c r="D34" s="148"/>
-      <c r="E34" s="148"/>
-      <c r="F34" s="148"/>
-      <c r="G34" s="148"/>
-      <c r="H34" s="148"/>
-      <c r="I34" s="148"/>
-      <c r="J34" s="148"/>
-      <c r="K34" s="148"/>
-      <c r="L34" s="148"/>
-      <c r="M34" s="148"/>
-      <c r="N34" s="148"/>
-      <c r="O34" s="148"/>
-      <c r="P34" s="148"/>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C34" s="158"/>
+      <c r="D34" s="158"/>
+      <c r="E34" s="158"/>
+      <c r="F34" s="158"/>
+      <c r="G34" s="158"/>
+      <c r="H34" s="158"/>
+      <c r="I34" s="158"/>
+      <c r="J34" s="158"/>
+      <c r="K34" s="158"/>
+      <c r="L34" s="158"/>
+      <c r="M34" s="158"/>
+      <c r="N34" s="158"/>
+      <c r="O34" s="158"/>
+      <c r="P34" s="158"/>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37" s="23" t="s">
         <v>25</v>
       </c>
@@ -7617,14 +7655,14 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B38" s="122" t="s">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B38" s="132" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="138" t="s">
+      <c r="C38" s="148" t="s">
         <v>55</v>
       </c>
-      <c r="D38" s="113" t="s">
+      <c r="D38" s="123" t="s">
         <v>66</v>
       </c>
       <c r="E38" s="26" t="s">
@@ -7664,10 +7702,10 @@
         <v>31.757778000000002</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B39" s="123"/>
-      <c r="C39" s="119"/>
-      <c r="D39" s="114"/>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B39" s="133"/>
+      <c r="C39" s="129"/>
+      <c r="D39" s="124"/>
       <c r="E39" s="16" t="s">
         <v>5</v>
       </c>
@@ -7705,10 +7743,10 @@
         <v>293.32306089266126</v>
       </c>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B40" s="123"/>
-      <c r="C40" s="119"/>
-      <c r="D40" s="114"/>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B40" s="133"/>
+      <c r="C40" s="129"/>
+      <c r="D40" s="124"/>
       <c r="E40" s="16" t="s">
         <v>6</v>
       </c>
@@ -7746,10 +7784,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B41" s="123"/>
-      <c r="C41" s="119"/>
-      <c r="D41" s="114"/>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B41" s="133"/>
+      <c r="C41" s="129"/>
+      <c r="D41" s="124"/>
       <c r="E41" s="17" t="s">
         <v>7</v>
       </c>
@@ -7787,10 +7825,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B42" s="123"/>
-      <c r="C42" s="119"/>
-      <c r="D42" s="114"/>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B42" s="133"/>
+      <c r="C42" s="129"/>
+      <c r="D42" s="124"/>
       <c r="E42" s="17" t="s">
         <v>8</v>
       </c>
@@ -7828,10 +7866,10 @@
         <v>98.700980367652534</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B43" s="124"/>
-      <c r="C43" s="125"/>
-      <c r="D43" s="115"/>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B43" s="134"/>
+      <c r="C43" s="135"/>
+      <c r="D43" s="125"/>
       <c r="E43" s="28" t="s">
         <v>20</v>
       </c>
@@ -7869,14 +7907,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B44" s="116" t="s">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B44" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="138" t="s">
+      <c r="C44" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="D44" s="113" t="s">
+      <c r="D44" s="123" t="s">
         <v>66</v>
       </c>
       <c r="E44" s="26" t="s">
@@ -7916,12 +7954,12 @@
         <v>20260.682737487325</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B45" s="117"/>
-      <c r="C45" s="119"/>
-      <c r="D45" s="114"/>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B45" s="127"/>
+      <c r="C45" s="129"/>
+      <c r="D45" s="124"/>
       <c r="E45" s="16" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="F45" s="58">
         <v>1574.8131890027782</v>
@@ -7957,10 +7995,10 @@
         <v>1503.396717937248</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B46" s="117"/>
-      <c r="C46" s="119"/>
-      <c r="D46" s="114"/>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B46" s="127"/>
+      <c r="C46" s="129"/>
+      <c r="D46" s="124"/>
       <c r="E46" s="16" t="s">
         <v>6</v>
       </c>
@@ -7998,10 +8036,10 @@
         <v>3034.8838880000003</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B47" s="117"/>
-      <c r="C47" s="119"/>
-      <c r="D47" s="114"/>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B47" s="127"/>
+      <c r="C47" s="129"/>
+      <c r="D47" s="124"/>
       <c r="E47" s="17" t="s">
         <v>7</v>
       </c>
@@ -8039,10 +8077,10 @@
         <v>-10.261033154610686</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B48" s="117"/>
-      <c r="C48" s="119"/>
-      <c r="D48" s="114"/>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B48" s="127"/>
+      <c r="C48" s="129"/>
+      <c r="D48" s="124"/>
       <c r="E48" s="17" t="s">
         <v>8</v>
       </c>
@@ -8080,10 +8118,10 @@
         <v>183.28075211341093</v>
       </c>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B49" s="117"/>
-      <c r="C49" s="125"/>
-      <c r="D49" s="115"/>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B49" s="127"/>
+      <c r="C49" s="135"/>
+      <c r="D49" s="125"/>
       <c r="E49" s="28" t="s">
         <v>20</v>
       </c>
@@ -8121,12 +8159,12 @@
         <v>354.01</v>
       </c>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B50" s="117"/>
-      <c r="C50" s="138" t="s">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B50" s="127"/>
+      <c r="C50" s="148" t="s">
         <v>28</v>
       </c>
-      <c r="D50" s="116" t="s">
+      <c r="D50" s="126" t="s">
         <v>66</v>
       </c>
       <c r="E50" s="26" t="s">
@@ -8166,10 +8204,10 @@
         <v>11969.33815725684</v>
       </c>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B51" s="117"/>
-      <c r="C51" s="119"/>
-      <c r="D51" s="117"/>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B51" s="127"/>
+      <c r="C51" s="129"/>
+      <c r="D51" s="127"/>
       <c r="E51" s="16" t="s">
         <v>5</v>
       </c>
@@ -8207,10 +8245,10 @@
         <v>277.74211862434765</v>
       </c>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B52" s="117"/>
-      <c r="C52" s="119"/>
-      <c r="D52" s="117"/>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B52" s="127"/>
+      <c r="C52" s="129"/>
+      <c r="D52" s="127"/>
       <c r="E52" s="16" t="s">
         <v>6</v>
       </c>
@@ -8248,10 +8286,10 @@
         <v>1368.522232</v>
       </c>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B53" s="117"/>
-      <c r="C53" s="119"/>
-      <c r="D53" s="117"/>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B53" s="127"/>
+      <c r="C53" s="129"/>
+      <c r="D53" s="127"/>
       <c r="E53" s="17" t="s">
         <v>7</v>
       </c>
@@ -8289,10 +8327,10 @@
         <v>-2244.5112343022106</v>
       </c>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B54" s="117"/>
-      <c r="C54" s="119"/>
-      <c r="D54" s="117"/>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B54" s="127"/>
+      <c r="C54" s="129"/>
+      <c r="D54" s="127"/>
       <c r="E54" s="17" t="s">
         <v>8</v>
       </c>
@@ -8330,10 +8368,10 @@
         <v>-5217.5715108109171</v>
       </c>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B55" s="117"/>
-      <c r="C55" s="125"/>
-      <c r="D55" s="118"/>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B55" s="127"/>
+      <c r="C55" s="135"/>
+      <c r="D55" s="128"/>
       <c r="E55" s="28" t="s">
         <v>20</v>
       </c>
@@ -8371,12 +8409,12 @@
         <v>299.73</v>
       </c>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B56" s="117"/>
-      <c r="C56" s="138" t="s">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B56" s="127"/>
+      <c r="C56" s="148" t="s">
         <v>29</v>
       </c>
-      <c r="D56" s="116" t="s">
+      <c r="D56" s="126" t="s">
         <v>66</v>
       </c>
       <c r="E56" s="26" t="s">
@@ -8416,10 +8454,10 @@
         <v>8291.344580230485</v>
       </c>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B57" s="117"/>
-      <c r="C57" s="119"/>
-      <c r="D57" s="117"/>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B57" s="127"/>
+      <c r="C57" s="129"/>
+      <c r="D57" s="127"/>
       <c r="E57" s="16" t="s">
         <v>5</v>
       </c>
@@ -8457,10 +8495,10 @@
         <v>1225.6545993129005</v>
       </c>
     </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B58" s="117"/>
-      <c r="C58" s="119"/>
-      <c r="D58" s="117"/>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B58" s="127"/>
+      <c r="C58" s="129"/>
+      <c r="D58" s="127"/>
       <c r="E58" s="16" t="s">
         <v>6</v>
       </c>
@@ -8498,10 +8536,10 @@
         <v>1666.3616560000003</v>
       </c>
     </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B59" s="117"/>
-      <c r="C59" s="119"/>
-      <c r="D59" s="117"/>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B59" s="127"/>
+      <c r="C59" s="129"/>
+      <c r="D59" s="127"/>
       <c r="E59" s="17" t="s">
         <v>7</v>
       </c>
@@ -8539,10 +8577,10 @@
         <v>2234.2502011475999</v>
       </c>
     </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B60" s="117"/>
-      <c r="C60" s="119"/>
-      <c r="D60" s="117"/>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B60" s="127"/>
+      <c r="C60" s="129"/>
+      <c r="D60" s="127"/>
       <c r="E60" s="17" t="s">
         <v>8</v>
       </c>
@@ -8580,10 +8618,10 @@
         <v>5400.852262924328</v>
       </c>
     </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B61" s="118"/>
-      <c r="C61" s="125"/>
-      <c r="D61" s="118"/>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B61" s="128"/>
+      <c r="C61" s="135"/>
+      <c r="D61" s="128"/>
       <c r="E61" s="28" t="s">
         <v>20</v>
       </c>
@@ -8621,14 +8659,14 @@
         <v>54.28</v>
       </c>
     </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B62" s="116" t="s">
+    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B62" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="C62" s="138" t="s">
+      <c r="C62" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="D62" s="113" t="s">
+      <c r="D62" s="123" t="s">
         <v>66</v>
       </c>
       <c r="E62" s="26" t="s">
@@ -8668,10 +8706,10 @@
         <v>0.22857600000000003</v>
       </c>
     </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B63" s="117"/>
-      <c r="C63" s="119"/>
-      <c r="D63" s="114"/>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B63" s="127"/>
+      <c r="C63" s="129"/>
+      <c r="D63" s="124"/>
       <c r="E63" s="16" t="s">
         <v>5</v>
       </c>
@@ -8709,10 +8747,10 @@
         <v>2167.3791238473409</v>
       </c>
     </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B64" s="117"/>
-      <c r="C64" s="119"/>
-      <c r="D64" s="114"/>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B64" s="127"/>
+      <c r="C64" s="129"/>
+      <c r="D64" s="124"/>
       <c r="E64" s="16" t="s">
         <v>6</v>
       </c>
@@ -8750,10 +8788,10 @@
         <v>217.40270800000002</v>
       </c>
     </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B65" s="117"/>
-      <c r="C65" s="119"/>
-      <c r="D65" s="114"/>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B65" s="127"/>
+      <c r="C65" s="129"/>
+      <c r="D65" s="124"/>
       <c r="E65" s="17" t="s">
         <v>7</v>
       </c>
@@ -8791,10 +8829,10 @@
         <v>0.96093820177769285</v>
       </c>
     </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B66" s="117"/>
-      <c r="C66" s="119"/>
-      <c r="D66" s="114"/>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B66" s="127"/>
+      <c r="C66" s="129"/>
+      <c r="D66" s="124"/>
       <c r="E66" s="17" t="s">
         <v>8</v>
       </c>
@@ -8832,10 +8870,10 @@
         <v>1121.6467405371445</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B67" s="117"/>
-      <c r="C67" s="125"/>
-      <c r="D67" s="115"/>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B67" s="127"/>
+      <c r="C67" s="135"/>
+      <c r="D67" s="125"/>
       <c r="E67" s="28" t="s">
         <v>20</v>
       </c>
@@ -8873,12 +8911,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B68" s="117"/>
-      <c r="C68" s="138" t="s">
+    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B68" s="127"/>
+      <c r="C68" s="148" t="s">
         <v>31</v>
       </c>
-      <c r="D68" s="113" t="s">
+      <c r="D68" s="123" t="s">
         <v>66</v>
       </c>
       <c r="E68" s="26" t="s">
@@ -8918,10 +8956,10 @@
         <v>0.22857600000000003</v>
       </c>
     </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B69" s="117"/>
-      <c r="C69" s="119"/>
-      <c r="D69" s="114"/>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B69" s="127"/>
+      <c r="C69" s="129"/>
+      <c r="D69" s="124"/>
       <c r="E69" s="16" t="s">
         <v>5</v>
       </c>
@@ -8959,10 +8997,10 @@
         <v>2156.1306668254169</v>
       </c>
     </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B70" s="117"/>
-      <c r="C70" s="119"/>
-      <c r="D70" s="114"/>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B70" s="127"/>
+      <c r="C70" s="129"/>
+      <c r="D70" s="124"/>
       <c r="E70" s="16" t="s">
         <v>6</v>
       </c>
@@ -9000,10 +9038,10 @@
         <v>205.964708</v>
       </c>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B71" s="117"/>
-      <c r="C71" s="119"/>
-      <c r="D71" s="114"/>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B71" s="127"/>
+      <c r="C71" s="129"/>
+      <c r="D71" s="124"/>
       <c r="E71" s="17" t="s">
         <v>7</v>
       </c>
@@ -9041,10 +9079,10 @@
         <v>0.29803406258115811</v>
       </c>
     </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B72" s="117"/>
-      <c r="C72" s="119"/>
-      <c r="D72" s="114"/>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B72" s="127"/>
+      <c r="C72" s="129"/>
+      <c r="D72" s="124"/>
       <c r="E72" s="17" t="s">
         <v>8</v>
       </c>
@@ -9082,10 +9120,10 @@
         <v>121.84304810919029</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B73" s="117"/>
-      <c r="C73" s="125"/>
-      <c r="D73" s="115"/>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B73" s="127"/>
+      <c r="C73" s="135"/>
+      <c r="D73" s="125"/>
       <c r="E73" s="28" t="s">
         <v>20</v>
       </c>
@@ -9123,12 +9161,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B74" s="117"/>
-      <c r="C74" s="138" t="s">
+    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B74" s="127"/>
+      <c r="C74" s="148" t="s">
         <v>33</v>
       </c>
-      <c r="D74" s="113" t="s">
+      <c r="D74" s="123" t="s">
         <v>66</v>
       </c>
       <c r="E74" s="26" t="s">
@@ -9168,10 +9206,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B75" s="117"/>
-      <c r="C75" s="119"/>
-      <c r="D75" s="114"/>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B75" s="127"/>
+      <c r="C75" s="129"/>
+      <c r="D75" s="124"/>
       <c r="E75" s="16" t="s">
         <v>5</v>
       </c>
@@ -9209,10 +9247,10 @@
         <v>11.248457021923878</v>
       </c>
     </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B76" s="117"/>
-      <c r="C76" s="119"/>
-      <c r="D76" s="114"/>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B76" s="127"/>
+      <c r="C76" s="129"/>
+      <c r="D76" s="124"/>
       <c r="E76" s="16" t="s">
         <v>6</v>
       </c>
@@ -9250,10 +9288,10 @@
         <v>11.438000000000002</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B77" s="117"/>
-      <c r="C77" s="119"/>
-      <c r="D77" s="114"/>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B77" s="127"/>
+      <c r="C77" s="129"/>
+      <c r="D77" s="124"/>
       <c r="E77" s="17" t="s">
         <v>7</v>
       </c>
@@ -9291,10 +9329,10 @@
         <v>0.66290413919653479</v>
       </c>
     </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B78" s="117"/>
-      <c r="C78" s="119"/>
-      <c r="D78" s="114"/>
+    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B78" s="127"/>
+      <c r="C78" s="129"/>
+      <c r="D78" s="124"/>
       <c r="E78" s="17" t="s">
         <v>8</v>
       </c>
@@ -9332,10 +9370,10 @@
         <v>999.80369242795427</v>
       </c>
     </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B79" s="118"/>
-      <c r="C79" s="125"/>
-      <c r="D79" s="115"/>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B79" s="128"/>
+      <c r="C79" s="135"/>
+      <c r="D79" s="125"/>
       <c r="E79" s="28" t="s">
         <v>20</v>
       </c>
@@ -9373,14 +9411,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B80" s="122" t="s">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B80" s="132" t="s">
         <v>37</v>
       </c>
-      <c r="C80" s="138" t="s">
+      <c r="C80" s="148" t="s">
         <v>56</v>
       </c>
-      <c r="D80" s="113" t="s">
+      <c r="D80" s="123" t="s">
         <v>66</v>
       </c>
       <c r="E80" s="26" t="s">
@@ -9420,10 +9458,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B81" s="123"/>
-      <c r="C81" s="119"/>
-      <c r="D81" s="114"/>
+    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B81" s="133"/>
+      <c r="C81" s="129"/>
+      <c r="D81" s="124"/>
       <c r="E81" s="16" t="s">
         <v>5</v>
       </c>
@@ -9461,10 +9499,10 @@
         <v>735.80528694112229</v>
       </c>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B82" s="123"/>
-      <c r="C82" s="119"/>
-      <c r="D82" s="114"/>
+    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B82" s="133"/>
+      <c r="C82" s="129"/>
+      <c r="D82" s="124"/>
       <c r="E82" s="16" t="s">
         <v>6</v>
       </c>
@@ -9502,10 +9540,10 @@
         <v>455.12600000000003</v>
       </c>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B83" s="123"/>
-      <c r="C83" s="119"/>
-      <c r="D83" s="114"/>
+    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B83" s="133"/>
+      <c r="C83" s="129"/>
+      <c r="D83" s="124"/>
       <c r="E83" s="16" t="s">
         <v>7</v>
       </c>
@@ -9543,10 +9581,10 @@
         <v>9.3000949528328682</v>
       </c>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B84" s="123"/>
-      <c r="C84" s="119"/>
-      <c r="D84" s="114"/>
+    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B84" s="133"/>
+      <c r="C84" s="129"/>
+      <c r="D84" s="124"/>
       <c r="E84" s="16" t="s">
         <v>8</v>
       </c>
@@ -9584,10 +9622,10 @@
         <v>980.37320432419904</v>
       </c>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B85" s="124"/>
-      <c r="C85" s="125"/>
-      <c r="D85" s="115"/>
+    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B85" s="134"/>
+      <c r="C85" s="135"/>
+      <c r="D85" s="125"/>
       <c r="E85" s="28" t="s">
         <v>20</v>
       </c>
@@ -9625,77 +9663,77 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="145" t="s">
+    <row r="87" spans="2:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="155" t="s">
         <v>96</v>
       </c>
-      <c r="C87" s="145"/>
-      <c r="D87" s="145"/>
-      <c r="E87" s="145"/>
-      <c r="F87" s="145"/>
-      <c r="G87" s="145"/>
-      <c r="H87" s="145"/>
-      <c r="I87" s="145"/>
-      <c r="J87" s="145"/>
-      <c r="K87" s="145"/>
-      <c r="L87" s="145"/>
-      <c r="M87" s="145"/>
-      <c r="N87" s="145"/>
-      <c r="O87" s="145"/>
-      <c r="P87" s="145"/>
-    </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B88" s="145"/>
-      <c r="C88" s="145"/>
-      <c r="D88" s="145"/>
-      <c r="E88" s="145"/>
-      <c r="F88" s="145"/>
-      <c r="G88" s="145"/>
-      <c r="H88" s="145"/>
-      <c r="I88" s="145"/>
-      <c r="J88" s="145"/>
-      <c r="K88" s="145"/>
-      <c r="L88" s="145"/>
-      <c r="M88" s="145"/>
-      <c r="N88" s="145"/>
-      <c r="O88" s="145"/>
-      <c r="P88" s="145"/>
-    </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B89" s="145"/>
-      <c r="C89" s="145"/>
-      <c r="D89" s="145"/>
-      <c r="E89" s="145"/>
-      <c r="F89" s="145"/>
-      <c r="G89" s="145"/>
-      <c r="H89" s="145"/>
-      <c r="I89" s="145"/>
-      <c r="J89" s="145"/>
-      <c r="K89" s="145"/>
-      <c r="L89" s="145"/>
-      <c r="M89" s="145"/>
-      <c r="N89" s="145"/>
-      <c r="O89" s="145"/>
-      <c r="P89" s="145"/>
-    </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B90" s="145"/>
-      <c r="C90" s="145"/>
-      <c r="D90" s="145"/>
-      <c r="E90" s="145"/>
-      <c r="F90" s="145"/>
-      <c r="G90" s="145"/>
-      <c r="H90" s="145"/>
-      <c r="I90" s="145"/>
-      <c r="J90" s="145"/>
-      <c r="K90" s="145"/>
-      <c r="L90" s="145"/>
-      <c r="M90" s="145"/>
-      <c r="N90" s="145"/>
-      <c r="O90" s="145"/>
-      <c r="P90" s="145"/>
-    </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C87" s="155"/>
+      <c r="D87" s="155"/>
+      <c r="E87" s="155"/>
+      <c r="F87" s="155"/>
+      <c r="G87" s="155"/>
+      <c r="H87" s="155"/>
+      <c r="I87" s="155"/>
+      <c r="J87" s="155"/>
+      <c r="K87" s="155"/>
+      <c r="L87" s="155"/>
+      <c r="M87" s="155"/>
+      <c r="N87" s="155"/>
+      <c r="O87" s="155"/>
+      <c r="P87" s="155"/>
+    </row>
+    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B88" s="155"/>
+      <c r="C88" s="155"/>
+      <c r="D88" s="155"/>
+      <c r="E88" s="155"/>
+      <c r="F88" s="155"/>
+      <c r="G88" s="155"/>
+      <c r="H88" s="155"/>
+      <c r="I88" s="155"/>
+      <c r="J88" s="155"/>
+      <c r="K88" s="155"/>
+      <c r="L88" s="155"/>
+      <c r="M88" s="155"/>
+      <c r="N88" s="155"/>
+      <c r="O88" s="155"/>
+      <c r="P88" s="155"/>
+    </row>
+    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B89" s="155"/>
+      <c r="C89" s="155"/>
+      <c r="D89" s="155"/>
+      <c r="E89" s="155"/>
+      <c r="F89" s="155"/>
+      <c r="G89" s="155"/>
+      <c r="H89" s="155"/>
+      <c r="I89" s="155"/>
+      <c r="J89" s="155"/>
+      <c r="K89" s="155"/>
+      <c r="L89" s="155"/>
+      <c r="M89" s="155"/>
+      <c r="N89" s="155"/>
+      <c r="O89" s="155"/>
+      <c r="P89" s="155"/>
+    </row>
+    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B90" s="155"/>
+      <c r="C90" s="155"/>
+      <c r="D90" s="155"/>
+      <c r="E90" s="155"/>
+      <c r="F90" s="155"/>
+      <c r="G90" s="155"/>
+      <c r="H90" s="155"/>
+      <c r="I90" s="155"/>
+      <c r="J90" s="155"/>
+      <c r="K90" s="155"/>
+      <c r="L90" s="155"/>
+      <c r="M90" s="155"/>
+      <c r="N90" s="155"/>
+      <c r="O90" s="155"/>
+      <c r="P90" s="155"/>
+    </row>
+    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B91" s="50"/>
       <c r="C91" s="50"/>
       <c r="D91" s="50"/>
@@ -9712,12 +9750,12 @@
       <c r="O91" s="50"/>
       <c r="P91" s="50"/>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B93" s="23" t="s">
         <v>25</v>
       </c>
@@ -9764,14 +9802,14 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B94" s="122" t="s">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B94" s="132" t="s">
         <v>9</v>
       </c>
       <c r="C94" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D94" s="116" t="s">
+      <c r="D94" s="126" t="s">
         <v>66</v>
       </c>
       <c r="E94" s="23" t="s">
@@ -9811,12 +9849,12 @@
         <v>20292.669091487325</v>
       </c>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B95" s="123"/>
-      <c r="C95" s="138" t="s">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B95" s="133"/>
+      <c r="C95" s="148" t="s">
         <v>26</v>
       </c>
-      <c r="D95" s="117"/>
+      <c r="D95" s="127"/>
       <c r="E95" s="16" t="s">
         <v>14</v>
       </c>
@@ -9854,10 +9892,10 @@
         <v>11305.034139737198</v>
       </c>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B96" s="123"/>
-      <c r="C96" s="119"/>
-      <c r="D96" s="117"/>
+    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B96" s="133"/>
+      <c r="C96" s="129"/>
+      <c r="D96" s="127"/>
       <c r="E96" s="16" t="s">
         <v>15</v>
       </c>
@@ -9895,10 +9933,10 @@
         <v>2784.1871060788162</v>
       </c>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B97" s="123"/>
-      <c r="C97" s="119"/>
-      <c r="D97" s="117"/>
+    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B97" s="133"/>
+      <c r="C97" s="129"/>
+      <c r="D97" s="127"/>
       <c r="E97" s="16" t="s">
         <v>61</v>
       </c>
@@ -9936,10 +9974,10 @@
         <v>-2119.8830885591747</v>
       </c>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B98" s="123"/>
-      <c r="C98" s="119"/>
-      <c r="D98" s="117"/>
+    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B98" s="133"/>
+      <c r="C98" s="129"/>
+      <c r="D98" s="127"/>
       <c r="E98" s="16" t="s">
         <v>17</v>
       </c>
@@ -9977,10 +10015,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B99" s="124"/>
-      <c r="C99" s="125"/>
-      <c r="D99" s="118"/>
+    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B99" s="134"/>
+      <c r="C99" s="135"/>
+      <c r="D99" s="128"/>
       <c r="E99" s="28" t="s">
         <v>89</v>
       </c>
@@ -10018,14 +10056,14 @@
         <v>8323.3309342304838</v>
       </c>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B100" s="122" t="s">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B100" s="132" t="s">
         <v>10</v>
       </c>
       <c r="C100" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D100" s="116" t="s">
+      <c r="D100" s="126" t="s">
         <v>66</v>
       </c>
       <c r="E100" s="23" t="s">
@@ -10065,12 +10103,12 @@
         <v>4699.9041896183726</v>
       </c>
     </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B101" s="123"/>
-      <c r="C101" s="119" t="s">
+    <row r="101" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B101" s="133"/>
+      <c r="C101" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="D101" s="117"/>
+      <c r="D101" s="127"/>
       <c r="E101" s="16" t="s">
         <v>14</v>
       </c>
@@ -10108,10 +10146,10 @@
         <v>7.1196297988029391</v>
       </c>
     </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B102" s="123"/>
-      <c r="C102" s="119"/>
-      <c r="D102" s="117"/>
+    <row r="102" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B102" s="133"/>
+      <c r="C102" s="129"/>
+      <c r="D102" s="127"/>
       <c r="E102" s="16" t="s">
         <v>15</v>
       </c>
@@ -10149,10 +10187,10 @@
         <v>9.3681393400964303</v>
       </c>
     </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B103" s="123"/>
-      <c r="C103" s="119"/>
-      <c r="D103" s="117"/>
+    <row r="103" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B103" s="133"/>
+      <c r="C103" s="129"/>
+      <c r="D103" s="127"/>
       <c r="E103" s="16" t="s">
         <v>61</v>
       </c>
@@ -10190,10 +10228,10 @@
         <v>253.98289864318181</v>
       </c>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B104" s="123"/>
-      <c r="C104" s="119"/>
-      <c r="D104" s="117"/>
+    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B104" s="133"/>
+      <c r="C104" s="129"/>
+      <c r="D104" s="127"/>
       <c r="E104" s="16" t="s">
         <v>17</v>
       </c>
@@ -10231,10 +10269,10 @@
         <v>7.2714508422664617</v>
       </c>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B105" s="124"/>
-      <c r="C105" s="125"/>
-      <c r="D105" s="118"/>
+    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B105" s="134"/>
+      <c r="C105" s="135"/>
+      <c r="D105" s="128"/>
       <c r="E105" s="28" t="s">
         <v>18</v>
       </c>
@@ -10278,14 +10316,14 @@
         <v>4422.1620709940244</v>
       </c>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B106" s="122" t="s">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B106" s="132" t="s">
         <v>11</v>
       </c>
       <c r="C106" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D106" s="116" t="s">
+      <c r="D106" s="126" t="s">
         <v>66</v>
       </c>
       <c r="E106" s="23" t="s">
@@ -10325,12 +10363,12 @@
         <v>3707.4125960000006</v>
       </c>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B107" s="123"/>
-      <c r="C107" s="119" t="s">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B107" s="133"/>
+      <c r="C107" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="D107" s="117"/>
+      <c r="D107" s="127"/>
       <c r="E107" s="16" t="s">
         <v>14</v>
       </c>
@@ -10368,10 +10406,10 @@
         <v>1085.56852</v>
       </c>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B108" s="123"/>
-      <c r="C108" s="119"/>
-      <c r="D108" s="117"/>
+    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B108" s="133"/>
+      <c r="C108" s="129"/>
+      <c r="D108" s="127"/>
       <c r="E108" s="16" t="s">
         <v>15</v>
       </c>
@@ -10409,10 +10447,10 @@
         <v>243.83961199999999</v>
       </c>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B109" s="123"/>
-      <c r="C109" s="119"/>
-      <c r="D109" s="117"/>
+    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B109" s="133"/>
+      <c r="C109" s="129"/>
+      <c r="D109" s="127"/>
       <c r="E109" s="16" t="s">
         <v>61</v>
       </c>
@@ -10450,10 +10488,10 @@
         <v>0.14510000000000001</v>
       </c>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B110" s="123"/>
-      <c r="C110" s="119"/>
-      <c r="D110" s="117"/>
+    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B110" s="133"/>
+      <c r="C110" s="129"/>
+      <c r="D110" s="127"/>
       <c r="E110" s="16" t="s">
         <v>17</v>
       </c>
@@ -10491,10 +10529,10 @@
         <v>38.969000000000001</v>
       </c>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B111" s="124"/>
-      <c r="C111" s="125"/>
-      <c r="D111" s="118"/>
+    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B111" s="134"/>
+      <c r="C111" s="135"/>
+      <c r="D111" s="128"/>
       <c r="E111" s="28" t="s">
         <v>18</v>
       </c>
@@ -10538,7 +10576,7 @@
         <v>2338.8903640000003</v>
       </c>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B112" s="35" t="s">
         <v>57</v>
       </c>
@@ -10585,7 +10623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B113" s="35" t="s">
         <v>58</v>
       </c>
@@ -10632,7 +10670,7 @@
         <v>963.06888601294827</v>
       </c>
     </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B114" s="33" t="s">
         <v>90</v>
       </c>
@@ -10679,7 +10717,7 @@
         <v>1420.9327913294587</v>
       </c>
     </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B115" s="35" t="s">
         <v>59</v>
       </c>
@@ -10726,43 +10764,43 @@
         <v>354.01</v>
       </c>
     </row>
-    <row r="117" spans="2:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="146" t="s">
+    <row r="117" spans="2:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="156" t="s">
         <v>97</v>
       </c>
-      <c r="C117" s="146"/>
-      <c r="D117" s="146"/>
-      <c r="E117" s="146"/>
-      <c r="F117" s="146"/>
-      <c r="G117" s="146"/>
-      <c r="H117" s="146"/>
-      <c r="I117" s="146"/>
-      <c r="J117" s="146"/>
-      <c r="K117" s="146"/>
-      <c r="L117" s="146"/>
-      <c r="M117" s="146"/>
-      <c r="N117" s="146"/>
-      <c r="O117" s="146"/>
-      <c r="P117" s="146"/>
-    </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B118" s="146"/>
-      <c r="C118" s="146"/>
-      <c r="D118" s="146"/>
-      <c r="E118" s="146"/>
-      <c r="F118" s="146"/>
-      <c r="G118" s="146"/>
-      <c r="H118" s="146"/>
-      <c r="I118" s="146"/>
-      <c r="J118" s="146"/>
-      <c r="K118" s="146"/>
-      <c r="L118" s="146"/>
-      <c r="M118" s="146"/>
-      <c r="N118" s="146"/>
-      <c r="O118" s="146"/>
-      <c r="P118" s="146"/>
-    </row>
-    <row r="119" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C117" s="156"/>
+      <c r="D117" s="156"/>
+      <c r="E117" s="156"/>
+      <c r="F117" s="156"/>
+      <c r="G117" s="156"/>
+      <c r="H117" s="156"/>
+      <c r="I117" s="156"/>
+      <c r="J117" s="156"/>
+      <c r="K117" s="156"/>
+      <c r="L117" s="156"/>
+      <c r="M117" s="156"/>
+      <c r="N117" s="156"/>
+      <c r="O117" s="156"/>
+      <c r="P117" s="156"/>
+    </row>
+    <row r="118" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B118" s="156"/>
+      <c r="C118" s="156"/>
+      <c r="D118" s="156"/>
+      <c r="E118" s="156"/>
+      <c r="F118" s="156"/>
+      <c r="G118" s="156"/>
+      <c r="H118" s="156"/>
+      <c r="I118" s="156"/>
+      <c r="J118" s="156"/>
+      <c r="K118" s="156"/>
+      <c r="L118" s="156"/>
+      <c r="M118" s="156"/>
+      <c r="N118" s="156"/>
+      <c r="O118" s="156"/>
+      <c r="P118" s="156"/>
+    </row>
+    <row r="119" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B119" s="49"/>
       <c r="C119" s="49"/>
       <c r="D119" s="49"/>
@@ -10779,58 +10817,58 @@
       <c r="O119" s="49"/>
       <c r="P119" s="49"/>
     </row>
-    <row r="120" spans="2:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B120" s="146" t="s">
+    <row r="120" spans="2:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="156" t="s">
         <v>98</v>
       </c>
-      <c r="C120" s="146"/>
-      <c r="D120" s="146"/>
-      <c r="E120" s="146"/>
-      <c r="F120" s="146"/>
-      <c r="G120" s="146"/>
-      <c r="H120" s="146"/>
-      <c r="I120" s="146"/>
-      <c r="J120" s="146"/>
-      <c r="K120" s="146"/>
-      <c r="L120" s="146"/>
-      <c r="M120" s="146"/>
-      <c r="N120" s="146"/>
-      <c r="O120" s="146"/>
-      <c r="P120" s="146"/>
-    </row>
-    <row r="121" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B121" s="146"/>
-      <c r="C121" s="146"/>
-      <c r="D121" s="146"/>
-      <c r="E121" s="146"/>
-      <c r="F121" s="146"/>
-      <c r="G121" s="146"/>
-      <c r="H121" s="146"/>
-      <c r="I121" s="146"/>
-      <c r="J121" s="146"/>
-      <c r="K121" s="146"/>
-      <c r="L121" s="146"/>
-      <c r="M121" s="146"/>
-      <c r="N121" s="146"/>
-      <c r="O121" s="146"/>
-      <c r="P121" s="146"/>
-    </row>
-    <row r="122" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B122" s="146"/>
-      <c r="C122" s="146"/>
-      <c r="D122" s="146"/>
-      <c r="E122" s="146"/>
-      <c r="F122" s="146"/>
-      <c r="G122" s="146"/>
-      <c r="H122" s="146"/>
-      <c r="I122" s="146"/>
-      <c r="J122" s="146"/>
-      <c r="K122" s="146"/>
-      <c r="L122" s="146"/>
-      <c r="M122" s="146"/>
-      <c r="N122" s="146"/>
-      <c r="O122" s="146"/>
-      <c r="P122" s="146"/>
+      <c r="C120" s="156"/>
+      <c r="D120" s="156"/>
+      <c r="E120" s="156"/>
+      <c r="F120" s="156"/>
+      <c r="G120" s="156"/>
+      <c r="H120" s="156"/>
+      <c r="I120" s="156"/>
+      <c r="J120" s="156"/>
+      <c r="K120" s="156"/>
+      <c r="L120" s="156"/>
+      <c r="M120" s="156"/>
+      <c r="N120" s="156"/>
+      <c r="O120" s="156"/>
+      <c r="P120" s="156"/>
+    </row>
+    <row r="121" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B121" s="156"/>
+      <c r="C121" s="156"/>
+      <c r="D121" s="156"/>
+      <c r="E121" s="156"/>
+      <c r="F121" s="156"/>
+      <c r="G121" s="156"/>
+      <c r="H121" s="156"/>
+      <c r="I121" s="156"/>
+      <c r="J121" s="156"/>
+      <c r="K121" s="156"/>
+      <c r="L121" s="156"/>
+      <c r="M121" s="156"/>
+      <c r="N121" s="156"/>
+      <c r="O121" s="156"/>
+      <c r="P121" s="156"/>
+    </row>
+    <row r="122" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B122" s="156"/>
+      <c r="C122" s="156"/>
+      <c r="D122" s="156"/>
+      <c r="E122" s="156"/>
+      <c r="F122" s="156"/>
+      <c r="G122" s="156"/>
+      <c r="H122" s="156"/>
+      <c r="I122" s="156"/>
+      <c r="J122" s="156"/>
+      <c r="K122" s="156"/>
+      <c r="L122" s="156"/>
+      <c r="M122" s="156"/>
+      <c r="N122" s="156"/>
+      <c r="O122" s="156"/>
+      <c r="P122" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="42">
@@ -10887,28 +10925,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A02BCFA-5E86-41B3-A988-E80237009C5C}">
   <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="5.125" customWidth="1"/>
-    <col min="3" max="3" width="7.125" style="4" customWidth="1"/>
-    <col min="4" max="5" width="5.125" customWidth="1"/>
-    <col min="6" max="6" width="5.625" customWidth="1"/>
-    <col min="7" max="8" width="5.5" customWidth="1"/>
-    <col min="9" max="9" width="6.125" customWidth="1"/>
-    <col min="10" max="10" width="5.875" customWidth="1"/>
-    <col min="11" max="11" width="5.25" customWidth="1"/>
-    <col min="12" max="12" width="5.375" customWidth="1"/>
-    <col min="13" max="13" width="6.125" customWidth="1"/>
-    <col min="14" max="14" width="5.875" customWidth="1"/>
-    <col min="15" max="15" width="6.125" customWidth="1"/>
-    <col min="16" max="16" width="5.75" customWidth="1"/>
+    <col min="1" max="2" width="5.109375" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" style="4" customWidth="1"/>
+    <col min="4" max="5" width="5.109375" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" customWidth="1"/>
+    <col min="7" max="8" width="5.44140625" customWidth="1"/>
+    <col min="9" max="9" width="6.109375" customWidth="1"/>
+    <col min="10" max="10" width="5.88671875" customWidth="1"/>
+    <col min="11" max="11" width="5.21875" customWidth="1"/>
+    <col min="12" max="12" width="5.33203125" customWidth="1"/>
+    <col min="13" max="13" width="6.109375" customWidth="1"/>
+    <col min="14" max="14" width="5.88671875" customWidth="1"/>
+    <col min="15" max="15" width="6.109375" customWidth="1"/>
+    <col min="16" max="16" width="5.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
@@ -10958,8 +10996,8 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="149" t="s">
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="159" t="s">
         <v>78</v>
       </c>
       <c r="B2" s="20" t="s">
@@ -11008,8 +11046,8 @@
         <v>72633.324252040591</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="150"/>
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="160"/>
       <c r="B3" s="23" t="s">
         <v>34</v>
       </c>
@@ -11056,8 +11094,8 @@
         <v>1238.7590447233804</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="150"/>
+    <row r="4" spans="1:16" s="1" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="160"/>
       <c r="B4" s="26" t="s">
         <v>35</v>
       </c>
@@ -11104,15 +11142,15 @@
         <v>52954.048904608426</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="150"/>
-      <c r="B5" s="116" t="s">
+    <row r="5" spans="1:16" s="1" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="160"/>
+      <c r="B5" s="126" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="126" t="s">
         <v>82</v>
       </c>
       <c r="E5" s="26" t="s">
@@ -11152,13 +11190,13 @@
         <v>10906.027504334841</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="150"/>
-      <c r="B6" s="117"/>
+    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="160"/>
+      <c r="B6" s="127"/>
       <c r="C6" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="117"/>
+      <c r="D6" s="127"/>
       <c r="E6" s="16" t="s">
         <v>23</v>
       </c>
@@ -11196,13 +11234,13 @@
         <v>5456.8364040614706</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="150"/>
-      <c r="B7" s="118"/>
+    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="160"/>
+      <c r="B7" s="128"/>
       <c r="C7" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="118"/>
+      <c r="D7" s="128"/>
       <c r="E7" s="28" t="s">
         <v>23</v>
       </c>
@@ -11240,8 +11278,8 @@
         <v>5449.1911002733696</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="151"/>
+    <row r="8" spans="1:16" s="1" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="161"/>
       <c r="B8" s="19" t="s">
         <v>37</v>
       </c>
@@ -11288,17 +11326,17 @@
         <v>7534.4887983739391</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="1" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="156" t="s">
+    <row r="9" spans="1:16" s="1" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="166" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="155" t="s">
+      <c r="B9" s="165" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="139" t="s">
+      <c r="C9" s="149" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="155" t="s">
+      <c r="D9" s="165" t="s">
         <v>83</v>
       </c>
       <c r="E9" s="14" t="s">
@@ -11338,11 +11376,11 @@
         <v>2.6636734598908021</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="157"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="117"/>
+    <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="167"/>
+      <c r="B10" s="127"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="127"/>
       <c r="E10" s="16" t="s">
         <v>41</v>
       </c>
@@ -11380,11 +11418,11 @@
         <v>2.1156384028422135</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="157"/>
-      <c r="B11" s="117"/>
-      <c r="C11" s="119"/>
-      <c r="D11" s="117"/>
+    <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="167"/>
+      <c r="B11" s="127"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="127"/>
       <c r="E11" s="16" t="s">
         <v>42</v>
       </c>
@@ -11422,11 +11460,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="157"/>
-      <c r="B12" s="117"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="117"/>
+    <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="167"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="127"/>
       <c r="E12" s="16" t="s">
         <v>43</v>
       </c>
@@ -11464,11 +11502,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="157"/>
-      <c r="B13" s="117"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="117"/>
+    <row r="13" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="167"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="127"/>
       <c r="E13" s="16" t="s">
         <v>44</v>
       </c>
@@ -11506,11 +11544,11 @@
         <v>5.406239738129444</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="157"/>
-      <c r="B14" s="118"/>
-      <c r="C14" s="125"/>
-      <c r="D14" s="118"/>
+    <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="167"/>
+      <c r="B14" s="128"/>
+      <c r="C14" s="135"/>
+      <c r="D14" s="128"/>
       <c r="E14" s="28" t="s">
         <v>20</v>
       </c>
@@ -11548,15 +11586,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="1" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="157"/>
-      <c r="B15" s="116" t="s">
+    <row r="15" spans="1:16" s="1" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="167"/>
+      <c r="B15" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="138" t="s">
+      <c r="C15" s="148" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="116" t="s">
+      <c r="D15" s="126" t="s">
         <v>83</v>
       </c>
       <c r="E15" s="26" t="s">
@@ -11596,11 +11634,11 @@
         <v>3.3831623093333434</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="157"/>
-      <c r="B16" s="117"/>
-      <c r="C16" s="119"/>
-      <c r="D16" s="117"/>
+    <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="167"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="127"/>
       <c r="E16" s="16" t="s">
         <v>41</v>
       </c>
@@ -11638,11 +11676,11 @@
         <v>1.8330690688106397</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="157"/>
-      <c r="B17" s="117"/>
-      <c r="C17" s="119"/>
-      <c r="D17" s="117"/>
+    <row r="17" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="167"/>
+      <c r="B17" s="127"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="127"/>
       <c r="E17" s="16" t="s">
         <v>42</v>
       </c>
@@ -11680,11 +11718,11 @@
         <v>1.6052333614122478</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="157"/>
-      <c r="B18" s="117"/>
-      <c r="C18" s="119"/>
-      <c r="D18" s="117"/>
+    <row r="18" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="167"/>
+      <c r="B18" s="127"/>
+      <c r="C18" s="129"/>
+      <c r="D18" s="127"/>
       <c r="E18" s="16" t="s">
         <v>43</v>
       </c>
@@ -11722,11 +11760,11 @@
         <v>3.124066850730113</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="157"/>
-      <c r="B19" s="117"/>
-      <c r="C19" s="119"/>
-      <c r="D19" s="117"/>
+    <row r="19" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="167"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="129"/>
+      <c r="D19" s="127"/>
       <c r="E19" s="16" t="s">
         <v>44</v>
       </c>
@@ -11764,11 +11802,11 @@
         <v>5.4062397381294431</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="157"/>
-      <c r="B20" s="118"/>
-      <c r="C20" s="125"/>
-      <c r="D20" s="118"/>
+    <row r="20" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="167"/>
+      <c r="B20" s="128"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="128"/>
       <c r="E20" s="28" t="s">
         <v>20</v>
       </c>
@@ -11806,15 +11844,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="1" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="157"/>
-      <c r="B21" s="116" t="s">
+    <row r="21" spans="1:16" s="1" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="167"/>
+      <c r="B21" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="138" t="s">
+      <c r="C21" s="148" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="116" t="s">
+      <c r="D21" s="126" t="s">
         <v>83</v>
       </c>
       <c r="E21" s="26" t="s">
@@ -11854,11 +11892,11 @@
         <v>2.6636734598908021</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="157"/>
-      <c r="B22" s="117"/>
-      <c r="C22" s="119"/>
-      <c r="D22" s="117"/>
+    <row r="22" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="167"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="127"/>
       <c r="E22" s="16" t="s">
         <v>41</v>
       </c>
@@ -11896,11 +11934,11 @@
         <v>2.0690582998508114</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="157"/>
-      <c r="B23" s="117"/>
-      <c r="C23" s="119"/>
-      <c r="D23" s="117"/>
+    <row r="23" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="167"/>
+      <c r="B23" s="127"/>
+      <c r="C23" s="129"/>
+      <c r="D23" s="127"/>
       <c r="E23" s="16" t="s">
         <v>42</v>
       </c>
@@ -11938,11 +11976,11 @@
         <v>1.6277087410236324</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="157"/>
-      <c r="B24" s="117"/>
-      <c r="C24" s="119"/>
-      <c r="D24" s="117"/>
+    <row r="24" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="167"/>
+      <c r="B24" s="127"/>
+      <c r="C24" s="129"/>
+      <c r="D24" s="127"/>
       <c r="E24" s="16" t="s">
         <v>43</v>
       </c>
@@ -11980,11 +12018,11 @@
         <v>3.7050007386544923</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="157"/>
-      <c r="B25" s="117"/>
-      <c r="C25" s="119"/>
-      <c r="D25" s="117"/>
+    <row r="25" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="167"/>
+      <c r="B25" s="127"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="127"/>
       <c r="E25" s="16" t="s">
         <v>44</v>
       </c>
@@ -12022,11 +12060,11 @@
         <v>5.406239738129444</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="157"/>
-      <c r="B26" s="117"/>
-      <c r="C26" s="125"/>
-      <c r="D26" s="118"/>
+    <row r="26" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="167"/>
+      <c r="B26" s="127"/>
+      <c r="C26" s="135"/>
+      <c r="D26" s="128"/>
       <c r="E26" s="28" t="s">
         <v>20</v>
       </c>
@@ -12064,13 +12102,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="1" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="157"/>
-      <c r="B27" s="117"/>
-      <c r="C27" s="138" t="s">
+    <row r="27" spans="1:16" s="1" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="167"/>
+      <c r="B27" s="127"/>
+      <c r="C27" s="148" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="116" t="s">
+      <c r="D27" s="126" t="s">
         <v>83</v>
       </c>
       <c r="E27" s="26" t="s">
@@ -12110,11 +12148,11 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="157"/>
-      <c r="B28" s="117"/>
-      <c r="C28" s="119"/>
-      <c r="D28" s="117"/>
+    <row r="28" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="167"/>
+      <c r="B28" s="127"/>
+      <c r="C28" s="129"/>
+      <c r="D28" s="127"/>
       <c r="E28" s="16" t="s">
         <v>41</v>
       </c>
@@ -12152,11 +12190,11 @@
         <v>2.0392874608602112</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="157"/>
-      <c r="B29" s="117"/>
-      <c r="C29" s="119"/>
-      <c r="D29" s="117"/>
+    <row r="29" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="167"/>
+      <c r="B29" s="127"/>
+      <c r="C29" s="129"/>
+      <c r="D29" s="127"/>
       <c r="E29" s="16" t="s">
         <v>42</v>
       </c>
@@ -12194,11 +12232,11 @@
         <v>1.6277102864661657</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="157"/>
-      <c r="B30" s="117"/>
-      <c r="C30" s="119"/>
-      <c r="D30" s="117"/>
+    <row r="30" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="167"/>
+      <c r="B30" s="127"/>
+      <c r="C30" s="129"/>
+      <c r="D30" s="127"/>
       <c r="E30" s="16" t="s">
         <v>43</v>
       </c>
@@ -12236,11 +12274,11 @@
         <v>3.7050007386544923</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="157"/>
-      <c r="B31" s="117"/>
-      <c r="C31" s="119"/>
-      <c r="D31" s="117"/>
+    <row r="31" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="167"/>
+      <c r="B31" s="127"/>
+      <c r="C31" s="129"/>
+      <c r="D31" s="127"/>
       <c r="E31" s="16" t="s">
         <v>44</v>
       </c>
@@ -12278,11 +12316,11 @@
         <v>5.406239738129444</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="157"/>
-      <c r="B32" s="118"/>
-      <c r="C32" s="125"/>
-      <c r="D32" s="118"/>
+    <row r="32" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="167"/>
+      <c r="B32" s="128"/>
+      <c r="C32" s="135"/>
+      <c r="D32" s="128"/>
       <c r="E32" s="28" t="s">
         <v>20</v>
       </c>
@@ -12320,15 +12358,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="1" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="157"/>
-      <c r="B33" s="116" t="s">
+    <row r="33" spans="1:16" s="1" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="167"/>
+      <c r="B33" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="138" t="s">
+      <c r="C33" s="148" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="116" t="s">
+      <c r="D33" s="126" t="s">
         <v>83</v>
       </c>
       <c r="E33" s="16" t="s">
@@ -12368,11 +12406,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="157"/>
-      <c r="B34" s="117"/>
-      <c r="C34" s="119"/>
-      <c r="D34" s="117"/>
+    <row r="34" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="167"/>
+      <c r="B34" s="127"/>
+      <c r="C34" s="129"/>
+      <c r="D34" s="127"/>
       <c r="E34" s="16" t="s">
         <v>41</v>
       </c>
@@ -12410,11 +12448,11 @@
         <v>1.9829785384076852</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="157"/>
-      <c r="B35" s="117"/>
-      <c r="C35" s="119"/>
-      <c r="D35" s="117"/>
+    <row r="35" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="167"/>
+      <c r="B35" s="127"/>
+      <c r="C35" s="129"/>
+      <c r="D35" s="127"/>
       <c r="E35" s="16" t="s">
         <v>42</v>
       </c>
@@ -12452,11 +12490,11 @@
         <v>1.6277102864661657</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="157"/>
-      <c r="B36" s="117"/>
-      <c r="C36" s="119"/>
-      <c r="D36" s="117"/>
+    <row r="36" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="167"/>
+      <c r="B36" s="127"/>
+      <c r="C36" s="129"/>
+      <c r="D36" s="127"/>
       <c r="E36" s="16" t="s">
         <v>43</v>
       </c>
@@ -12494,11 +12532,11 @@
         <v>3.7050007386544923</v>
       </c>
     </row>
-    <row r="37" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="157"/>
-      <c r="B37" s="117"/>
-      <c r="C37" s="119"/>
-      <c r="D37" s="117"/>
+    <row r="37" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="167"/>
+      <c r="B37" s="127"/>
+      <c r="C37" s="129"/>
+      <c r="D37" s="127"/>
       <c r="E37" s="16" t="s">
         <v>44</v>
       </c>
@@ -12536,11 +12574,11 @@
         <v>5.406239738129444</v>
       </c>
     </row>
-    <row r="38" spans="1:16" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="158"/>
-      <c r="B38" s="126"/>
-      <c r="C38" s="144"/>
-      <c r="D38" s="126"/>
+    <row r="38" spans="1:16" s="1" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="168"/>
+      <c r="B38" s="136"/>
+      <c r="C38" s="154"/>
+      <c r="D38" s="136"/>
       <c r="E38" s="19" t="s">
         <v>20</v>
       </c>
@@ -12578,17 +12616,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:16" s="1" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="152" t="s">
+    <row r="39" spans="1:16" s="1" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="162" t="s">
         <v>80</v>
       </c>
-      <c r="B39" s="155" t="s">
+      <c r="B39" s="165" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="139" t="s">
-        <v>23</v>
-      </c>
-      <c r="D39" s="155" t="s">
+      <c r="C39" s="149" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="165" t="s">
         <v>83</v>
       </c>
       <c r="E39" s="14" t="s">
@@ -12628,11 +12666,11 @@
         <v>2.9505839777425367</v>
       </c>
     </row>
-    <row r="40" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="153"/>
-      <c r="B40" s="117"/>
-      <c r="C40" s="119"/>
-      <c r="D40" s="117"/>
+    <row r="40" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="163"/>
+      <c r="B40" s="127"/>
+      <c r="C40" s="129"/>
+      <c r="D40" s="127"/>
       <c r="E40" s="16" t="s">
         <v>41</v>
       </c>
@@ -12670,11 +12708,11 @@
         <v>2.0493592083537027</v>
       </c>
     </row>
-    <row r="41" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="153"/>
-      <c r="B41" s="117"/>
-      <c r="C41" s="119"/>
-      <c r="D41" s="117"/>
+    <row r="41" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="163"/>
+      <c r="B41" s="127"/>
+      <c r="C41" s="129"/>
+      <c r="D41" s="127"/>
       <c r="E41" s="16" t="s">
         <v>42</v>
       </c>
@@ -12712,11 +12750,11 @@
         <v>1.6277100406200065</v>
       </c>
     </row>
-    <row r="42" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="153"/>
-      <c r="B42" s="117"/>
-      <c r="C42" s="119"/>
-      <c r="D42" s="117"/>
+    <row r="42" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="163"/>
+      <c r="B42" s="127"/>
+      <c r="C42" s="129"/>
+      <c r="D42" s="127"/>
       <c r="E42" s="16" t="s">
         <v>43</v>
       </c>
@@ -12754,11 +12792,11 @@
         <v>3.7050007386544928</v>
       </c>
     </row>
-    <row r="43" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="153"/>
-      <c r="B43" s="117"/>
-      <c r="C43" s="119"/>
-      <c r="D43" s="117"/>
+    <row r="43" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="163"/>
+      <c r="B43" s="127"/>
+      <c r="C43" s="129"/>
+      <c r="D43" s="127"/>
       <c r="E43" s="16" t="s">
         <v>44</v>
       </c>
@@ -12796,11 +12834,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="153"/>
-      <c r="B44" s="118"/>
-      <c r="C44" s="125"/>
-      <c r="D44" s="118"/>
+    <row r="44" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="163"/>
+      <c r="B44" s="128"/>
+      <c r="C44" s="135"/>
+      <c r="D44" s="128"/>
       <c r="E44" s="28" t="s">
         <v>20</v>
       </c>
@@ -12838,15 +12876,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:16" s="1" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="153"/>
-      <c r="B45" s="116" t="s">
+    <row r="45" spans="1:16" s="1" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="163"/>
+      <c r="B45" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="138" t="s">
-        <v>23</v>
-      </c>
-      <c r="D45" s="116" t="s">
+      <c r="C45" s="148" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="126" t="s">
         <v>83</v>
       </c>
       <c r="E45" s="26" t="s">
@@ -12886,11 +12924,11 @@
         <v>2.7658680173931343</v>
       </c>
     </row>
-    <row r="46" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="153"/>
-      <c r="B46" s="117"/>
-      <c r="C46" s="119"/>
-      <c r="D46" s="117"/>
+    <row r="46" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="163"/>
+      <c r="B46" s="127"/>
+      <c r="C46" s="129"/>
+      <c r="D46" s="127"/>
       <c r="E46" s="16" t="s">
         <v>41</v>
       </c>
@@ -12928,11 +12966,11 @@
         <v>2.0207697574790364</v>
       </c>
     </row>
-    <row r="47" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="153"/>
-      <c r="B47" s="117"/>
-      <c r="C47" s="119"/>
-      <c r="D47" s="117"/>
+    <row r="47" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="163"/>
+      <c r="B47" s="127"/>
+      <c r="C47" s="129"/>
+      <c r="D47" s="127"/>
       <c r="E47" s="16" t="s">
         <v>42</v>
       </c>
@@ -12970,11 +13008,11 @@
         <v>1.6277100969305185</v>
       </c>
     </row>
-    <row r="48" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="153"/>
-      <c r="B48" s="117"/>
-      <c r="C48" s="119"/>
-      <c r="D48" s="117"/>
+    <row r="48" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="163"/>
+      <c r="B48" s="127"/>
+      <c r="C48" s="129"/>
+      <c r="D48" s="127"/>
       <c r="E48" s="16" t="s">
         <v>43</v>
       </c>
@@ -13012,11 +13050,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="153"/>
-      <c r="B49" s="117"/>
-      <c r="C49" s="119"/>
-      <c r="D49" s="117"/>
+    <row r="49" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="163"/>
+      <c r="B49" s="127"/>
+      <c r="C49" s="129"/>
+      <c r="D49" s="127"/>
       <c r="E49" s="16" t="s">
         <v>44</v>
       </c>
@@ -13054,11 +13092,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="153"/>
-      <c r="B50" s="118"/>
-      <c r="C50" s="125"/>
-      <c r="D50" s="118"/>
+    <row r="50" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="163"/>
+      <c r="B50" s="128"/>
+      <c r="C50" s="135"/>
+      <c r="D50" s="128"/>
       <c r="E50" s="28" t="s">
         <v>20</v>
       </c>
@@ -13096,15 +13134,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:16" s="1" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="153"/>
-      <c r="B51" s="116" t="s">
+    <row r="51" spans="1:16" s="1" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="163"/>
+      <c r="B51" s="126" t="s">
         <v>61</v>
       </c>
-      <c r="C51" s="138" t="s">
-        <v>23</v>
-      </c>
-      <c r="D51" s="116" t="s">
+      <c r="C51" s="148" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" s="126" t="s">
         <v>83</v>
       </c>
       <c r="E51" s="26" t="s">
@@ -13144,11 +13182,11 @@
         <v>7.2772285170010083</v>
       </c>
     </row>
-    <row r="52" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="153"/>
-      <c r="B52" s="117"/>
-      <c r="C52" s="119"/>
-      <c r="D52" s="117"/>
+    <row r="52" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="163"/>
+      <c r="B52" s="127"/>
+      <c r="C52" s="129"/>
+      <c r="D52" s="127"/>
       <c r="E52" s="16" t="s">
         <v>41</v>
       </c>
@@ -13186,11 +13224,11 @@
         <v>2.0876076091929425</v>
       </c>
     </row>
-    <row r="53" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="153"/>
-      <c r="B53" s="117"/>
-      <c r="C53" s="119"/>
-      <c r="D53" s="117"/>
+    <row r="53" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="163"/>
+      <c r="B53" s="127"/>
+      <c r="C53" s="129"/>
+      <c r="D53" s="127"/>
       <c r="E53" s="16" t="s">
         <v>42</v>
       </c>
@@ -13228,11 +13266,11 @@
         <v>-14.919742804962098</v>
       </c>
     </row>
-    <row r="54" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="153"/>
-      <c r="B54" s="117"/>
-      <c r="C54" s="119"/>
-      <c r="D54" s="117"/>
+    <row r="54" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="163"/>
+      <c r="B54" s="127"/>
+      <c r="C54" s="129"/>
+      <c r="D54" s="127"/>
       <c r="E54" s="16" t="s">
         <v>43</v>
       </c>
@@ -13270,11 +13308,11 @@
         <v>2.9061118389954674</v>
       </c>
     </row>
-    <row r="55" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="153"/>
-      <c r="B55" s="117"/>
-      <c r="C55" s="119"/>
-      <c r="D55" s="117"/>
+    <row r="55" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="163"/>
+      <c r="B55" s="127"/>
+      <c r="C55" s="129"/>
+      <c r="D55" s="127"/>
       <c r="E55" s="16" t="s">
         <v>44</v>
       </c>
@@ -13312,11 +13350,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="153"/>
-      <c r="B56" s="118"/>
-      <c r="C56" s="125"/>
-      <c r="D56" s="118"/>
+    <row r="56" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="163"/>
+      <c r="B56" s="128"/>
+      <c r="C56" s="135"/>
+      <c r="D56" s="128"/>
       <c r="E56" s="28" t="s">
         <v>20</v>
       </c>
@@ -13354,15 +13392,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:16" s="1" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="153"/>
-      <c r="B57" s="116" t="s">
+    <row r="57" spans="1:16" s="1" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="163"/>
+      <c r="B57" s="126" t="s">
         <v>105</v>
       </c>
-      <c r="C57" s="138" t="s">
-        <v>23</v>
-      </c>
-      <c r="D57" s="116" t="s">
+      <c r="C57" s="148" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57" s="126" t="s">
         <v>83</v>
       </c>
       <c r="E57" s="16" t="s">
@@ -13402,11 +13440,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="153"/>
-      <c r="B58" s="117"/>
-      <c r="C58" s="119"/>
-      <c r="D58" s="117"/>
+    <row r="58" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="163"/>
+      <c r="B58" s="127"/>
+      <c r="C58" s="129"/>
+      <c r="D58" s="127"/>
       <c r="E58" s="16" t="s">
         <v>41</v>
       </c>
@@ -13444,11 +13482,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="153"/>
-      <c r="B59" s="117"/>
-      <c r="C59" s="119"/>
-      <c r="D59" s="117"/>
+    <row r="59" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="163"/>
+      <c r="B59" s="127"/>
+      <c r="C59" s="129"/>
+      <c r="D59" s="127"/>
       <c r="E59" s="16" t="s">
         <v>42</v>
       </c>
@@ -13486,11 +13524,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="153"/>
-      <c r="B60" s="117"/>
-      <c r="C60" s="119"/>
-      <c r="D60" s="117"/>
+    <row r="60" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="163"/>
+      <c r="B60" s="127"/>
+      <c r="C60" s="129"/>
+      <c r="D60" s="127"/>
       <c r="E60" s="16" t="s">
         <v>43</v>
       </c>
@@ -13528,11 +13566,11 @@
         <v>3.8728398777715456</v>
       </c>
     </row>
-    <row r="61" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="153"/>
-      <c r="B61" s="117"/>
-      <c r="C61" s="119"/>
-      <c r="D61" s="117"/>
+    <row r="61" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="163"/>
+      <c r="B61" s="127"/>
+      <c r="C61" s="129"/>
+      <c r="D61" s="127"/>
       <c r="E61" s="16" t="s">
         <v>44</v>
       </c>
@@ -13570,11 +13608,11 @@
         <v>5.2463183673380316</v>
       </c>
     </row>
-    <row r="62" spans="1:16" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="154"/>
-      <c r="B62" s="126"/>
-      <c r="C62" s="144"/>
-      <c r="D62" s="126"/>
+    <row r="62" spans="1:16" s="1" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="164"/>
+      <c r="B62" s="136"/>
+      <c r="C62" s="154"/>
+      <c r="D62" s="136"/>
       <c r="E62" s="19" t="s">
         <v>20</v>
       </c>
@@ -13612,7 +13650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" ht="25.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="48" t="s">
         <v>81</v>
       </c>
@@ -13662,32 +13700,32 @@
         <v>3.8364328045622988</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="51" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="53" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="53" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="53" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="53" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="53" t="s">
         <v>106</v>
       </c>
@@ -13735,25 +13773,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C685B72-0FF8-4696-B648-856E741553DE}">
   <dimension ref="B2:P85"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="4"/>
-    <col min="2" max="2" width="5.125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="7.125" style="4" customWidth="1"/>
-    <col min="4" max="16" width="5.125" style="4" customWidth="1"/>
-    <col min="17" max="16384" width="8.625" style="4"/>
+    <col min="1" max="1" width="8.6640625" style="4"/>
+    <col min="2" max="2" width="5.109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" style="4" customWidth="1"/>
+    <col min="4" max="5" width="5.109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="7.88671875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="6.88671875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="6.5546875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="6.88671875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="7.21875" style="4" customWidth="1"/>
+    <col min="14" max="14" width="6" style="4" customWidth="1"/>
+    <col min="15" max="15" width="6.33203125" style="4" customWidth="1"/>
+    <col min="16" max="16" width="7" style="4" customWidth="1"/>
+    <col min="17" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="29" t="s">
         <v>25</v>
       </c>
@@ -13800,7 +13849,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="29" t="s">
         <v>78</v>
       </c>
@@ -13813,41 +13862,41 @@
       <c r="E4" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="98">
+      <c r="F4" s="112">
         <v>56360.051841686851</v>
       </c>
-      <c r="G4" s="98">
+      <c r="G4" s="112">
         <v>65193.342226679568</v>
       </c>
-      <c r="H4" s="98">
+      <c r="H4" s="112">
         <v>67502.613374512337</v>
       </c>
-      <c r="I4" s="98">
+      <c r="I4" s="112">
         <v>66749.375696721196</v>
       </c>
-      <c r="J4" s="98">
+      <c r="J4" s="112">
         <v>64853.276040080033</v>
       </c>
-      <c r="K4" s="98">
+      <c r="K4" s="112">
         <v>66074.809951117233</v>
       </c>
-      <c r="L4" s="98">
+      <c r="L4" s="112">
         <v>68526.124672221165</v>
       </c>
-      <c r="M4" s="98">
+      <c r="M4" s="112">
         <v>70451.557392652059</v>
       </c>
-      <c r="N4" s="98">
+      <c r="N4" s="112">
         <v>71502.002859987973</v>
       </c>
-      <c r="O4" s="98">
+      <c r="O4" s="112">
         <v>74096.331080908727</v>
       </c>
-      <c r="P4" s="99">
+      <c r="P4" s="113">
         <v>72633.324252040591</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="29" t="s">
         <v>34</v>
       </c>
@@ -13894,7 +13943,7 @@
         <v>1238.7590447233804</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="27" t="s">
         <v>35</v>
       </c>
@@ -13941,14 +13990,14 @@
         <v>52954.048904608426</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B7" s="138" t="s">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="148" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="138" t="s">
+      <c r="D7" s="148" t="s">
         <v>82</v>
       </c>
       <c r="E7" s="27" t="s">
@@ -13988,12 +14037,12 @@
         <v>10906.027504334841</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B8" s="119"/>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="129"/>
       <c r="C8" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="119"/>
+      <c r="D8" s="129"/>
       <c r="E8" s="17" t="s">
         <v>23</v>
       </c>
@@ -14031,12 +14080,12 @@
         <v>5456.8364040614706</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B9" s="125"/>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="135"/>
       <c r="C9" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="125"/>
+      <c r="D9" s="135"/>
       <c r="E9" s="31" t="s">
         <v>23</v>
       </c>
@@ -14074,7 +14123,7 @@
         <v>5449.1911002733696</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="29" t="s">
         <v>37</v>
       </c>
@@ -14121,31 +14170,31 @@
         <v>7534.4887983739391</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B12" s="159" t="s">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="169" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="159"/>
-      <c r="D12" s="159"/>
-      <c r="E12" s="159"/>
-      <c r="F12" s="159"/>
-      <c r="G12" s="159"/>
-      <c r="H12" s="159"/>
-      <c r="I12" s="159"/>
-      <c r="J12" s="159"/>
-      <c r="K12" s="159"/>
-      <c r="L12" s="159"/>
-      <c r="M12" s="159"/>
-      <c r="N12" s="159"/>
-      <c r="O12" s="159"/>
-      <c r="P12" s="159"/>
-    </row>
-    <row r="14" spans="2:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C12" s="169"/>
+      <c r="D12" s="169"/>
+      <c r="E12" s="169"/>
+      <c r="F12" s="169"/>
+      <c r="G12" s="169"/>
+      <c r="H12" s="169"/>
+      <c r="I12" s="169"/>
+      <c r="J12" s="169"/>
+      <c r="K12" s="169"/>
+      <c r="L12" s="169"/>
+      <c r="M12" s="169"/>
+      <c r="N12" s="169"/>
+      <c r="O12" s="169"/>
+      <c r="P12" s="169"/>
+    </row>
+    <row r="14" spans="2:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="29" t="s">
         <v>25</v>
       </c>
@@ -14192,14 +14241,14 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B16" s="138" t="s">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="148" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="138" t="s">
+      <c r="C16" s="148" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="138" t="s">
+      <c r="D16" s="148" t="s">
         <v>83</v>
       </c>
       <c r="E16" s="27" t="s">
@@ -14239,10 +14288,10 @@
         <v>2.6636734598908021</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B17" s="119"/>
-      <c r="C17" s="119"/>
-      <c r="D17" s="119"/>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="129"/>
       <c r="E17" s="17" t="s">
         <v>41</v>
       </c>
@@ -14280,10 +14329,10 @@
         <v>2.1156384028422135</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B18" s="119"/>
-      <c r="C18" s="119"/>
-      <c r="D18" s="119"/>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="129"/>
+      <c r="C18" s="129"/>
+      <c r="D18" s="129"/>
       <c r="E18" s="17" t="s">
         <v>42</v>
       </c>
@@ -14321,10 +14370,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B19" s="119"/>
-      <c r="C19" s="119"/>
-      <c r="D19" s="119"/>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="129"/>
+      <c r="C19" s="129"/>
+      <c r="D19" s="129"/>
       <c r="E19" s="17" t="s">
         <v>43</v>
       </c>
@@ -14362,10 +14411,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B20" s="119"/>
-      <c r="C20" s="119"/>
-      <c r="D20" s="119"/>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="129"/>
+      <c r="C20" s="129"/>
+      <c r="D20" s="129"/>
       <c r="E20" s="17" t="s">
         <v>44</v>
       </c>
@@ -14403,10 +14452,10 @@
         <v>5.406239738129444</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B21" s="125"/>
-      <c r="C21" s="125"/>
-      <c r="D21" s="125"/>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="135"/>
+      <c r="C21" s="135"/>
+      <c r="D21" s="135"/>
       <c r="E21" s="31" t="s">
         <v>20</v>
       </c>
@@ -14444,14 +14493,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B22" s="138" t="s">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="148" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="138" t="s">
+      <c r="C22" s="148" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="138" t="s">
+      <c r="D22" s="148" t="s">
         <v>83</v>
       </c>
       <c r="E22" s="27" t="s">
@@ -14491,10 +14540,10 @@
         <v>3.3831623093333434</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B23" s="119"/>
-      <c r="C23" s="119"/>
-      <c r="D23" s="119"/>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="129"/>
+      <c r="C23" s="129"/>
+      <c r="D23" s="129"/>
       <c r="E23" s="17" t="s">
         <v>41</v>
       </c>
@@ -14532,10 +14581,10 @@
         <v>1.8330690688106397</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B24" s="119"/>
-      <c r="C24" s="119"/>
-      <c r="D24" s="119"/>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="129"/>
+      <c r="C24" s="129"/>
+      <c r="D24" s="129"/>
       <c r="E24" s="17" t="s">
         <v>42</v>
       </c>
@@ -14573,10 +14622,10 @@
         <v>1.6052333614122478</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B25" s="119"/>
-      <c r="C25" s="119"/>
-      <c r="D25" s="119"/>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="129"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="129"/>
       <c r="E25" s="17" t="s">
         <v>43</v>
       </c>
@@ -14614,10 +14663,10 @@
         <v>3.124066850730113</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B26" s="119"/>
-      <c r="C26" s="119"/>
-      <c r="D26" s="119"/>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" s="129"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="129"/>
       <c r="E26" s="17" t="s">
         <v>44</v>
       </c>
@@ -14655,10 +14704,10 @@
         <v>5.4062397381294431</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B27" s="125"/>
-      <c r="C27" s="125"/>
-      <c r="D27" s="125"/>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" s="135"/>
+      <c r="C27" s="135"/>
+      <c r="D27" s="135"/>
       <c r="E27" s="31" t="s">
         <v>20</v>
       </c>
@@ -14696,14 +14745,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B28" s="138" t="s">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28" s="148" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="138" t="s">
+      <c r="C28" s="148" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="138" t="s">
+      <c r="D28" s="148" t="s">
         <v>83</v>
       </c>
       <c r="E28" s="27" t="s">
@@ -14743,10 +14792,10 @@
         <v>2.6636734598908021</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B29" s="119"/>
-      <c r="C29" s="119"/>
-      <c r="D29" s="119"/>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="129"/>
+      <c r="C29" s="129"/>
+      <c r="D29" s="129"/>
       <c r="E29" s="17" t="s">
         <v>41</v>
       </c>
@@ -14784,10 +14833,10 @@
         <v>2.0690582998508114</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B30" s="119"/>
-      <c r="C30" s="119"/>
-      <c r="D30" s="119"/>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="129"/>
+      <c r="C30" s="129"/>
+      <c r="D30" s="129"/>
       <c r="E30" s="17" t="s">
         <v>42</v>
       </c>
@@ -14825,10 +14874,10 @@
         <v>1.6277087410236324</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B31" s="119"/>
-      <c r="C31" s="119"/>
-      <c r="D31" s="119"/>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B31" s="129"/>
+      <c r="C31" s="129"/>
+      <c r="D31" s="129"/>
       <c r="E31" s="17" t="s">
         <v>43</v>
       </c>
@@ -14866,10 +14915,10 @@
         <v>3.7050007386544923</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B32" s="119"/>
-      <c r="C32" s="119"/>
-      <c r="D32" s="119"/>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B32" s="129"/>
+      <c r="C32" s="129"/>
+      <c r="D32" s="129"/>
       <c r="E32" s="17" t="s">
         <v>44</v>
       </c>
@@ -14907,10 +14956,10 @@
         <v>5.406239738129444</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B33" s="119"/>
-      <c r="C33" s="125"/>
-      <c r="D33" s="125"/>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B33" s="129"/>
+      <c r="C33" s="135"/>
+      <c r="D33" s="135"/>
       <c r="E33" s="31" t="s">
         <v>20</v>
       </c>
@@ -14948,12 +14997,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B34" s="119"/>
-      <c r="C34" s="138" t="s">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B34" s="129"/>
+      <c r="C34" s="148" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="138" t="s">
+      <c r="D34" s="148" t="s">
         <v>83</v>
       </c>
       <c r="E34" s="27" t="s">
@@ -14993,10 +15042,10 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B35" s="119"/>
-      <c r="C35" s="119"/>
-      <c r="D35" s="119"/>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B35" s="129"/>
+      <c r="C35" s="129"/>
+      <c r="D35" s="129"/>
       <c r="E35" s="17" t="s">
         <v>41</v>
       </c>
@@ -15034,10 +15083,10 @@
         <v>2.0392874608602112</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B36" s="119"/>
-      <c r="C36" s="119"/>
-      <c r="D36" s="119"/>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B36" s="129"/>
+      <c r="C36" s="129"/>
+      <c r="D36" s="129"/>
       <c r="E36" s="17" t="s">
         <v>42</v>
       </c>
@@ -15075,10 +15124,10 @@
         <v>1.6277102864661657</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B37" s="119"/>
-      <c r="C37" s="119"/>
-      <c r="D37" s="119"/>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B37" s="129"/>
+      <c r="C37" s="129"/>
+      <c r="D37" s="129"/>
       <c r="E37" s="17" t="s">
         <v>43</v>
       </c>
@@ -15116,10 +15165,10 @@
         <v>3.7050007386544923</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B38" s="119"/>
-      <c r="C38" s="119"/>
-      <c r="D38" s="119"/>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B38" s="129"/>
+      <c r="C38" s="129"/>
+      <c r="D38" s="129"/>
       <c r="E38" s="17" t="s">
         <v>44</v>
       </c>
@@ -15157,10 +15206,10 @@
         <v>5.406239738129444</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B39" s="125"/>
-      <c r="C39" s="125"/>
-      <c r="D39" s="125"/>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B39" s="135"/>
+      <c r="C39" s="135"/>
+      <c r="D39" s="135"/>
       <c r="E39" s="31" t="s">
         <v>20</v>
       </c>
@@ -15198,14 +15247,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B40" s="138" t="s">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B40" s="148" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="138" t="s">
+      <c r="C40" s="148" t="s">
         <v>56</v>
       </c>
-      <c r="D40" s="138" t="s">
+      <c r="D40" s="148" t="s">
         <v>83</v>
       </c>
       <c r="E40" s="27" t="s">
@@ -15227,28 +15276,28 @@
         <v>2.6479887244883602</v>
       </c>
       <c r="K40" s="100">
-        <v>2.6636734598908021</v>
-      </c>
-      <c r="L40" s="100" t="s">
-        <v>23</v>
-      </c>
-      <c r="M40" s="100" t="s">
-        <v>23</v>
-      </c>
-      <c r="N40" s="100" t="s">
-        <v>23</v>
-      </c>
-      <c r="O40" s="100" t="s">
-        <v>23</v>
-      </c>
-      <c r="P40" s="101" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B41" s="119"/>
-      <c r="C41" s="119"/>
-      <c r="D41" s="119"/>
+        <v>2.6636734598907998</v>
+      </c>
+      <c r="L40" s="120" t="s">
+        <v>23</v>
+      </c>
+      <c r="M40" s="120" t="s">
+        <v>23</v>
+      </c>
+      <c r="N40" s="120" t="s">
+        <v>23</v>
+      </c>
+      <c r="O40" s="120" t="s">
+        <v>23</v>
+      </c>
+      <c r="P40" s="121" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B41" s="129"/>
+      <c r="C41" s="129"/>
+      <c r="D41" s="129"/>
       <c r="E41" s="17" t="s">
         <v>41</v>
       </c>
@@ -15286,10 +15335,10 @@
         <v>1.9829785384076852</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B42" s="119"/>
-      <c r="C42" s="119"/>
-      <c r="D42" s="119"/>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B42" s="129"/>
+      <c r="C42" s="129"/>
+      <c r="D42" s="129"/>
       <c r="E42" s="17" t="s">
         <v>42</v>
       </c>
@@ -15327,10 +15376,10 @@
         <v>1.6277102864661657</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B43" s="119"/>
-      <c r="C43" s="119"/>
-      <c r="D43" s="119"/>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B43" s="129"/>
+      <c r="C43" s="129"/>
+      <c r="D43" s="129"/>
       <c r="E43" s="17" t="s">
         <v>43</v>
       </c>
@@ -15368,10 +15417,10 @@
         <v>3.7050007386544923</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B44" s="119"/>
-      <c r="C44" s="119"/>
-      <c r="D44" s="119"/>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B44" s="129"/>
+      <c r="C44" s="129"/>
+      <c r="D44" s="129"/>
       <c r="E44" s="17" t="s">
         <v>44</v>
       </c>
@@ -15409,10 +15458,10 @@
         <v>5.406239738129444</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B45" s="125"/>
-      <c r="C45" s="125"/>
-      <c r="D45" s="125"/>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B45" s="135"/>
+      <c r="C45" s="135"/>
+      <c r="D45" s="135"/>
       <c r="E45" s="31" t="s">
         <v>20</v>
       </c>
@@ -15450,7 +15499,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46" s="110"/>
       <c r="C46" s="110"/>
       <c r="D46" s="110"/>
@@ -15467,27 +15516,27 @@
       <c r="O46" s="110"/>
       <c r="P46" s="110"/>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B47" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B49" s="110"/>
       <c r="C49" s="110"/>
       <c r="D49" s="110"/>
     </row>
-    <row r="50" spans="2:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B51" s="29" t="s">
         <v>25</v>
       </c>
@@ -15534,14 +15583,14 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B52" s="138" t="s">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B52" s="148" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="138" t="s">
-        <v>23</v>
-      </c>
-      <c r="D52" s="138" t="s">
+      <c r="C52" s="148" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" s="148" t="s">
         <v>83</v>
       </c>
       <c r="E52" s="27" t="s">
@@ -15581,10 +15630,10 @@
         <v>2.9505839777425367</v>
       </c>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B53" s="119"/>
-      <c r="C53" s="119"/>
-      <c r="D53" s="119"/>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B53" s="129"/>
+      <c r="C53" s="129"/>
+      <c r="D53" s="129"/>
       <c r="E53" s="17" t="s">
         <v>41</v>
       </c>
@@ -15622,10 +15671,10 @@
         <v>2.0493592083537027</v>
       </c>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B54" s="119"/>
-      <c r="C54" s="119"/>
-      <c r="D54" s="119"/>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B54" s="129"/>
+      <c r="C54" s="129"/>
+      <c r="D54" s="129"/>
       <c r="E54" s="17" t="s">
         <v>42</v>
       </c>
@@ -15663,10 +15712,10 @@
         <v>1.6277100406200065</v>
       </c>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B55" s="119"/>
-      <c r="C55" s="119"/>
-      <c r="D55" s="119"/>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B55" s="129"/>
+      <c r="C55" s="129"/>
+      <c r="D55" s="129"/>
       <c r="E55" s="17" t="s">
         <v>43</v>
       </c>
@@ -15704,10 +15753,10 @@
         <v>3.7050007386544928</v>
       </c>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B56" s="119"/>
-      <c r="C56" s="119"/>
-      <c r="D56" s="119"/>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B56" s="129"/>
+      <c r="C56" s="129"/>
+      <c r="D56" s="129"/>
       <c r="E56" s="17" t="s">
         <v>44</v>
       </c>
@@ -15745,10 +15794,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B57" s="125"/>
-      <c r="C57" s="125"/>
-      <c r="D57" s="125"/>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B57" s="135"/>
+      <c r="C57" s="135"/>
+      <c r="D57" s="135"/>
       <c r="E57" s="31" t="s">
         <v>20</v>
       </c>
@@ -15786,14 +15835,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B58" s="138" t="s">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B58" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="C58" s="138" t="s">
-        <v>23</v>
-      </c>
-      <c r="D58" s="138" t="s">
+      <c r="C58" s="148" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" s="148" t="s">
         <v>83</v>
       </c>
       <c r="E58" s="27" t="s">
@@ -15833,10 +15882,10 @@
         <v>2.7658680173931343</v>
       </c>
     </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B59" s="119"/>
-      <c r="C59" s="119"/>
-      <c r="D59" s="119"/>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B59" s="129"/>
+      <c r="C59" s="129"/>
+      <c r="D59" s="129"/>
       <c r="E59" s="17" t="s">
         <v>41</v>
       </c>
@@ -15874,10 +15923,10 @@
         <v>2.0207697574790364</v>
       </c>
     </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B60" s="119"/>
-      <c r="C60" s="119"/>
-      <c r="D60" s="119"/>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B60" s="129"/>
+      <c r="C60" s="129"/>
+      <c r="D60" s="129"/>
       <c r="E60" s="17" t="s">
         <v>42</v>
       </c>
@@ -15915,10 +15964,10 @@
         <v>1.6277100969305185</v>
       </c>
     </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B61" s="119"/>
-      <c r="C61" s="119"/>
-      <c r="D61" s="119"/>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B61" s="129"/>
+      <c r="C61" s="129"/>
+      <c r="D61" s="129"/>
       <c r="E61" s="17" t="s">
         <v>43</v>
       </c>
@@ -15956,10 +16005,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B62" s="119"/>
-      <c r="C62" s="119"/>
-      <c r="D62" s="119"/>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B62" s="129"/>
+      <c r="C62" s="129"/>
+      <c r="D62" s="129"/>
       <c r="E62" s="17" t="s">
         <v>44</v>
       </c>
@@ -15997,10 +16046,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B63" s="125"/>
-      <c r="C63" s="125"/>
-      <c r="D63" s="125"/>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B63" s="135"/>
+      <c r="C63" s="135"/>
+      <c r="D63" s="135"/>
       <c r="E63" s="31" t="s">
         <v>20</v>
       </c>
@@ -16038,14 +16087,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B64" s="138" t="s">
+    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B64" s="148" t="s">
         <v>61</v>
       </c>
-      <c r="C64" s="138" t="s">
-        <v>23</v>
-      </c>
-      <c r="D64" s="138" t="s">
+      <c r="C64" s="148" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" s="148" t="s">
         <v>83</v>
       </c>
       <c r="E64" s="27" t="s">
@@ -16085,10 +16134,10 @@
         <v>7.2772285170010083</v>
       </c>
     </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B65" s="119"/>
-      <c r="C65" s="119"/>
-      <c r="D65" s="119"/>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B65" s="129"/>
+      <c r="C65" s="129"/>
+      <c r="D65" s="129"/>
       <c r="E65" s="17" t="s">
         <v>41</v>
       </c>
@@ -16126,10 +16175,10 @@
         <v>2.0876076091929425</v>
       </c>
     </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B66" s="119"/>
-      <c r="C66" s="119"/>
-      <c r="D66" s="119"/>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B66" s="129"/>
+      <c r="C66" s="129"/>
+      <c r="D66" s="129"/>
       <c r="E66" s="17" t="s">
         <v>42</v>
       </c>
@@ -16167,10 +16216,10 @@
         <v>-14.919742804962098</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B67" s="119"/>
-      <c r="C67" s="119"/>
-      <c r="D67" s="119"/>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B67" s="129"/>
+      <c r="C67" s="129"/>
+      <c r="D67" s="129"/>
       <c r="E67" s="17" t="s">
         <v>43</v>
       </c>
@@ -16208,10 +16257,10 @@
         <v>2.9061118389954674</v>
       </c>
     </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B68" s="119"/>
-      <c r="C68" s="119"/>
-      <c r="D68" s="119"/>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B68" s="129"/>
+      <c r="C68" s="129"/>
+      <c r="D68" s="129"/>
       <c r="E68" s="17" t="s">
         <v>44</v>
       </c>
@@ -16249,10 +16298,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B69" s="125"/>
-      <c r="C69" s="125"/>
-      <c r="D69" s="125"/>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B69" s="135"/>
+      <c r="C69" s="135"/>
+      <c r="D69" s="135"/>
       <c r="E69" s="31" t="s">
         <v>20</v>
       </c>
@@ -16290,14 +16339,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B70" s="138" t="s">
+    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B70" s="148" t="s">
         <v>108</v>
       </c>
-      <c r="C70" s="138" t="s">
-        <v>23</v>
-      </c>
-      <c r="D70" s="138" t="s">
+      <c r="C70" s="148" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70" s="148" t="s">
         <v>83</v>
       </c>
       <c r="E70" s="27" t="s">
@@ -16337,10 +16386,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B71" s="119"/>
-      <c r="C71" s="119"/>
-      <c r="D71" s="119"/>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B71" s="129"/>
+      <c r="C71" s="129"/>
+      <c r="D71" s="129"/>
       <c r="E71" s="17" t="s">
         <v>41</v>
       </c>
@@ -16378,10 +16427,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B72" s="119"/>
-      <c r="C72" s="119"/>
-      <c r="D72" s="119"/>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B72" s="129"/>
+      <c r="C72" s="129"/>
+      <c r="D72" s="129"/>
       <c r="E72" s="17" t="s">
         <v>42</v>
       </c>
@@ -16419,10 +16468,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B73" s="119"/>
-      <c r="C73" s="119"/>
-      <c r="D73" s="119"/>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B73" s="129"/>
+      <c r="C73" s="129"/>
+      <c r="D73" s="129"/>
       <c r="E73" s="17" t="s">
         <v>43</v>
       </c>
@@ -16460,10 +16509,10 @@
         <v>3.8728398777715456</v>
       </c>
     </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B74" s="119"/>
-      <c r="C74" s="119"/>
-      <c r="D74" s="119"/>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B74" s="129"/>
+      <c r="C74" s="129"/>
+      <c r="D74" s="129"/>
       <c r="E74" s="17" t="s">
         <v>44</v>
       </c>
@@ -16501,10 +16550,10 @@
         <v>5.2463183673380316</v>
       </c>
     </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B75" s="125"/>
-      <c r="C75" s="125"/>
-      <c r="D75" s="125"/>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B75" s="135"/>
+      <c r="C75" s="135"/>
+      <c r="D75" s="135"/>
       <c r="E75" s="31" t="s">
         <v>20</v>
       </c>
@@ -16542,51 +16591,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B77" s="159" t="s">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B77" s="169" t="s">
         <v>101</v>
       </c>
-      <c r="C77" s="159"/>
-      <c r="D77" s="159"/>
-      <c r="E77" s="159"/>
-      <c r="F77" s="159"/>
-      <c r="G77" s="159"/>
-      <c r="H77" s="159"/>
-      <c r="I77" s="159"/>
-      <c r="J77" s="159"/>
-      <c r="K77" s="159"/>
-      <c r="L77" s="159"/>
-      <c r="M77" s="159"/>
-      <c r="N77" s="159"/>
-      <c r="O77" s="159"/>
-      <c r="P77" s="159"/>
-    </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B78" s="159" t="s">
+      <c r="C77" s="169"/>
+      <c r="D77" s="169"/>
+      <c r="E77" s="169"/>
+      <c r="F77" s="169"/>
+      <c r="G77" s="169"/>
+      <c r="H77" s="169"/>
+      <c r="I77" s="169"/>
+      <c r="J77" s="169"/>
+      <c r="K77" s="169"/>
+      <c r="L77" s="169"/>
+      <c r="M77" s="169"/>
+      <c r="N77" s="169"/>
+      <c r="O77" s="169"/>
+      <c r="P77" s="169"/>
+    </row>
+    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B78" s="169" t="s">
         <v>107</v>
       </c>
-      <c r="C78" s="159"/>
-      <c r="D78" s="159"/>
-      <c r="E78" s="159"/>
-      <c r="F78" s="159"/>
-      <c r="G78" s="159"/>
-      <c r="H78" s="159"/>
-      <c r="I78" s="159"/>
-      <c r="J78" s="159"/>
-      <c r="K78" s="159"/>
-      <c r="L78" s="159"/>
-      <c r="M78" s="159"/>
-      <c r="N78" s="159"/>
-      <c r="O78" s="159"/>
-      <c r="P78" s="159"/>
-    </row>
-    <row r="79" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="2:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C78" s="169"/>
+      <c r="D78" s="169"/>
+      <c r="E78" s="169"/>
+      <c r="F78" s="169"/>
+      <c r="G78" s="169"/>
+      <c r="H78" s="169"/>
+      <c r="I78" s="169"/>
+      <c r="J78" s="169"/>
+      <c r="K78" s="169"/>
+      <c r="L78" s="169"/>
+      <c r="M78" s="169"/>
+      <c r="N78" s="169"/>
+      <c r="O78" s="169"/>
+      <c r="P78" s="169"/>
+    </row>
+    <row r="79" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="2:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="B80" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B81" s="29" t="s">
         <v>25</v>
       </c>
@@ -16633,7 +16682,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B82" s="29" t="s">
         <v>85</v>
       </c>
@@ -16680,41 +16729,41 @@
         <v>3.8364328045622988</v>
       </c>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B84" s="160" t="s">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B84" s="170" t="s">
         <v>102</v>
       </c>
-      <c r="C84" s="160"/>
-      <c r="D84" s="160"/>
-      <c r="E84" s="160"/>
-      <c r="F84" s="160"/>
-      <c r="G84" s="160"/>
-      <c r="H84" s="160"/>
-      <c r="I84" s="160"/>
-      <c r="J84" s="160"/>
-      <c r="K84" s="160"/>
-      <c r="L84" s="160"/>
-      <c r="M84" s="160"/>
-      <c r="N84" s="160"/>
-      <c r="O84" s="160"/>
-      <c r="P84" s="160"/>
-    </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B85" s="160"/>
-      <c r="C85" s="160"/>
-      <c r="D85" s="160"/>
-      <c r="E85" s="160"/>
-      <c r="F85" s="160"/>
-      <c r="G85" s="160"/>
-      <c r="H85" s="160"/>
-      <c r="I85" s="160"/>
-      <c r="J85" s="160"/>
-      <c r="K85" s="160"/>
-      <c r="L85" s="160"/>
-      <c r="M85" s="160"/>
-      <c r="N85" s="160"/>
-      <c r="O85" s="160"/>
-      <c r="P85" s="160"/>
+      <c r="C84" s="170"/>
+      <c r="D84" s="170"/>
+      <c r="E84" s="170"/>
+      <c r="F84" s="170"/>
+      <c r="G84" s="170"/>
+      <c r="H84" s="170"/>
+      <c r="I84" s="170"/>
+      <c r="J84" s="170"/>
+      <c r="K84" s="170"/>
+      <c r="L84" s="170"/>
+      <c r="M84" s="170"/>
+      <c r="N84" s="170"/>
+      <c r="O84" s="170"/>
+      <c r="P84" s="170"/>
+    </row>
+    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B85" s="170"/>
+      <c r="C85" s="170"/>
+      <c r="D85" s="170"/>
+      <c r="E85" s="170"/>
+      <c r="F85" s="170"/>
+      <c r="G85" s="170"/>
+      <c r="H85" s="170"/>
+      <c r="I85" s="170"/>
+      <c r="J85" s="170"/>
+      <c r="K85" s="170"/>
+      <c r="L85" s="170"/>
+      <c r="M85" s="170"/>
+      <c r="N85" s="170"/>
+      <c r="O85" s="170"/>
+      <c r="P85" s="170"/>
     </row>
   </sheetData>
   <mergeCells count="32">

--- a/数据_区域双碳目标与路径规划研究（含拆分数据表）.xlsx
+++ b/数据_区域双碳目标与路径规划研究（含拆分数据表）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPGA_MATLAB_Learning\数学建模\结课报告\D题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CD1026-6045-4085-B10D-A53A8ACAB46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C74AF73-9A3F-4797-B0DF-C2F800EAB0A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3590" yWindow="3540" windowWidth="21630" windowHeight="11200" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="经济与能源" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="112">
   <si>
     <t>人口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -724,14 +724,19 @@
     <t>工业消费部门</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>tCO2/tce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="177" formatCode="0.000"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -1420,7 +1425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1751,6 +1756,7 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2296,7 +2302,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="129" t="s">
+      <c r="A3" s="130" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="14" t="s">
@@ -2346,7 +2352,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="130"/>
+      <c r="A4" s="131"/>
       <c r="B4" s="16" t="s">
         <v>34</v>
       </c>
@@ -2394,8 +2400,8 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="130"/>
-      <c r="B5" s="117" t="s">
+      <c r="A5" s="131"/>
+      <c r="B5" s="118" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="17" t="s">
@@ -2442,8 +2448,8 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="130"/>
-      <c r="B6" s="117"/>
+      <c r="A6" s="131"/>
+      <c r="B6" s="118"/>
       <c r="C6" s="17" t="s">
         <v>28</v>
       </c>
@@ -2488,8 +2494,8 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="130"/>
-      <c r="B7" s="117"/>
+      <c r="A7" s="131"/>
+      <c r="B7" s="118"/>
       <c r="C7" s="17" t="s">
         <v>30</v>
       </c>
@@ -2534,8 +2540,8 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="130"/>
-      <c r="B8" s="117" t="s">
+      <c r="A8" s="131"/>
+      <c r="B8" s="118" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="18" t="s">
@@ -2582,8 +2588,8 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="130"/>
-      <c r="B9" s="117"/>
+      <c r="A9" s="131"/>
+      <c r="B9" s="118"/>
       <c r="C9" s="18" t="s">
         <v>32</v>
       </c>
@@ -2628,8 +2634,8 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="131"/>
-      <c r="B10" s="126"/>
+      <c r="A10" s="132"/>
+      <c r="B10" s="127"/>
       <c r="C10" s="18" t="s">
         <v>33</v>
       </c>
@@ -2674,7 +2680,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="127" t="s">
+      <c r="A11" s="128" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="20" t="s">
@@ -2724,7 +2730,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="128"/>
+      <c r="A12" s="129"/>
       <c r="B12" s="23" t="s">
         <v>34</v>
       </c>
@@ -2772,14 +2778,14 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="128"/>
-      <c r="B13" s="116" t="s">
+      <c r="A13" s="129"/>
+      <c r="B13" s="117" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="113" t="s">
+      <c r="D13" s="114" t="s">
         <v>66</v>
       </c>
       <c r="E13" s="26" t="s">
@@ -2820,12 +2826,12 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="128"/>
-      <c r="B14" s="117"/>
-      <c r="C14" s="119" t="s">
+      <c r="A14" s="129"/>
+      <c r="B14" s="118"/>
+      <c r="C14" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="114"/>
+      <c r="D14" s="115"/>
       <c r="E14" s="16" t="s">
         <v>14</v>
       </c>
@@ -2864,10 +2870,10 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="128"/>
-      <c r="B15" s="117"/>
-      <c r="C15" s="119"/>
-      <c r="D15" s="114"/>
+      <c r="A15" s="129"/>
+      <c r="B15" s="118"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="115"/>
       <c r="E15" s="16" t="s">
         <v>15</v>
       </c>
@@ -2906,10 +2912,10 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="128"/>
-      <c r="B16" s="117"/>
-      <c r="C16" s="119"/>
-      <c r="D16" s="114"/>
+      <c r="A16" s="129"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="115"/>
       <c r="E16" s="16" t="s">
         <v>63</v>
       </c>
@@ -2948,10 +2954,10 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="128"/>
-      <c r="B17" s="117"/>
-      <c r="C17" s="119"/>
-      <c r="D17" s="114"/>
+      <c r="A17" s="129"/>
+      <c r="B17" s="118"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="115"/>
       <c r="E17" s="16" t="s">
         <v>17</v>
       </c>
@@ -2990,12 +2996,12 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="128"/>
-      <c r="B18" s="118"/>
+      <c r="A18" s="129"/>
+      <c r="B18" s="119"/>
       <c r="C18" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="115"/>
+      <c r="D18" s="116"/>
       <c r="E18" s="16" t="s">
         <v>23</v>
       </c>
@@ -3034,14 +3040,14 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="128"/>
-      <c r="B19" s="116" t="s">
+      <c r="A19" s="129"/>
+      <c r="B19" s="117" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="113" t="s">
+      <c r="D19" s="114" t="s">
         <v>66</v>
       </c>
       <c r="E19" s="26" t="s">
@@ -3082,12 +3088,12 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="128"/>
-      <c r="B20" s="117"/>
+      <c r="A20" s="129"/>
+      <c r="B20" s="118"/>
       <c r="C20" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="114"/>
+      <c r="D20" s="115"/>
       <c r="E20" s="16" t="s">
         <v>23</v>
       </c>
@@ -3126,12 +3132,12 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="128"/>
-      <c r="B21" s="118"/>
+      <c r="A21" s="129"/>
+      <c r="B21" s="119"/>
       <c r="C21" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="115"/>
+      <c r="D21" s="116"/>
       <c r="E21" s="28" t="s">
         <v>23</v>
       </c>
@@ -3170,7 +3176,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="128"/>
+      <c r="A22" s="129"/>
       <c r="B22" s="23" t="s">
         <v>37</v>
       </c>
@@ -3218,16 +3224,16 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="132" t="s">
+      <c r="A23" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="137" t="s">
+      <c r="B23" s="138" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="139" t="s">
+      <c r="C23" s="140" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="136" t="s">
+      <c r="D23" s="137" t="s">
         <v>66</v>
       </c>
       <c r="E23" s="14" t="s">
@@ -3268,10 +3274,10 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="133"/>
-      <c r="B24" s="123"/>
-      <c r="C24" s="119"/>
-      <c r="D24" s="114"/>
+      <c r="A24" s="134"/>
+      <c r="B24" s="124"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="115"/>
       <c r="E24" s="16" t="s">
         <v>5</v>
       </c>
@@ -3310,10 +3316,10 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="133"/>
-      <c r="B25" s="123"/>
-      <c r="C25" s="119"/>
-      <c r="D25" s="114"/>
+      <c r="A25" s="134"/>
+      <c r="B25" s="124"/>
+      <c r="C25" s="120"/>
+      <c r="D25" s="115"/>
       <c r="E25" s="16" t="s">
         <v>6</v>
       </c>
@@ -3352,10 +3358,10 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="133"/>
-      <c r="B26" s="123"/>
-      <c r="C26" s="119"/>
-      <c r="D26" s="114"/>
+      <c r="A26" s="134"/>
+      <c r="B26" s="124"/>
+      <c r="C26" s="120"/>
+      <c r="D26" s="115"/>
       <c r="E26" s="17" t="s">
         <v>7</v>
       </c>
@@ -3394,10 +3400,10 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="133"/>
-      <c r="B27" s="123"/>
-      <c r="C27" s="119"/>
-      <c r="D27" s="114"/>
+      <c r="A27" s="134"/>
+      <c r="B27" s="124"/>
+      <c r="C27" s="120"/>
+      <c r="D27" s="115"/>
       <c r="E27" s="17" t="s">
         <v>8</v>
       </c>
@@ -3436,10 +3442,10 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="133"/>
-      <c r="B28" s="124"/>
-      <c r="C28" s="125"/>
-      <c r="D28" s="115"/>
+      <c r="A28" s="134"/>
+      <c r="B28" s="125"/>
+      <c r="C28" s="126"/>
+      <c r="D28" s="116"/>
       <c r="E28" s="28" t="s">
         <v>20</v>
       </c>
@@ -3478,14 +3484,14 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="133"/>
-      <c r="B29" s="116" t="s">
+      <c r="A29" s="134"/>
+      <c r="B29" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="138" t="s">
+      <c r="C29" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="113" t="s">
+      <c r="D29" s="114" t="s">
         <v>66</v>
       </c>
       <c r="E29" s="26" t="s">
@@ -3526,10 +3532,10 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="133"/>
-      <c r="B30" s="117"/>
-      <c r="C30" s="119"/>
-      <c r="D30" s="114"/>
+      <c r="A30" s="134"/>
+      <c r="B30" s="118"/>
+      <c r="C30" s="120"/>
+      <c r="D30" s="115"/>
       <c r="E30" s="16" t="s">
         <v>5</v>
       </c>
@@ -3568,10 +3574,10 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="133"/>
-      <c r="B31" s="117"/>
-      <c r="C31" s="119"/>
-      <c r="D31" s="114"/>
+      <c r="A31" s="134"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="120"/>
+      <c r="D31" s="115"/>
       <c r="E31" s="16" t="s">
         <v>6</v>
       </c>
@@ -3610,10 +3616,10 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="133"/>
-      <c r="B32" s="117"/>
-      <c r="C32" s="119"/>
-      <c r="D32" s="114"/>
+      <c r="A32" s="134"/>
+      <c r="B32" s="118"/>
+      <c r="C32" s="120"/>
+      <c r="D32" s="115"/>
       <c r="E32" s="17" t="s">
         <v>7</v>
       </c>
@@ -3652,10 +3658,10 @@
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="133"/>
-      <c r="B33" s="117"/>
-      <c r="C33" s="119"/>
-      <c r="D33" s="114"/>
+      <c r="A33" s="134"/>
+      <c r="B33" s="118"/>
+      <c r="C33" s="120"/>
+      <c r="D33" s="115"/>
       <c r="E33" s="17" t="s">
         <v>8</v>
       </c>
@@ -3694,10 +3700,10 @@
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="133"/>
-      <c r="B34" s="117"/>
-      <c r="C34" s="125"/>
-      <c r="D34" s="115"/>
+      <c r="A34" s="134"/>
+      <c r="B34" s="118"/>
+      <c r="C34" s="126"/>
+      <c r="D34" s="116"/>
       <c r="E34" s="28" t="s">
         <v>20</v>
       </c>
@@ -3736,12 +3742,12 @@
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="133"/>
-      <c r="B35" s="117"/>
-      <c r="C35" s="138" t="s">
+      <c r="A35" s="134"/>
+      <c r="B35" s="118"/>
+      <c r="C35" s="139" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="116" t="s">
+      <c r="D35" s="117" t="s">
         <v>66</v>
       </c>
       <c r="E35" s="26" t="s">
@@ -3782,10 +3788,10 @@
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="133"/>
-      <c r="B36" s="117"/>
-      <c r="C36" s="119"/>
-      <c r="D36" s="117"/>
+      <c r="A36" s="134"/>
+      <c r="B36" s="118"/>
+      <c r="C36" s="120"/>
+      <c r="D36" s="118"/>
       <c r="E36" s="16" t="s">
         <v>5</v>
       </c>
@@ -3824,10 +3830,10 @@
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="133"/>
-      <c r="B37" s="117"/>
-      <c r="C37" s="119"/>
-      <c r="D37" s="117"/>
+      <c r="A37" s="134"/>
+      <c r="B37" s="118"/>
+      <c r="C37" s="120"/>
+      <c r="D37" s="118"/>
       <c r="E37" s="16" t="s">
         <v>6</v>
       </c>
@@ -3866,10 +3872,10 @@
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="133"/>
-      <c r="B38" s="117"/>
-      <c r="C38" s="119"/>
-      <c r="D38" s="117"/>
+      <c r="A38" s="134"/>
+      <c r="B38" s="118"/>
+      <c r="C38" s="120"/>
+      <c r="D38" s="118"/>
       <c r="E38" s="17" t="s">
         <v>7</v>
       </c>
@@ -3908,10 +3914,10 @@
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="133"/>
-      <c r="B39" s="117"/>
-      <c r="C39" s="119"/>
-      <c r="D39" s="117"/>
+      <c r="A39" s="134"/>
+      <c r="B39" s="118"/>
+      <c r="C39" s="120"/>
+      <c r="D39" s="118"/>
       <c r="E39" s="17" t="s">
         <v>8</v>
       </c>
@@ -3950,10 +3956,10 @@
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="133"/>
-      <c r="B40" s="117"/>
-      <c r="C40" s="125"/>
-      <c r="D40" s="118"/>
+      <c r="A40" s="134"/>
+      <c r="B40" s="118"/>
+      <c r="C40" s="126"/>
+      <c r="D40" s="119"/>
       <c r="E40" s="28" t="s">
         <v>20</v>
       </c>
@@ -3992,12 +3998,12 @@
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="133"/>
-      <c r="B41" s="117"/>
-      <c r="C41" s="141" t="s">
+      <c r="A41" s="134"/>
+      <c r="B41" s="118"/>
+      <c r="C41" s="142" t="s">
         <v>110</v>
       </c>
-      <c r="D41" s="116" t="s">
+      <c r="D41" s="117" t="s">
         <v>109</v>
       </c>
       <c r="E41" s="26" t="s">
@@ -4038,10 +4044,10 @@
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="133"/>
-      <c r="B42" s="117"/>
-      <c r="C42" s="142"/>
-      <c r="D42" s="117"/>
+      <c r="A42" s="134"/>
+      <c r="B42" s="118"/>
+      <c r="C42" s="143"/>
+      <c r="D42" s="118"/>
       <c r="E42" s="16" t="s">
         <v>5</v>
       </c>
@@ -4080,10 +4086,10 @@
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="133"/>
-      <c r="B43" s="117"/>
-      <c r="C43" s="142"/>
-      <c r="D43" s="117"/>
+      <c r="A43" s="134"/>
+      <c r="B43" s="118"/>
+      <c r="C43" s="143"/>
+      <c r="D43" s="118"/>
       <c r="E43" s="16" t="s">
         <v>6</v>
       </c>
@@ -4122,10 +4128,10 @@
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="133"/>
-      <c r="B44" s="117"/>
-      <c r="C44" s="142"/>
-      <c r="D44" s="117"/>
+      <c r="A44" s="134"/>
+      <c r="B44" s="118"/>
+      <c r="C44" s="143"/>
+      <c r="D44" s="118"/>
       <c r="E44" s="17" t="s">
         <v>7</v>
       </c>
@@ -4164,10 +4170,10 @@
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="133"/>
-      <c r="B45" s="117"/>
-      <c r="C45" s="142"/>
-      <c r="D45" s="117"/>
+      <c r="A45" s="134"/>
+      <c r="B45" s="118"/>
+      <c r="C45" s="143"/>
+      <c r="D45" s="118"/>
       <c r="E45" s="17" t="s">
         <v>8</v>
       </c>
@@ -4206,10 +4212,10 @@
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="133"/>
-      <c r="B46" s="118"/>
-      <c r="C46" s="143"/>
-      <c r="D46" s="118"/>
+      <c r="A46" s="134"/>
+      <c r="B46" s="119"/>
+      <c r="C46" s="144"/>
+      <c r="D46" s="119"/>
       <c r="E46" s="28" t="s">
         <v>20</v>
       </c>
@@ -4248,14 +4254,14 @@
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="133"/>
-      <c r="B47" s="116" t="s">
+      <c r="A47" s="134"/>
+      <c r="B47" s="117" t="s">
         <v>36</v>
       </c>
-      <c r="C47" s="138" t="s">
+      <c r="C47" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="D47" s="113" t="s">
+      <c r="D47" s="114" t="s">
         <v>66</v>
       </c>
       <c r="E47" s="26" t="s">
@@ -4296,10 +4302,10 @@
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="133"/>
-      <c r="B48" s="117"/>
-      <c r="C48" s="119"/>
-      <c r="D48" s="114"/>
+      <c r="A48" s="134"/>
+      <c r="B48" s="118"/>
+      <c r="C48" s="120"/>
+      <c r="D48" s="115"/>
       <c r="E48" s="16" t="s">
         <v>5</v>
       </c>
@@ -4338,10 +4344,10 @@
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="133"/>
-      <c r="B49" s="117"/>
-      <c r="C49" s="119"/>
-      <c r="D49" s="114"/>
+      <c r="A49" s="134"/>
+      <c r="B49" s="118"/>
+      <c r="C49" s="120"/>
+      <c r="D49" s="115"/>
       <c r="E49" s="16" t="s">
         <v>6</v>
       </c>
@@ -4380,10 +4386,10 @@
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="133"/>
-      <c r="B50" s="117"/>
-      <c r="C50" s="119"/>
-      <c r="D50" s="114"/>
+      <c r="A50" s="134"/>
+      <c r="B50" s="118"/>
+      <c r="C50" s="120"/>
+      <c r="D50" s="115"/>
       <c r="E50" s="17" t="s">
         <v>7</v>
       </c>
@@ -4422,10 +4428,10 @@
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="133"/>
-      <c r="B51" s="117"/>
-      <c r="C51" s="119"/>
-      <c r="D51" s="114"/>
+      <c r="A51" s="134"/>
+      <c r="B51" s="118"/>
+      <c r="C51" s="120"/>
+      <c r="D51" s="115"/>
       <c r="E51" s="17" t="s">
         <v>8</v>
       </c>
@@ -4464,10 +4470,10 @@
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="133"/>
-      <c r="B52" s="117"/>
-      <c r="C52" s="125"/>
-      <c r="D52" s="115"/>
+      <c r="A52" s="134"/>
+      <c r="B52" s="118"/>
+      <c r="C52" s="126"/>
+      <c r="D52" s="116"/>
       <c r="E52" s="28" t="s">
         <v>20</v>
       </c>
@@ -4506,12 +4512,12 @@
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="133"/>
-      <c r="B53" s="117"/>
-      <c r="C53" s="138" t="s">
+      <c r="A53" s="134"/>
+      <c r="B53" s="118"/>
+      <c r="C53" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="D53" s="113" t="s">
+      <c r="D53" s="114" t="s">
         <v>66</v>
       </c>
       <c r="E53" s="26" t="s">
@@ -4552,10 +4558,10 @@
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="133"/>
-      <c r="B54" s="117"/>
-      <c r="C54" s="119"/>
-      <c r="D54" s="114"/>
+      <c r="A54" s="134"/>
+      <c r="B54" s="118"/>
+      <c r="C54" s="120"/>
+      <c r="D54" s="115"/>
       <c r="E54" s="16" t="s">
         <v>5</v>
       </c>
@@ -4594,10 +4600,10 @@
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="133"/>
-      <c r="B55" s="117"/>
-      <c r="C55" s="119"/>
-      <c r="D55" s="114"/>
+      <c r="A55" s="134"/>
+      <c r="B55" s="118"/>
+      <c r="C55" s="120"/>
+      <c r="D55" s="115"/>
       <c r="E55" s="16" t="s">
         <v>6</v>
       </c>
@@ -4636,10 +4642,10 @@
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="133"/>
-      <c r="B56" s="117"/>
-      <c r="C56" s="119"/>
-      <c r="D56" s="114"/>
+      <c r="A56" s="134"/>
+      <c r="B56" s="118"/>
+      <c r="C56" s="120"/>
+      <c r="D56" s="115"/>
       <c r="E56" s="17" t="s">
         <v>7</v>
       </c>
@@ -4678,10 +4684,10 @@
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="133"/>
-      <c r="B57" s="117"/>
-      <c r="C57" s="119"/>
-      <c r="D57" s="114"/>
+      <c r="A57" s="134"/>
+      <c r="B57" s="118"/>
+      <c r="C57" s="120"/>
+      <c r="D57" s="115"/>
       <c r="E57" s="17" t="s">
         <v>8</v>
       </c>
@@ -4720,10 +4726,10 @@
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="133"/>
-      <c r="B58" s="117"/>
-      <c r="C58" s="125"/>
-      <c r="D58" s="115"/>
+      <c r="A58" s="134"/>
+      <c r="B58" s="118"/>
+      <c r="C58" s="126"/>
+      <c r="D58" s="116"/>
       <c r="E58" s="28" t="s">
         <v>20</v>
       </c>
@@ -4762,12 +4768,12 @@
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="133"/>
-      <c r="B59" s="117"/>
-      <c r="C59" s="119" t="s">
+      <c r="A59" s="134"/>
+      <c r="B59" s="118"/>
+      <c r="C59" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="D59" s="113" t="s">
+      <c r="D59" s="114" t="s">
         <v>66</v>
       </c>
       <c r="E59" s="26" t="s">
@@ -4808,10 +4814,10 @@
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="133"/>
-      <c r="B60" s="117"/>
-      <c r="C60" s="119"/>
-      <c r="D60" s="114"/>
+      <c r="A60" s="134"/>
+      <c r="B60" s="118"/>
+      <c r="C60" s="120"/>
+      <c r="D60" s="115"/>
       <c r="E60" s="16" t="s">
         <v>5</v>
       </c>
@@ -4850,10 +4856,10 @@
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="133"/>
-      <c r="B61" s="117"/>
-      <c r="C61" s="119"/>
-      <c r="D61" s="114"/>
+      <c r="A61" s="134"/>
+      <c r="B61" s="118"/>
+      <c r="C61" s="120"/>
+      <c r="D61" s="115"/>
       <c r="E61" s="16" t="s">
         <v>6</v>
       </c>
@@ -4892,10 +4898,10 @@
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A62" s="133"/>
-      <c r="B62" s="117"/>
-      <c r="C62" s="119"/>
-      <c r="D62" s="114"/>
+      <c r="A62" s="134"/>
+      <c r="B62" s="118"/>
+      <c r="C62" s="120"/>
+      <c r="D62" s="115"/>
       <c r="E62" s="17" t="s">
         <v>7</v>
       </c>
@@ -4934,10 +4940,10 @@
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A63" s="133"/>
-      <c r="B63" s="117"/>
-      <c r="C63" s="119"/>
-      <c r="D63" s="114"/>
+      <c r="A63" s="134"/>
+      <c r="B63" s="118"/>
+      <c r="C63" s="120"/>
+      <c r="D63" s="115"/>
       <c r="E63" s="17" t="s">
         <v>8</v>
       </c>
@@ -4976,10 +4982,10 @@
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A64" s="133"/>
-      <c r="B64" s="118"/>
-      <c r="C64" s="125"/>
-      <c r="D64" s="115"/>
+      <c r="A64" s="134"/>
+      <c r="B64" s="119"/>
+      <c r="C64" s="126"/>
+      <c r="D64" s="116"/>
       <c r="E64" s="28" t="s">
         <v>20</v>
       </c>
@@ -5018,14 +5024,14 @@
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A65" s="133"/>
-      <c r="B65" s="122" t="s">
+      <c r="A65" s="134"/>
+      <c r="B65" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="C65" s="138" t="s">
+      <c r="C65" s="139" t="s">
         <v>56</v>
       </c>
-      <c r="D65" s="113" t="s">
+      <c r="D65" s="114" t="s">
         <v>66</v>
       </c>
       <c r="E65" s="26" t="s">
@@ -5066,10 +5072,10 @@
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A66" s="133"/>
-      <c r="B66" s="123"/>
-      <c r="C66" s="119"/>
-      <c r="D66" s="114"/>
+      <c r="A66" s="134"/>
+      <c r="B66" s="124"/>
+      <c r="C66" s="120"/>
+      <c r="D66" s="115"/>
       <c r="E66" s="16" t="s">
         <v>5</v>
       </c>
@@ -5108,10 +5114,10 @@
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A67" s="133"/>
-      <c r="B67" s="123"/>
-      <c r="C67" s="119"/>
-      <c r="D67" s="114"/>
+      <c r="A67" s="134"/>
+      <c r="B67" s="124"/>
+      <c r="C67" s="120"/>
+      <c r="D67" s="115"/>
       <c r="E67" s="16" t="s">
         <v>6</v>
       </c>
@@ -5150,10 +5156,10 @@
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A68" s="133"/>
-      <c r="B68" s="123"/>
-      <c r="C68" s="119"/>
-      <c r="D68" s="114"/>
+      <c r="A68" s="134"/>
+      <c r="B68" s="124"/>
+      <c r="C68" s="120"/>
+      <c r="D68" s="115"/>
       <c r="E68" s="16" t="s">
         <v>7</v>
       </c>
@@ -5192,10 +5198,10 @@
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A69" s="133"/>
-      <c r="B69" s="123"/>
-      <c r="C69" s="119"/>
-      <c r="D69" s="114"/>
+      <c r="A69" s="134"/>
+      <c r="B69" s="124"/>
+      <c r="C69" s="120"/>
+      <c r="D69" s="115"/>
       <c r="E69" s="16" t="s">
         <v>8</v>
       </c>
@@ -5234,10 +5240,10 @@
       </c>
     </row>
     <row r="70" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="134"/>
-      <c r="B70" s="135"/>
-      <c r="C70" s="144"/>
-      <c r="D70" s="140"/>
+      <c r="A70" s="135"/>
+      <c r="B70" s="136"/>
+      <c r="C70" s="145"/>
+      <c r="D70" s="141"/>
       <c r="E70" s="19" t="s">
         <v>20</v>
       </c>
@@ -5276,16 +5282,16 @@
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A71" s="120" t="s">
+      <c r="A71" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="B71" s="122" t="s">
+      <c r="B71" s="123" t="s">
         <v>9</v>
       </c>
       <c r="C71" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D71" s="113" t="s">
+      <c r="D71" s="114" t="s">
         <v>66</v>
       </c>
       <c r="E71" s="26" t="s">
@@ -5326,12 +5332,12 @@
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A72" s="120"/>
-      <c r="B72" s="123"/>
-      <c r="C72" s="119" t="s">
+      <c r="A72" s="121"/>
+      <c r="B72" s="124"/>
+      <c r="C72" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="D72" s="114"/>
+      <c r="D72" s="115"/>
       <c r="E72" s="16" t="s">
         <v>14</v>
       </c>
@@ -5370,10 +5376,10 @@
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A73" s="120"/>
-      <c r="B73" s="123"/>
-      <c r="C73" s="119"/>
-      <c r="D73" s="114"/>
+      <c r="A73" s="121"/>
+      <c r="B73" s="124"/>
+      <c r="C73" s="120"/>
+      <c r="D73" s="115"/>
       <c r="E73" s="16" t="s">
         <v>15</v>
       </c>
@@ -5412,10 +5418,10 @@
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A74" s="120"/>
-      <c r="B74" s="123"/>
-      <c r="C74" s="119"/>
-      <c r="D74" s="114"/>
+      <c r="A74" s="121"/>
+      <c r="B74" s="124"/>
+      <c r="C74" s="120"/>
+      <c r="D74" s="115"/>
       <c r="E74" s="16" t="s">
         <v>16</v>
       </c>
@@ -5454,10 +5460,10 @@
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A75" s="120"/>
-      <c r="B75" s="123"/>
-      <c r="C75" s="119"/>
-      <c r="D75" s="114"/>
+      <c r="A75" s="121"/>
+      <c r="B75" s="124"/>
+      <c r="C75" s="120"/>
+      <c r="D75" s="115"/>
       <c r="E75" s="16" t="s">
         <v>17</v>
       </c>
@@ -5496,10 +5502,10 @@
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A76" s="120"/>
-      <c r="B76" s="124"/>
-      <c r="C76" s="125"/>
-      <c r="D76" s="115"/>
+      <c r="A76" s="121"/>
+      <c r="B76" s="125"/>
+      <c r="C76" s="126"/>
+      <c r="D76" s="116"/>
       <c r="E76" s="28" t="s">
         <v>18</v>
       </c>
@@ -5538,14 +5544,14 @@
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A77" s="120"/>
-      <c r="B77" s="122" t="s">
+      <c r="A77" s="121"/>
+      <c r="B77" s="123" t="s">
         <v>10</v>
       </c>
       <c r="C77" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D77" s="113" t="s">
+      <c r="D77" s="114" t="s">
         <v>66</v>
       </c>
       <c r="E77" s="26" t="s">
@@ -5586,12 +5592,12 @@
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A78" s="120"/>
-      <c r="B78" s="123"/>
-      <c r="C78" s="119" t="s">
+      <c r="A78" s="121"/>
+      <c r="B78" s="124"/>
+      <c r="C78" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="D78" s="114"/>
+      <c r="D78" s="115"/>
       <c r="E78" s="16" t="s">
         <v>14</v>
       </c>
@@ -5630,10 +5636,10 @@
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A79" s="120"/>
-      <c r="B79" s="123"/>
-      <c r="C79" s="119"/>
-      <c r="D79" s="114"/>
+      <c r="A79" s="121"/>
+      <c r="B79" s="124"/>
+      <c r="C79" s="120"/>
+      <c r="D79" s="115"/>
       <c r="E79" s="16" t="s">
         <v>15</v>
       </c>
@@ -5672,10 +5678,10 @@
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A80" s="120"/>
-      <c r="B80" s="123"/>
-      <c r="C80" s="119"/>
-      <c r="D80" s="114"/>
+      <c r="A80" s="121"/>
+      <c r="B80" s="124"/>
+      <c r="C80" s="120"/>
+      <c r="D80" s="115"/>
       <c r="E80" s="16" t="s">
         <v>16</v>
       </c>
@@ -5714,10 +5720,10 @@
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A81" s="120"/>
-      <c r="B81" s="123"/>
-      <c r="C81" s="119"/>
-      <c r="D81" s="114"/>
+      <c r="A81" s="121"/>
+      <c r="B81" s="124"/>
+      <c r="C81" s="120"/>
+      <c r="D81" s="115"/>
       <c r="E81" s="16" t="s">
         <v>17</v>
       </c>
@@ -5756,10 +5762,10 @@
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A82" s="120"/>
-      <c r="B82" s="124"/>
-      <c r="C82" s="125"/>
-      <c r="D82" s="115"/>
+      <c r="A82" s="121"/>
+      <c r="B82" s="125"/>
+      <c r="C82" s="126"/>
+      <c r="D82" s="116"/>
       <c r="E82" s="28" t="s">
         <v>18</v>
       </c>
@@ -5804,14 +5810,14 @@
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A83" s="120"/>
-      <c r="B83" s="122" t="s">
+      <c r="A83" s="121"/>
+      <c r="B83" s="123" t="s">
         <v>11</v>
       </c>
       <c r="C83" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D83" s="113" t="s">
+      <c r="D83" s="114" t="s">
         <v>66</v>
       </c>
       <c r="E83" s="26" t="s">
@@ -5852,12 +5858,12 @@
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A84" s="120"/>
-      <c r="B84" s="123"/>
-      <c r="C84" s="119" t="s">
+      <c r="A84" s="121"/>
+      <c r="B84" s="124"/>
+      <c r="C84" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="D84" s="114"/>
+      <c r="D84" s="115"/>
       <c r="E84" s="16" t="s">
         <v>14</v>
       </c>
@@ -5896,10 +5902,10 @@
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A85" s="120"/>
-      <c r="B85" s="123"/>
-      <c r="C85" s="119"/>
-      <c r="D85" s="114"/>
+      <c r="A85" s="121"/>
+      <c r="B85" s="124"/>
+      <c r="C85" s="120"/>
+      <c r="D85" s="115"/>
       <c r="E85" s="16" t="s">
         <v>15</v>
       </c>
@@ -5938,10 +5944,10 @@
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A86" s="120"/>
-      <c r="B86" s="123"/>
-      <c r="C86" s="119"/>
-      <c r="D86" s="114"/>
+      <c r="A86" s="121"/>
+      <c r="B86" s="124"/>
+      <c r="C86" s="120"/>
+      <c r="D86" s="115"/>
       <c r="E86" s="16" t="s">
         <v>16</v>
       </c>
@@ -5980,10 +5986,10 @@
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A87" s="120"/>
-      <c r="B87" s="123"/>
-      <c r="C87" s="119"/>
-      <c r="D87" s="114"/>
+      <c r="A87" s="121"/>
+      <c r="B87" s="124"/>
+      <c r="C87" s="120"/>
+      <c r="D87" s="115"/>
       <c r="E87" s="16" t="s">
         <v>17</v>
       </c>
@@ -6022,10 +6028,10 @@
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A88" s="120"/>
-      <c r="B88" s="124"/>
-      <c r="C88" s="125"/>
-      <c r="D88" s="115"/>
+      <c r="A88" s="121"/>
+      <c r="B88" s="125"/>
+      <c r="C88" s="126"/>
+      <c r="D88" s="116"/>
       <c r="E88" s="28" t="s">
         <v>18</v>
       </c>
@@ -6070,7 +6076,7 @@
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A89" s="120"/>
+      <c r="A89" s="121"/>
       <c r="B89" s="35" t="s">
         <v>57</v>
       </c>
@@ -6118,7 +6124,7 @@
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A90" s="120"/>
+      <c r="A90" s="121"/>
       <c r="B90" s="35" t="s">
         <v>58</v>
       </c>
@@ -6166,7 +6172,7 @@
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A91" s="120"/>
+      <c r="A91" s="121"/>
       <c r="B91" s="33" t="s">
         <v>65</v>
       </c>
@@ -6214,7 +6220,7 @@
       </c>
     </row>
     <row r="92" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="121"/>
+      <c r="A92" s="122"/>
       <c r="B92" s="36" t="s">
         <v>59</v>
       </c>
@@ -6277,90 +6283,90 @@
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A97" s="112" t="s">
+      <c r="A97" s="113" t="s">
         <v>51</v>
       </c>
-      <c r="B97" s="112"/>
-      <c r="C97" s="112"/>
-      <c r="D97" s="112"/>
-      <c r="E97" s="112"/>
-      <c r="F97" s="112"/>
-      <c r="G97" s="112"/>
-      <c r="H97" s="112"/>
-      <c r="I97" s="112"/>
-      <c r="J97" s="112"/>
-      <c r="K97" s="112"/>
-      <c r="L97" s="112"/>
-      <c r="M97" s="112"/>
-      <c r="N97" s="112"/>
-      <c r="O97" s="112"/>
-      <c r="P97" s="112"/>
-      <c r="Q97" s="112"/>
-      <c r="R97" s="112"/>
-      <c r="S97" s="112"/>
+      <c r="B97" s="113"/>
+      <c r="C97" s="113"/>
+      <c r="D97" s="113"/>
+      <c r="E97" s="113"/>
+      <c r="F97" s="113"/>
+      <c r="G97" s="113"/>
+      <c r="H97" s="113"/>
+      <c r="I97" s="113"/>
+      <c r="J97" s="113"/>
+      <c r="K97" s="113"/>
+      <c r="L97" s="113"/>
+      <c r="M97" s="113"/>
+      <c r="N97" s="113"/>
+      <c r="O97" s="113"/>
+      <c r="P97" s="113"/>
+      <c r="Q97" s="113"/>
+      <c r="R97" s="113"/>
+      <c r="S97" s="113"/>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A98" s="112"/>
-      <c r="B98" s="112"/>
-      <c r="C98" s="112"/>
-      <c r="D98" s="112"/>
-      <c r="E98" s="112"/>
-      <c r="F98" s="112"/>
-      <c r="G98" s="112"/>
-      <c r="H98" s="112"/>
-      <c r="I98" s="112"/>
-      <c r="J98" s="112"/>
-      <c r="K98" s="112"/>
-      <c r="L98" s="112"/>
-      <c r="M98" s="112"/>
-      <c r="N98" s="112"/>
-      <c r="O98" s="112"/>
-      <c r="P98" s="112"/>
-      <c r="Q98" s="112"/>
-      <c r="R98" s="112"/>
-      <c r="S98" s="112"/>
+      <c r="A98" s="113"/>
+      <c r="B98" s="113"/>
+      <c r="C98" s="113"/>
+      <c r="D98" s="113"/>
+      <c r="E98" s="113"/>
+      <c r="F98" s="113"/>
+      <c r="G98" s="113"/>
+      <c r="H98" s="113"/>
+      <c r="I98" s="113"/>
+      <c r="J98" s="113"/>
+      <c r="K98" s="113"/>
+      <c r="L98" s="113"/>
+      <c r="M98" s="113"/>
+      <c r="N98" s="113"/>
+      <c r="O98" s="113"/>
+      <c r="P98" s="113"/>
+      <c r="Q98" s="113"/>
+      <c r="R98" s="113"/>
+      <c r="S98" s="113"/>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A99" s="112" t="s">
+      <c r="A99" s="113" t="s">
         <v>52</v>
       </c>
-      <c r="B99" s="112"/>
-      <c r="C99" s="112"/>
-      <c r="D99" s="112"/>
-      <c r="E99" s="112"/>
-      <c r="F99" s="112"/>
-      <c r="G99" s="112"/>
-      <c r="H99" s="112"/>
-      <c r="I99" s="112"/>
-      <c r="J99" s="112"/>
-      <c r="K99" s="112"/>
-      <c r="L99" s="112"/>
-      <c r="M99" s="112"/>
-      <c r="N99" s="112"/>
-      <c r="O99" s="112"/>
-      <c r="P99" s="112"/>
-      <c r="Q99" s="112"/>
-      <c r="R99" s="112"/>
+      <c r="B99" s="113"/>
+      <c r="C99" s="113"/>
+      <c r="D99" s="113"/>
+      <c r="E99" s="113"/>
+      <c r="F99" s="113"/>
+      <c r="G99" s="113"/>
+      <c r="H99" s="113"/>
+      <c r="I99" s="113"/>
+      <c r="J99" s="113"/>
+      <c r="K99" s="113"/>
+      <c r="L99" s="113"/>
+      <c r="M99" s="113"/>
+      <c r="N99" s="113"/>
+      <c r="O99" s="113"/>
+      <c r="P99" s="113"/>
+      <c r="Q99" s="113"/>
+      <c r="R99" s="113"/>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A100" s="112"/>
-      <c r="B100" s="112"/>
-      <c r="C100" s="112"/>
-      <c r="D100" s="112"/>
-      <c r="E100" s="112"/>
-      <c r="F100" s="112"/>
-      <c r="G100" s="112"/>
-      <c r="H100" s="112"/>
-      <c r="I100" s="112"/>
-      <c r="J100" s="112"/>
-      <c r="K100" s="112"/>
-      <c r="L100" s="112"/>
-      <c r="M100" s="112"/>
-      <c r="N100" s="112"/>
-      <c r="O100" s="112"/>
-      <c r="P100" s="112"/>
-      <c r="Q100" s="112"/>
-      <c r="R100" s="112"/>
+      <c r="A100" s="113"/>
+      <c r="B100" s="113"/>
+      <c r="C100" s="113"/>
+      <c r="D100" s="113"/>
+      <c r="E100" s="113"/>
+      <c r="F100" s="113"/>
+      <c r="G100" s="113"/>
+      <c r="H100" s="113"/>
+      <c r="I100" s="113"/>
+      <c r="J100" s="113"/>
+      <c r="K100" s="113"/>
+      <c r="L100" s="113"/>
+      <c r="M100" s="113"/>
+      <c r="N100" s="113"/>
+      <c r="O100" s="113"/>
+      <c r="P100" s="113"/>
+      <c r="Q100" s="113"/>
+      <c r="R100" s="113"/>
     </row>
     <row r="157" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D157" s="2"/>
@@ -6433,10 +6439,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B09F221D-4B33-4C65-9CDA-6C45C4D602C8}">
-  <dimension ref="B2:P122"/>
+  <dimension ref="B2:AA122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19:P19"/>
+    <sheetView topLeftCell="A62" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="P84" sqref="F80:P84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6447,6 +6453,8 @@
     <col min="5" max="5" width="7.125" customWidth="1"/>
     <col min="6" max="15" width="5.5" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
+    <col min="17" max="17" width="16.375" customWidth="1"/>
+    <col min="19" max="19" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.2">
@@ -6643,7 +6651,7 @@
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="117" t="s">
         <v>68</v>
       </c>
       <c r="C7" s="27" t="s">
@@ -6690,7 +6698,7 @@
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B8" s="117"/>
+      <c r="B8" s="118"/>
       <c r="C8" s="17" t="s">
         <v>28</v>
       </c>
@@ -6735,7 +6743,7 @@
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B9" s="118"/>
+      <c r="B9" s="119"/>
       <c r="C9" s="31" t="s">
         <v>30</v>
       </c>
@@ -6780,7 +6788,7 @@
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B10" s="117" t="s">
+      <c r="B10" s="118" t="s">
         <v>69</v>
       </c>
       <c r="C10" s="18" t="s">
@@ -6827,7 +6835,7 @@
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B11" s="117"/>
+      <c r="B11" s="118"/>
       <c r="C11" s="18" t="s">
         <v>32</v>
       </c>
@@ -6872,7 +6880,7 @@
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B12" s="118"/>
+      <c r="B12" s="119"/>
       <c r="C12" s="32" t="s">
         <v>33</v>
       </c>
@@ -6926,12 +6934,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B18" s="35" t="s">
         <v>25</v>
       </c>
@@ -6978,7 +6986,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B19" s="35" t="s">
         <v>39</v>
       </c>
@@ -7025,7 +7033,7 @@
         <v>31437.997554448099</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B20" s="35" t="s">
         <v>72</v>
       </c>
@@ -7072,14 +7080,14 @@
         <v>423.7818192603138</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B21" s="122" t="s">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B21" s="123" t="s">
         <v>73</v>
       </c>
       <c r="C21" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="122" t="s">
+      <c r="D21" s="123" t="s">
         <v>66</v>
       </c>
       <c r="E21" s="26" t="s">
@@ -7119,12 +7127,12 @@
         <v>25325.993062383372</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B22" s="123"/>
-      <c r="C22" s="147" t="s">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B22" s="124"/>
+      <c r="C22" s="148" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="123"/>
+      <c r="D22" s="124"/>
       <c r="E22" s="16" t="s">
         <v>14</v>
       </c>
@@ -7162,10 +7170,10 @@
         <v>7491.0483759503895</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B23" s="123"/>
-      <c r="C23" s="147"/>
-      <c r="D23" s="123"/>
+    <row r="23" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B23" s="124"/>
+      <c r="C23" s="148"/>
+      <c r="D23" s="124"/>
       <c r="E23" s="16" t="s">
         <v>15</v>
       </c>
@@ -7203,10 +7211,10 @@
         <v>1003.9694483524332</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B24" s="123"/>
-      <c r="C24" s="147"/>
-      <c r="D24" s="123"/>
+    <row r="24" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B24" s="124"/>
+      <c r="C24" s="148"/>
+      <c r="D24" s="124"/>
       <c r="E24" s="16" t="s">
         <v>63</v>
       </c>
@@ -7244,10 +7252,10 @@
         <v>-2414.6633436989423</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B25" s="123"/>
-      <c r="C25" s="147"/>
-      <c r="D25" s="123"/>
+    <row r="25" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B25" s="124"/>
+      <c r="C25" s="148"/>
+      <c r="D25" s="124"/>
       <c r="E25" s="16" t="s">
         <v>17</v>
       </c>
@@ -7284,13 +7292,57 @@
       <c r="P25" s="77">
         <v>372.89528216417955</v>
       </c>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B26" s="124"/>
+      <c r="Q25" s="112">
+        <f>F25+F24+F23+F22</f>
+        <v>5800.3929802067332</v>
+      </c>
+      <c r="R25" s="112">
+        <f>G25+G24+G23+G22</f>
+        <v>7973.6113641139509</v>
+      </c>
+      <c r="S25" s="112">
+        <f>H25+H24+H23+H22</f>
+        <v>8374.6250973099832</v>
+      </c>
+      <c r="T25" s="112">
+        <f>I25+I24+I23+I22</f>
+        <v>7541.3273310967561</v>
+      </c>
+      <c r="U25" s="112">
+        <f t="shared" ref="U25:AA25" si="0">J25+J24+J23+J22</f>
+        <v>6651.6046959323021</v>
+      </c>
+      <c r="V25" s="112">
+        <f t="shared" si="0"/>
+        <v>7019.7726817074099</v>
+      </c>
+      <c r="W25" s="112">
+        <f>L25+L24+L23+L22</f>
+        <v>7205.1221233393553</v>
+      </c>
+      <c r="X25" s="112">
+        <f t="shared" si="0"/>
+        <v>7485.2356776269307</v>
+      </c>
+      <c r="Y25" s="112">
+        <f t="shared" si="0"/>
+        <v>7456.9964973027299</v>
+      </c>
+      <c r="Z25" s="112">
+        <f t="shared" si="0"/>
+        <v>7086.5644458829975</v>
+      </c>
+      <c r="AA25" s="112">
+        <f t="shared" si="0"/>
+        <v>6453.2497627680605</v>
+      </c>
+    </row>
+    <row r="26" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B26" s="125"/>
       <c r="C26" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="124"/>
+      <c r="D26" s="125"/>
       <c r="E26" s="28" t="s">
         <v>23</v>
       </c>
@@ -7328,14 +7380,14 @@
         <v>18872.743299615311</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B27" s="122" t="s">
+    <row r="27" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B27" s="123" t="s">
         <v>74</v>
       </c>
       <c r="C27" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="122" t="s">
+      <c r="D27" s="123" t="s">
         <v>66</v>
       </c>
       <c r="E27" s="26" t="s">
@@ -7375,12 +7427,12 @@
         <v>3507.6180865862634</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B28" s="123"/>
+    <row r="28" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B28" s="124"/>
       <c r="C28" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="123"/>
+      <c r="D28" s="124"/>
       <c r="E28" s="16" t="s">
         <v>23</v>
       </c>
@@ -7418,12 +7470,12 @@
         <v>2484.4650329971887</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B29" s="124"/>
+    <row r="29" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B29" s="125"/>
       <c r="C29" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="124"/>
+      <c r="D29" s="125"/>
       <c r="E29" s="28" t="s">
         <v>23</v>
       </c>
@@ -7461,7 +7513,7 @@
         <v>1023.1530535890747</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B30" s="35" t="s">
         <v>75</v>
       </c>
@@ -7508,62 +7560,62 @@
         <v>2180.6045862181545</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B32" s="148" t="s">
+    <row r="32" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B32" s="149" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="148"/>
-      <c r="D32" s="148"/>
-      <c r="E32" s="148"/>
-      <c r="F32" s="148"/>
-      <c r="G32" s="148"/>
-      <c r="H32" s="148"/>
-      <c r="I32" s="148"/>
-      <c r="J32" s="148"/>
-      <c r="K32" s="148"/>
-      <c r="L32" s="148"/>
-      <c r="M32" s="148"/>
-      <c r="N32" s="148"/>
-      <c r="O32" s="148"/>
-      <c r="P32" s="148"/>
+      <c r="C32" s="149"/>
+      <c r="D32" s="149"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="149"/>
+      <c r="K32" s="149"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="149"/>
+      <c r="N32" s="149"/>
+      <c r="O32" s="149"/>
+      <c r="P32" s="149"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B33" s="148" t="s">
+      <c r="B33" s="149" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="148"/>
-      <c r="D33" s="148"/>
-      <c r="E33" s="148"/>
-      <c r="F33" s="148"/>
-      <c r="G33" s="148"/>
-      <c r="H33" s="148"/>
-      <c r="I33" s="148"/>
-      <c r="J33" s="148"/>
-      <c r="K33" s="148"/>
-      <c r="L33" s="148"/>
-      <c r="M33" s="148"/>
-      <c r="N33" s="148"/>
-      <c r="O33" s="148"/>
-      <c r="P33" s="148"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
+      <c r="N33" s="149"/>
+      <c r="O33" s="149"/>
+      <c r="P33" s="149"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B34" s="148" t="s">
+      <c r="B34" s="149" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="148"/>
-      <c r="D34" s="148"/>
-      <c r="E34" s="148"/>
-      <c r="F34" s="148"/>
-      <c r="G34" s="148"/>
-      <c r="H34" s="148"/>
-      <c r="I34" s="148"/>
-      <c r="J34" s="148"/>
-      <c r="K34" s="148"/>
-      <c r="L34" s="148"/>
-      <c r="M34" s="148"/>
-      <c r="N34" s="148"/>
-      <c r="O34" s="148"/>
-      <c r="P34" s="148"/>
+      <c r="C34" s="149"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="149"/>
+      <c r="N34" s="149"/>
+      <c r="O34" s="149"/>
+      <c r="P34" s="149"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
@@ -7618,13 +7670,13 @@
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B38" s="122" t="s">
+      <c r="B38" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="138" t="s">
+      <c r="C38" s="139" t="s">
         <v>55</v>
       </c>
-      <c r="D38" s="113" t="s">
+      <c r="D38" s="114" t="s">
         <v>66</v>
       </c>
       <c r="E38" s="26" t="s">
@@ -7665,9 +7717,9 @@
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B39" s="123"/>
-      <c r="C39" s="119"/>
-      <c r="D39" s="114"/>
+      <c r="B39" s="124"/>
+      <c r="C39" s="120"/>
+      <c r="D39" s="115"/>
       <c r="E39" s="16" t="s">
         <v>5</v>
       </c>
@@ -7706,9 +7758,9 @@
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B40" s="123"/>
-      <c r="C40" s="119"/>
-      <c r="D40" s="114"/>
+      <c r="B40" s="124"/>
+      <c r="C40" s="120"/>
+      <c r="D40" s="115"/>
       <c r="E40" s="16" t="s">
         <v>6</v>
       </c>
@@ -7747,9 +7799,9 @@
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B41" s="123"/>
-      <c r="C41" s="119"/>
-      <c r="D41" s="114"/>
+      <c r="B41" s="124"/>
+      <c r="C41" s="120"/>
+      <c r="D41" s="115"/>
       <c r="E41" s="17" t="s">
         <v>7</v>
       </c>
@@ -7788,9 +7840,9 @@
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B42" s="123"/>
-      <c r="C42" s="119"/>
-      <c r="D42" s="114"/>
+      <c r="B42" s="124"/>
+      <c r="C42" s="120"/>
+      <c r="D42" s="115"/>
       <c r="E42" s="17" t="s">
         <v>8</v>
       </c>
@@ -7829,9 +7881,9 @@
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B43" s="124"/>
-      <c r="C43" s="125"/>
-      <c r="D43" s="115"/>
+      <c r="B43" s="125"/>
+      <c r="C43" s="126"/>
+      <c r="D43" s="116"/>
       <c r="E43" s="28" t="s">
         <v>20</v>
       </c>
@@ -7870,13 +7922,13 @@
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B44" s="116" t="s">
+      <c r="B44" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="138" t="s">
+      <c r="C44" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="D44" s="113" t="s">
+      <c r="D44" s="114" t="s">
         <v>66</v>
       </c>
       <c r="E44" s="26" t="s">
@@ -7917,9 +7969,9 @@
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B45" s="117"/>
-      <c r="C45" s="119"/>
-      <c r="D45" s="114"/>
+      <c r="B45" s="118"/>
+      <c r="C45" s="120"/>
+      <c r="D45" s="115"/>
       <c r="E45" s="16" t="s">
         <v>5</v>
       </c>
@@ -7958,9 +8010,9 @@
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B46" s="117"/>
-      <c r="C46" s="119"/>
-      <c r="D46" s="114"/>
+      <c r="B46" s="118"/>
+      <c r="C46" s="120"/>
+      <c r="D46" s="115"/>
       <c r="E46" s="16" t="s">
         <v>6</v>
       </c>
@@ -7999,9 +8051,9 @@
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B47" s="117"/>
-      <c r="C47" s="119"/>
-      <c r="D47" s="114"/>
+      <c r="B47" s="118"/>
+      <c r="C47" s="120"/>
+      <c r="D47" s="115"/>
       <c r="E47" s="17" t="s">
         <v>7</v>
       </c>
@@ -8040,9 +8092,9 @@
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B48" s="117"/>
-      <c r="C48" s="119"/>
-      <c r="D48" s="114"/>
+      <c r="B48" s="118"/>
+      <c r="C48" s="120"/>
+      <c r="D48" s="115"/>
       <c r="E48" s="17" t="s">
         <v>8</v>
       </c>
@@ -8081,9 +8133,9 @@
       </c>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B49" s="117"/>
-      <c r="C49" s="125"/>
-      <c r="D49" s="115"/>
+      <c r="B49" s="118"/>
+      <c r="C49" s="126"/>
+      <c r="D49" s="116"/>
       <c r="E49" s="28" t="s">
         <v>20</v>
       </c>
@@ -8122,11 +8174,11 @@
       </c>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B50" s="117"/>
-      <c r="C50" s="138" t="s">
+      <c r="B50" s="118"/>
+      <c r="C50" s="139" t="s">
         <v>28</v>
       </c>
-      <c r="D50" s="116" t="s">
+      <c r="D50" s="117" t="s">
         <v>66</v>
       </c>
       <c r="E50" s="26" t="s">
@@ -8167,9 +8219,9 @@
       </c>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B51" s="117"/>
-      <c r="C51" s="119"/>
-      <c r="D51" s="117"/>
+      <c r="B51" s="118"/>
+      <c r="C51" s="120"/>
+      <c r="D51" s="118"/>
       <c r="E51" s="16" t="s">
         <v>5</v>
       </c>
@@ -8208,9 +8260,9 @@
       </c>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B52" s="117"/>
-      <c r="C52" s="119"/>
-      <c r="D52" s="117"/>
+      <c r="B52" s="118"/>
+      <c r="C52" s="120"/>
+      <c r="D52" s="118"/>
       <c r="E52" s="16" t="s">
         <v>6</v>
       </c>
@@ -8249,9 +8301,9 @@
       </c>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B53" s="117"/>
-      <c r="C53" s="119"/>
-      <c r="D53" s="117"/>
+      <c r="B53" s="118"/>
+      <c r="C53" s="120"/>
+      <c r="D53" s="118"/>
       <c r="E53" s="17" t="s">
         <v>7</v>
       </c>
@@ -8290,9 +8342,9 @@
       </c>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B54" s="117"/>
-      <c r="C54" s="119"/>
-      <c r="D54" s="117"/>
+      <c r="B54" s="118"/>
+      <c r="C54" s="120"/>
+      <c r="D54" s="118"/>
       <c r="E54" s="17" t="s">
         <v>8</v>
       </c>
@@ -8331,9 +8383,9 @@
       </c>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B55" s="117"/>
-      <c r="C55" s="125"/>
-      <c r="D55" s="118"/>
+      <c r="B55" s="118"/>
+      <c r="C55" s="126"/>
+      <c r="D55" s="119"/>
       <c r="E55" s="28" t="s">
         <v>20</v>
       </c>
@@ -8372,11 +8424,11 @@
       </c>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B56" s="117"/>
-      <c r="C56" s="138" t="s">
+      <c r="B56" s="118"/>
+      <c r="C56" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="D56" s="116" t="s">
+      <c r="D56" s="117" t="s">
         <v>66</v>
       </c>
       <c r="E56" s="26" t="s">
@@ -8417,9 +8469,9 @@
       </c>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B57" s="117"/>
-      <c r="C57" s="119"/>
-      <c r="D57" s="117"/>
+      <c r="B57" s="118"/>
+      <c r="C57" s="120"/>
+      <c r="D57" s="118"/>
       <c r="E57" s="16" t="s">
         <v>5</v>
       </c>
@@ -8458,9 +8510,9 @@
       </c>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B58" s="117"/>
-      <c r="C58" s="119"/>
-      <c r="D58" s="117"/>
+      <c r="B58" s="118"/>
+      <c r="C58" s="120"/>
+      <c r="D58" s="118"/>
       <c r="E58" s="16" t="s">
         <v>6</v>
       </c>
@@ -8499,9 +8551,9 @@
       </c>
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B59" s="117"/>
-      <c r="C59" s="119"/>
-      <c r="D59" s="117"/>
+      <c r="B59" s="118"/>
+      <c r="C59" s="120"/>
+      <c r="D59" s="118"/>
       <c r="E59" s="17" t="s">
         <v>7</v>
       </c>
@@ -8540,9 +8592,9 @@
       </c>
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B60" s="117"/>
-      <c r="C60" s="119"/>
-      <c r="D60" s="117"/>
+      <c r="B60" s="118"/>
+      <c r="C60" s="120"/>
+      <c r="D60" s="118"/>
       <c r="E60" s="17" t="s">
         <v>8</v>
       </c>
@@ -8581,9 +8633,9 @@
       </c>
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B61" s="118"/>
-      <c r="C61" s="125"/>
-      <c r="D61" s="118"/>
+      <c r="B61" s="119"/>
+      <c r="C61" s="126"/>
+      <c r="D61" s="119"/>
       <c r="E61" s="28" t="s">
         <v>20</v>
       </c>
@@ -8622,13 +8674,13 @@
       </c>
     </row>
     <row r="62" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B62" s="116" t="s">
+      <c r="B62" s="117" t="s">
         <v>36</v>
       </c>
-      <c r="C62" s="138" t="s">
+      <c r="C62" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="D62" s="113" t="s">
+      <c r="D62" s="114" t="s">
         <v>66</v>
       </c>
       <c r="E62" s="26" t="s">
@@ -8669,9 +8721,9 @@
       </c>
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B63" s="117"/>
-      <c r="C63" s="119"/>
-      <c r="D63" s="114"/>
+      <c r="B63" s="118"/>
+      <c r="C63" s="120"/>
+      <c r="D63" s="115"/>
       <c r="E63" s="16" t="s">
         <v>5</v>
       </c>
@@ -8710,9 +8762,9 @@
       </c>
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B64" s="117"/>
-      <c r="C64" s="119"/>
-      <c r="D64" s="114"/>
+      <c r="B64" s="118"/>
+      <c r="C64" s="120"/>
+      <c r="D64" s="115"/>
       <c r="E64" s="16" t="s">
         <v>6</v>
       </c>
@@ -8751,9 +8803,9 @@
       </c>
     </row>
     <row r="65" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B65" s="117"/>
-      <c r="C65" s="119"/>
-      <c r="D65" s="114"/>
+      <c r="B65" s="118"/>
+      <c r="C65" s="120"/>
+      <c r="D65" s="115"/>
       <c r="E65" s="17" t="s">
         <v>7</v>
       </c>
@@ -8792,9 +8844,9 @@
       </c>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B66" s="117"/>
-      <c r="C66" s="119"/>
-      <c r="D66" s="114"/>
+      <c r="B66" s="118"/>
+      <c r="C66" s="120"/>
+      <c r="D66" s="115"/>
       <c r="E66" s="17" t="s">
         <v>8</v>
       </c>
@@ -8833,9 +8885,9 @@
       </c>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B67" s="117"/>
-      <c r="C67" s="125"/>
-      <c r="D67" s="115"/>
+      <c r="B67" s="118"/>
+      <c r="C67" s="126"/>
+      <c r="D67" s="116"/>
       <c r="E67" s="28" t="s">
         <v>20</v>
       </c>
@@ -8874,11 +8926,11 @@
       </c>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B68" s="117"/>
-      <c r="C68" s="138" t="s">
+      <c r="B68" s="118"/>
+      <c r="C68" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="D68" s="113" t="s">
+      <c r="D68" s="114" t="s">
         <v>66</v>
       </c>
       <c r="E68" s="26" t="s">
@@ -8919,9 +8971,9 @@
       </c>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B69" s="117"/>
-      <c r="C69" s="119"/>
-      <c r="D69" s="114"/>
+      <c r="B69" s="118"/>
+      <c r="C69" s="120"/>
+      <c r="D69" s="115"/>
       <c r="E69" s="16" t="s">
         <v>5</v>
       </c>
@@ -8960,9 +9012,9 @@
       </c>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B70" s="117"/>
-      <c r="C70" s="119"/>
-      <c r="D70" s="114"/>
+      <c r="B70" s="118"/>
+      <c r="C70" s="120"/>
+      <c r="D70" s="115"/>
       <c r="E70" s="16" t="s">
         <v>6</v>
       </c>
@@ -9001,9 +9053,9 @@
       </c>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B71" s="117"/>
-      <c r="C71" s="119"/>
-      <c r="D71" s="114"/>
+      <c r="B71" s="118"/>
+      <c r="C71" s="120"/>
+      <c r="D71" s="115"/>
       <c r="E71" s="17" t="s">
         <v>7</v>
       </c>
@@ -9042,9 +9094,9 @@
       </c>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B72" s="117"/>
-      <c r="C72" s="119"/>
-      <c r="D72" s="114"/>
+      <c r="B72" s="118"/>
+      <c r="C72" s="120"/>
+      <c r="D72" s="115"/>
       <c r="E72" s="17" t="s">
         <v>8</v>
       </c>
@@ -9083,9 +9135,9 @@
       </c>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B73" s="117"/>
-      <c r="C73" s="125"/>
-      <c r="D73" s="115"/>
+      <c r="B73" s="118"/>
+      <c r="C73" s="126"/>
+      <c r="D73" s="116"/>
       <c r="E73" s="28" t="s">
         <v>20</v>
       </c>
@@ -9124,11 +9176,11 @@
       </c>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B74" s="117"/>
-      <c r="C74" s="138" t="s">
+      <c r="B74" s="118"/>
+      <c r="C74" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="D74" s="113" t="s">
+      <c r="D74" s="114" t="s">
         <v>66</v>
       </c>
       <c r="E74" s="26" t="s">
@@ -9169,9 +9221,9 @@
       </c>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B75" s="117"/>
-      <c r="C75" s="119"/>
-      <c r="D75" s="114"/>
+      <c r="B75" s="118"/>
+      <c r="C75" s="120"/>
+      <c r="D75" s="115"/>
       <c r="E75" s="16" t="s">
         <v>5</v>
       </c>
@@ -9210,9 +9262,9 @@
       </c>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B76" s="117"/>
-      <c r="C76" s="119"/>
-      <c r="D76" s="114"/>
+      <c r="B76" s="118"/>
+      <c r="C76" s="120"/>
+      <c r="D76" s="115"/>
       <c r="E76" s="16" t="s">
         <v>6</v>
       </c>
@@ -9251,9 +9303,9 @@
       </c>
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B77" s="117"/>
-      <c r="C77" s="119"/>
-      <c r="D77" s="114"/>
+      <c r="B77" s="118"/>
+      <c r="C77" s="120"/>
+      <c r="D77" s="115"/>
       <c r="E77" s="17" t="s">
         <v>7</v>
       </c>
@@ -9292,9 +9344,9 @@
       </c>
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B78" s="117"/>
-      <c r="C78" s="119"/>
-      <c r="D78" s="114"/>
+      <c r="B78" s="118"/>
+      <c r="C78" s="120"/>
+      <c r="D78" s="115"/>
       <c r="E78" s="17" t="s">
         <v>8</v>
       </c>
@@ -9333,9 +9385,9 @@
       </c>
     </row>
     <row r="79" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B79" s="118"/>
-      <c r="C79" s="125"/>
-      <c r="D79" s="115"/>
+      <c r="B79" s="119"/>
+      <c r="C79" s="126"/>
+      <c r="D79" s="116"/>
       <c r="E79" s="28" t="s">
         <v>20</v>
       </c>
@@ -9374,13 +9426,13 @@
       </c>
     </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B80" s="122" t="s">
+      <c r="B80" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="C80" s="138" t="s">
+      <c r="C80" s="139" t="s">
         <v>56</v>
       </c>
-      <c r="D80" s="113" t="s">
+      <c r="D80" s="114" t="s">
         <v>66</v>
       </c>
       <c r="E80" s="26" t="s">
@@ -9421,9 +9473,9 @@
       </c>
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B81" s="123"/>
-      <c r="C81" s="119"/>
-      <c r="D81" s="114"/>
+      <c r="B81" s="124"/>
+      <c r="C81" s="120"/>
+      <c r="D81" s="115"/>
       <c r="E81" s="16" t="s">
         <v>5</v>
       </c>
@@ -9462,9 +9514,9 @@
       </c>
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B82" s="123"/>
-      <c r="C82" s="119"/>
-      <c r="D82" s="114"/>
+      <c r="B82" s="124"/>
+      <c r="C82" s="120"/>
+      <c r="D82" s="115"/>
       <c r="E82" s="16" t="s">
         <v>6</v>
       </c>
@@ -9503,9 +9555,9 @@
       </c>
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B83" s="123"/>
-      <c r="C83" s="119"/>
-      <c r="D83" s="114"/>
+      <c r="B83" s="124"/>
+      <c r="C83" s="120"/>
+      <c r="D83" s="115"/>
       <c r="E83" s="16" t="s">
         <v>7</v>
       </c>
@@ -9544,9 +9596,9 @@
       </c>
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B84" s="123"/>
-      <c r="C84" s="119"/>
-      <c r="D84" s="114"/>
+      <c r="B84" s="124"/>
+      <c r="C84" s="120"/>
+      <c r="D84" s="115"/>
       <c r="E84" s="16" t="s">
         <v>8</v>
       </c>
@@ -9585,9 +9637,9 @@
       </c>
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B85" s="124"/>
-      <c r="C85" s="125"/>
-      <c r="D85" s="115"/>
+      <c r="B85" s="125"/>
+      <c r="C85" s="126"/>
+      <c r="D85" s="116"/>
       <c r="E85" s="28" t="s">
         <v>20</v>
       </c>
@@ -9626,74 +9678,74 @@
       </c>
     </row>
     <row r="87" spans="2:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="145" t="s">
+      <c r="B87" s="146" t="s">
         <v>96</v>
       </c>
-      <c r="C87" s="145"/>
-      <c r="D87" s="145"/>
-      <c r="E87" s="145"/>
-      <c r="F87" s="145"/>
-      <c r="G87" s="145"/>
-      <c r="H87" s="145"/>
-      <c r="I87" s="145"/>
-      <c r="J87" s="145"/>
-      <c r="K87" s="145"/>
-      <c r="L87" s="145"/>
-      <c r="M87" s="145"/>
-      <c r="N87" s="145"/>
-      <c r="O87" s="145"/>
-      <c r="P87" s="145"/>
+      <c r="C87" s="146"/>
+      <c r="D87" s="146"/>
+      <c r="E87" s="146"/>
+      <c r="F87" s="146"/>
+      <c r="G87" s="146"/>
+      <c r="H87" s="146"/>
+      <c r="I87" s="146"/>
+      <c r="J87" s="146"/>
+      <c r="K87" s="146"/>
+      <c r="L87" s="146"/>
+      <c r="M87" s="146"/>
+      <c r="N87" s="146"/>
+      <c r="O87" s="146"/>
+      <c r="P87" s="146"/>
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B88" s="145"/>
-      <c r="C88" s="145"/>
-      <c r="D88" s="145"/>
-      <c r="E88" s="145"/>
-      <c r="F88" s="145"/>
-      <c r="G88" s="145"/>
-      <c r="H88" s="145"/>
-      <c r="I88" s="145"/>
-      <c r="J88" s="145"/>
-      <c r="K88" s="145"/>
-      <c r="L88" s="145"/>
-      <c r="M88" s="145"/>
-      <c r="N88" s="145"/>
-      <c r="O88" s="145"/>
-      <c r="P88" s="145"/>
+      <c r="B88" s="146"/>
+      <c r="C88" s="146"/>
+      <c r="D88" s="146"/>
+      <c r="E88" s="146"/>
+      <c r="F88" s="146"/>
+      <c r="G88" s="146"/>
+      <c r="H88" s="146"/>
+      <c r="I88" s="146"/>
+      <c r="J88" s="146"/>
+      <c r="K88" s="146"/>
+      <c r="L88" s="146"/>
+      <c r="M88" s="146"/>
+      <c r="N88" s="146"/>
+      <c r="O88" s="146"/>
+      <c r="P88" s="146"/>
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B89" s="145"/>
-      <c r="C89" s="145"/>
-      <c r="D89" s="145"/>
-      <c r="E89" s="145"/>
-      <c r="F89" s="145"/>
-      <c r="G89" s="145"/>
-      <c r="H89" s="145"/>
-      <c r="I89" s="145"/>
-      <c r="J89" s="145"/>
-      <c r="K89" s="145"/>
-      <c r="L89" s="145"/>
-      <c r="M89" s="145"/>
-      <c r="N89" s="145"/>
-      <c r="O89" s="145"/>
-      <c r="P89" s="145"/>
+      <c r="B89" s="146"/>
+      <c r="C89" s="146"/>
+      <c r="D89" s="146"/>
+      <c r="E89" s="146"/>
+      <c r="F89" s="146"/>
+      <c r="G89" s="146"/>
+      <c r="H89" s="146"/>
+      <c r="I89" s="146"/>
+      <c r="J89" s="146"/>
+      <c r="K89" s="146"/>
+      <c r="L89" s="146"/>
+      <c r="M89" s="146"/>
+      <c r="N89" s="146"/>
+      <c r="O89" s="146"/>
+      <c r="P89" s="146"/>
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B90" s="145"/>
-      <c r="C90" s="145"/>
-      <c r="D90" s="145"/>
-      <c r="E90" s="145"/>
-      <c r="F90" s="145"/>
-      <c r="G90" s="145"/>
-      <c r="H90" s="145"/>
-      <c r="I90" s="145"/>
-      <c r="J90" s="145"/>
-      <c r="K90" s="145"/>
-      <c r="L90" s="145"/>
-      <c r="M90" s="145"/>
-      <c r="N90" s="145"/>
-      <c r="O90" s="145"/>
-      <c r="P90" s="145"/>
+      <c r="B90" s="146"/>
+      <c r="C90" s="146"/>
+      <c r="D90" s="146"/>
+      <c r="E90" s="146"/>
+      <c r="F90" s="146"/>
+      <c r="G90" s="146"/>
+      <c r="H90" s="146"/>
+      <c r="I90" s="146"/>
+      <c r="J90" s="146"/>
+      <c r="K90" s="146"/>
+      <c r="L90" s="146"/>
+      <c r="M90" s="146"/>
+      <c r="N90" s="146"/>
+      <c r="O90" s="146"/>
+      <c r="P90" s="146"/>
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B91" s="50"/>
@@ -9765,13 +9817,13 @@
       </c>
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B94" s="122" t="s">
+      <c r="B94" s="123" t="s">
         <v>9</v>
       </c>
       <c r="C94" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D94" s="116" t="s">
+      <c r="D94" s="117" t="s">
         <v>66</v>
       </c>
       <c r="E94" s="23" t="s">
@@ -9812,11 +9864,11 @@
       </c>
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B95" s="123"/>
-      <c r="C95" s="138" t="s">
+      <c r="B95" s="124"/>
+      <c r="C95" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="D95" s="117"/>
+      <c r="D95" s="118"/>
       <c r="E95" s="16" t="s">
         <v>14</v>
       </c>
@@ -9855,9 +9907,9 @@
       </c>
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B96" s="123"/>
-      <c r="C96" s="119"/>
-      <c r="D96" s="117"/>
+      <c r="B96" s="124"/>
+      <c r="C96" s="120"/>
+      <c r="D96" s="118"/>
       <c r="E96" s="16" t="s">
         <v>15</v>
       </c>
@@ -9896,9 +9948,9 @@
       </c>
     </row>
     <row r="97" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B97" s="123"/>
-      <c r="C97" s="119"/>
-      <c r="D97" s="117"/>
+      <c r="B97" s="124"/>
+      <c r="C97" s="120"/>
+      <c r="D97" s="118"/>
       <c r="E97" s="16" t="s">
         <v>61</v>
       </c>
@@ -9937,9 +9989,9 @@
       </c>
     </row>
     <row r="98" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B98" s="123"/>
-      <c r="C98" s="119"/>
-      <c r="D98" s="117"/>
+      <c r="B98" s="124"/>
+      <c r="C98" s="120"/>
+      <c r="D98" s="118"/>
       <c r="E98" s="16" t="s">
         <v>17</v>
       </c>
@@ -9978,9 +10030,9 @@
       </c>
     </row>
     <row r="99" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B99" s="124"/>
-      <c r="C99" s="125"/>
-      <c r="D99" s="118"/>
+      <c r="B99" s="125"/>
+      <c r="C99" s="126"/>
+      <c r="D99" s="119"/>
       <c r="E99" s="28" t="s">
         <v>89</v>
       </c>
@@ -10019,13 +10071,13 @@
       </c>
     </row>
     <row r="100" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B100" s="122" t="s">
+      <c r="B100" s="123" t="s">
         <v>10</v>
       </c>
       <c r="C100" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D100" s="116" t="s">
+      <c r="D100" s="117" t="s">
         <v>66</v>
       </c>
       <c r="E100" s="23" t="s">
@@ -10066,11 +10118,11 @@
       </c>
     </row>
     <row r="101" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B101" s="123"/>
-      <c r="C101" s="119" t="s">
+      <c r="B101" s="124"/>
+      <c r="C101" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="D101" s="117"/>
+      <c r="D101" s="118"/>
       <c r="E101" s="16" t="s">
         <v>14</v>
       </c>
@@ -10109,9 +10161,9 @@
       </c>
     </row>
     <row r="102" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B102" s="123"/>
-      <c r="C102" s="119"/>
-      <c r="D102" s="117"/>
+      <c r="B102" s="124"/>
+      <c r="C102" s="120"/>
+      <c r="D102" s="118"/>
       <c r="E102" s="16" t="s">
         <v>15</v>
       </c>
@@ -10150,9 +10202,9 @@
       </c>
     </row>
     <row r="103" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B103" s="123"/>
-      <c r="C103" s="119"/>
-      <c r="D103" s="117"/>
+      <c r="B103" s="124"/>
+      <c r="C103" s="120"/>
+      <c r="D103" s="118"/>
       <c r="E103" s="16" t="s">
         <v>61</v>
       </c>
@@ -10191,9 +10243,9 @@
       </c>
     </row>
     <row r="104" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B104" s="123"/>
-      <c r="C104" s="119"/>
-      <c r="D104" s="117"/>
+      <c r="B104" s="124"/>
+      <c r="C104" s="120"/>
+      <c r="D104" s="118"/>
       <c r="E104" s="16" t="s">
         <v>17</v>
       </c>
@@ -10232,9 +10284,9 @@
       </c>
     </row>
     <row r="105" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B105" s="124"/>
-      <c r="C105" s="125"/>
-      <c r="D105" s="118"/>
+      <c r="B105" s="125"/>
+      <c r="C105" s="126"/>
+      <c r="D105" s="119"/>
       <c r="E105" s="28" t="s">
         <v>18</v>
       </c>
@@ -10254,38 +10306,38 @@
         <v>4190.8971344091669</v>
       </c>
       <c r="K105" s="67">
-        <f t="shared" ref="K105:P105" si="0">K100-K101-K102-K103-K104</f>
+        <f t="shared" ref="K105:P105" si="1">K100-K101-K102-K103-K104</f>
         <v>4293.7909044499111</v>
       </c>
       <c r="L105" s="67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4383.4781041987317</v>
       </c>
       <c r="M105" s="67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4350.6878612256323</v>
       </c>
       <c r="N105" s="67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4491.6628324062203</v>
       </c>
       <c r="O105" s="67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4451.3746908864568</v>
       </c>
       <c r="P105" s="78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4422.1620709940244</v>
       </c>
     </row>
     <row r="106" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B106" s="122" t="s">
+      <c r="B106" s="123" t="s">
         <v>11</v>
       </c>
       <c r="C106" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D106" s="116" t="s">
+      <c r="D106" s="117" t="s">
         <v>66</v>
       </c>
       <c r="E106" s="23" t="s">
@@ -10326,11 +10378,11 @@
       </c>
     </row>
     <row r="107" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B107" s="123"/>
-      <c r="C107" s="119" t="s">
+      <c r="B107" s="124"/>
+      <c r="C107" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="D107" s="117"/>
+      <c r="D107" s="118"/>
       <c r="E107" s="16" t="s">
         <v>14</v>
       </c>
@@ -10369,9 +10421,9 @@
       </c>
     </row>
     <row r="108" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B108" s="123"/>
-      <c r="C108" s="119"/>
-      <c r="D108" s="117"/>
+      <c r="B108" s="124"/>
+      <c r="C108" s="120"/>
+      <c r="D108" s="118"/>
       <c r="E108" s="16" t="s">
         <v>15</v>
       </c>
@@ -10410,9 +10462,9 @@
       </c>
     </row>
     <row r="109" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B109" s="123"/>
-      <c r="C109" s="119"/>
-      <c r="D109" s="117"/>
+      <c r="B109" s="124"/>
+      <c r="C109" s="120"/>
+      <c r="D109" s="118"/>
       <c r="E109" s="16" t="s">
         <v>61</v>
       </c>
@@ -10451,9 +10503,9 @@
       </c>
     </row>
     <row r="110" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B110" s="123"/>
-      <c r="C110" s="119"/>
-      <c r="D110" s="117"/>
+      <c r="B110" s="124"/>
+      <c r="C110" s="120"/>
+      <c r="D110" s="118"/>
       <c r="E110" s="16" t="s">
         <v>17</v>
       </c>
@@ -10492,9 +10544,9 @@
       </c>
     </row>
     <row r="111" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B111" s="124"/>
-      <c r="C111" s="125"/>
-      <c r="D111" s="118"/>
+      <c r="B111" s="125"/>
+      <c r="C111" s="126"/>
+      <c r="D111" s="119"/>
       <c r="E111" s="28" t="s">
         <v>18</v>
       </c>
@@ -10514,27 +10566,27 @@
         <v>1154.978212</v>
       </c>
       <c r="K111" s="67">
-        <f t="shared" ref="K111:P111" si="1">K106-K107-K108-K109-K110</f>
+        <f t="shared" ref="K111:P111" si="2">K106-K107-K108-K109-K110</f>
         <v>1345.9901039999997</v>
       </c>
       <c r="L111" s="67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1418.9269279999999</v>
       </c>
       <c r="M111" s="67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1495.6533079999999</v>
       </c>
       <c r="N111" s="67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1850.5241440000004</v>
       </c>
       <c r="O111" s="67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2053.5080320000002</v>
       </c>
       <c r="P111" s="78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2338.8903640000003</v>
       </c>
     </row>
@@ -10727,40 +10779,40 @@
       </c>
     </row>
     <row r="117" spans="2:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="146" t="s">
+      <c r="B117" s="147" t="s">
         <v>97</v>
       </c>
-      <c r="C117" s="146"/>
-      <c r="D117" s="146"/>
-      <c r="E117" s="146"/>
-      <c r="F117" s="146"/>
-      <c r="G117" s="146"/>
-      <c r="H117" s="146"/>
-      <c r="I117" s="146"/>
-      <c r="J117" s="146"/>
-      <c r="K117" s="146"/>
-      <c r="L117" s="146"/>
-      <c r="M117" s="146"/>
-      <c r="N117" s="146"/>
-      <c r="O117" s="146"/>
-      <c r="P117" s="146"/>
+      <c r="C117" s="147"/>
+      <c r="D117" s="147"/>
+      <c r="E117" s="147"/>
+      <c r="F117" s="147"/>
+      <c r="G117" s="147"/>
+      <c r="H117" s="147"/>
+      <c r="I117" s="147"/>
+      <c r="J117" s="147"/>
+      <c r="K117" s="147"/>
+      <c r="L117" s="147"/>
+      <c r="M117" s="147"/>
+      <c r="N117" s="147"/>
+      <c r="O117" s="147"/>
+      <c r="P117" s="147"/>
     </row>
     <row r="118" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B118" s="146"/>
-      <c r="C118" s="146"/>
-      <c r="D118" s="146"/>
-      <c r="E118" s="146"/>
-      <c r="F118" s="146"/>
-      <c r="G118" s="146"/>
-      <c r="H118" s="146"/>
-      <c r="I118" s="146"/>
-      <c r="J118" s="146"/>
-      <c r="K118" s="146"/>
-      <c r="L118" s="146"/>
-      <c r="M118" s="146"/>
-      <c r="N118" s="146"/>
-      <c r="O118" s="146"/>
-      <c r="P118" s="146"/>
+      <c r="B118" s="147"/>
+      <c r="C118" s="147"/>
+      <c r="D118" s="147"/>
+      <c r="E118" s="147"/>
+      <c r="F118" s="147"/>
+      <c r="G118" s="147"/>
+      <c r="H118" s="147"/>
+      <c r="I118" s="147"/>
+      <c r="J118" s="147"/>
+      <c r="K118" s="147"/>
+      <c r="L118" s="147"/>
+      <c r="M118" s="147"/>
+      <c r="N118" s="147"/>
+      <c r="O118" s="147"/>
+      <c r="P118" s="147"/>
     </row>
     <row r="119" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B119" s="49"/>
@@ -10780,57 +10832,57 @@
       <c r="P119" s="49"/>
     </row>
     <row r="120" spans="2:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B120" s="146" t="s">
+      <c r="B120" s="147" t="s">
         <v>98</v>
       </c>
-      <c r="C120" s="146"/>
-      <c r="D120" s="146"/>
-      <c r="E120" s="146"/>
-      <c r="F120" s="146"/>
-      <c r="G120" s="146"/>
-      <c r="H120" s="146"/>
-      <c r="I120" s="146"/>
-      <c r="J120" s="146"/>
-      <c r="K120" s="146"/>
-      <c r="L120" s="146"/>
-      <c r="M120" s="146"/>
-      <c r="N120" s="146"/>
-      <c r="O120" s="146"/>
-      <c r="P120" s="146"/>
+      <c r="C120" s="147"/>
+      <c r="D120" s="147"/>
+      <c r="E120" s="147"/>
+      <c r="F120" s="147"/>
+      <c r="G120" s="147"/>
+      <c r="H120" s="147"/>
+      <c r="I120" s="147"/>
+      <c r="J120" s="147"/>
+      <c r="K120" s="147"/>
+      <c r="L120" s="147"/>
+      <c r="M120" s="147"/>
+      <c r="N120" s="147"/>
+      <c r="O120" s="147"/>
+      <c r="P120" s="147"/>
     </row>
     <row r="121" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B121" s="146"/>
-      <c r="C121" s="146"/>
-      <c r="D121" s="146"/>
-      <c r="E121" s="146"/>
-      <c r="F121" s="146"/>
-      <c r="G121" s="146"/>
-      <c r="H121" s="146"/>
-      <c r="I121" s="146"/>
-      <c r="J121" s="146"/>
-      <c r="K121" s="146"/>
-      <c r="L121" s="146"/>
-      <c r="M121" s="146"/>
-      <c r="N121" s="146"/>
-      <c r="O121" s="146"/>
-      <c r="P121" s="146"/>
+      <c r="B121" s="147"/>
+      <c r="C121" s="147"/>
+      <c r="D121" s="147"/>
+      <c r="E121" s="147"/>
+      <c r="F121" s="147"/>
+      <c r="G121" s="147"/>
+      <c r="H121" s="147"/>
+      <c r="I121" s="147"/>
+      <c r="J121" s="147"/>
+      <c r="K121" s="147"/>
+      <c r="L121" s="147"/>
+      <c r="M121" s="147"/>
+      <c r="N121" s="147"/>
+      <c r="O121" s="147"/>
+      <c r="P121" s="147"/>
     </row>
     <row r="122" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B122" s="146"/>
-      <c r="C122" s="146"/>
-      <c r="D122" s="146"/>
-      <c r="E122" s="146"/>
-      <c r="F122" s="146"/>
-      <c r="G122" s="146"/>
-      <c r="H122" s="146"/>
-      <c r="I122" s="146"/>
-      <c r="J122" s="146"/>
-      <c r="K122" s="146"/>
-      <c r="L122" s="146"/>
-      <c r="M122" s="146"/>
-      <c r="N122" s="146"/>
-      <c r="O122" s="146"/>
-      <c r="P122" s="146"/>
+      <c r="B122" s="147"/>
+      <c r="C122" s="147"/>
+      <c r="D122" s="147"/>
+      <c r="E122" s="147"/>
+      <c r="F122" s="147"/>
+      <c r="G122" s="147"/>
+      <c r="H122" s="147"/>
+      <c r="I122" s="147"/>
+      <c r="J122" s="147"/>
+      <c r="K122" s="147"/>
+      <c r="L122" s="147"/>
+      <c r="M122" s="147"/>
+      <c r="N122" s="147"/>
+      <c r="O122" s="147"/>
+      <c r="P122" s="147"/>
     </row>
   </sheetData>
   <mergeCells count="42">
@@ -10888,7 +10940,7 @@
   <dimension ref="A1:P70"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10959,7 +11011,7 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="150" t="s">
         <v>78</v>
       </c>
       <c r="B2" s="20" t="s">
@@ -11009,7 +11061,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="150"/>
+      <c r="A3" s="151"/>
       <c r="B3" s="23" t="s">
         <v>34</v>
       </c>
@@ -11057,7 +11109,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="150"/>
+      <c r="A4" s="151"/>
       <c r="B4" s="26" t="s">
         <v>35</v>
       </c>
@@ -11105,14 +11157,14 @@
       </c>
     </row>
     <row r="5" spans="1:16" s="1" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="150"/>
-      <c r="B5" s="116" t="s">
+      <c r="A5" s="151"/>
+      <c r="B5" s="117" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="117" t="s">
         <v>82</v>
       </c>
       <c r="E5" s="26" t="s">
@@ -11153,12 +11205,12 @@
       </c>
     </row>
     <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="150"/>
-      <c r="B6" s="117"/>
+      <c r="A6" s="151"/>
+      <c r="B6" s="118"/>
       <c r="C6" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="117"/>
+      <c r="D6" s="118"/>
       <c r="E6" s="16" t="s">
         <v>23</v>
       </c>
@@ -11197,12 +11249,12 @@
       </c>
     </row>
     <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="150"/>
-      <c r="B7" s="118"/>
+      <c r="A7" s="151"/>
+      <c r="B7" s="119"/>
       <c r="C7" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="118"/>
+      <c r="D7" s="119"/>
       <c r="E7" s="28" t="s">
         <v>23</v>
       </c>
@@ -11241,7 +11293,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="151"/>
+      <c r="A8" s="152"/>
       <c r="B8" s="19" t="s">
         <v>37</v>
       </c>
@@ -11289,16 +11341,16 @@
       </c>
     </row>
     <row r="9" spans="1:16" s="1" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="156" t="s">
+      <c r="A9" s="157" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="155" t="s">
+      <c r="B9" s="156" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="139" t="s">
+      <c r="C9" s="140" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="155" t="s">
+      <c r="D9" s="156" t="s">
         <v>83</v>
       </c>
       <c r="E9" s="14" t="s">
@@ -11339,10 +11391,10 @@
       </c>
     </row>
     <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="157"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="117"/>
+      <c r="A10" s="158"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="118"/>
       <c r="E10" s="16" t="s">
         <v>41</v>
       </c>
@@ -11381,10 +11433,10 @@
       </c>
     </row>
     <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="157"/>
-      <c r="B11" s="117"/>
-      <c r="C11" s="119"/>
-      <c r="D11" s="117"/>
+      <c r="A11" s="158"/>
+      <c r="B11" s="118"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="118"/>
       <c r="E11" s="16" t="s">
         <v>42</v>
       </c>
@@ -11423,10 +11475,10 @@
       </c>
     </row>
     <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="157"/>
-      <c r="B12" s="117"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="117"/>
+      <c r="A12" s="158"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="118"/>
       <c r="E12" s="16" t="s">
         <v>43</v>
       </c>
@@ -11465,10 +11517,10 @@
       </c>
     </row>
     <row r="13" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="157"/>
-      <c r="B13" s="117"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="117"/>
+      <c r="A13" s="158"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="118"/>
       <c r="E13" s="16" t="s">
         <v>44</v>
       </c>
@@ -11507,10 +11559,10 @@
       </c>
     </row>
     <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="157"/>
-      <c r="B14" s="118"/>
-      <c r="C14" s="125"/>
-      <c r="D14" s="118"/>
+      <c r="A14" s="158"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="119"/>
       <c r="E14" s="28" t="s">
         <v>20</v>
       </c>
@@ -11549,14 +11601,14 @@
       </c>
     </row>
     <row r="15" spans="1:16" s="1" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="157"/>
-      <c r="B15" s="116" t="s">
+      <c r="A15" s="158"/>
+      <c r="B15" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="138" t="s">
+      <c r="C15" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="116" t="s">
+      <c r="D15" s="117" t="s">
         <v>83</v>
       </c>
       <c r="E15" s="26" t="s">
@@ -11597,10 +11649,10 @@
       </c>
     </row>
     <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="157"/>
-      <c r="B16" s="117"/>
-      <c r="C16" s="119"/>
-      <c r="D16" s="117"/>
+      <c r="A16" s="158"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="118"/>
       <c r="E16" s="16" t="s">
         <v>41</v>
       </c>
@@ -11639,10 +11691,10 @@
       </c>
     </row>
     <row r="17" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="157"/>
-      <c r="B17" s="117"/>
-      <c r="C17" s="119"/>
-      <c r="D17" s="117"/>
+      <c r="A17" s="158"/>
+      <c r="B17" s="118"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="118"/>
       <c r="E17" s="16" t="s">
         <v>42</v>
       </c>
@@ -11681,10 +11733,10 @@
       </c>
     </row>
     <row r="18" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="157"/>
-      <c r="B18" s="117"/>
-      <c r="C18" s="119"/>
-      <c r="D18" s="117"/>
+      <c r="A18" s="158"/>
+      <c r="B18" s="118"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="118"/>
       <c r="E18" s="16" t="s">
         <v>43</v>
       </c>
@@ -11723,10 +11775,10 @@
       </c>
     </row>
     <row r="19" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="157"/>
-      <c r="B19" s="117"/>
-      <c r="C19" s="119"/>
-      <c r="D19" s="117"/>
+      <c r="A19" s="158"/>
+      <c r="B19" s="118"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="118"/>
       <c r="E19" s="16" t="s">
         <v>44</v>
       </c>
@@ -11765,10 +11817,10 @@
       </c>
     </row>
     <row r="20" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="157"/>
-      <c r="B20" s="118"/>
-      <c r="C20" s="125"/>
-      <c r="D20" s="118"/>
+      <c r="A20" s="158"/>
+      <c r="B20" s="119"/>
+      <c r="C20" s="126"/>
+      <c r="D20" s="119"/>
       <c r="E20" s="28" t="s">
         <v>20</v>
       </c>
@@ -11807,14 +11859,14 @@
       </c>
     </row>
     <row r="21" spans="1:16" s="1" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="157"/>
-      <c r="B21" s="116" t="s">
+      <c r="A21" s="158"/>
+      <c r="B21" s="117" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="138" t="s">
+      <c r="C21" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="116" t="s">
+      <c r="D21" s="117" t="s">
         <v>83</v>
       </c>
       <c r="E21" s="26" t="s">
@@ -11855,10 +11907,10 @@
       </c>
     </row>
     <row r="22" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="157"/>
-      <c r="B22" s="117"/>
-      <c r="C22" s="119"/>
-      <c r="D22" s="117"/>
+      <c r="A22" s="158"/>
+      <c r="B22" s="118"/>
+      <c r="C22" s="120"/>
+      <c r="D22" s="118"/>
       <c r="E22" s="16" t="s">
         <v>41</v>
       </c>
@@ -11897,10 +11949,10 @@
       </c>
     </row>
     <row r="23" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="157"/>
-      <c r="B23" s="117"/>
-      <c r="C23" s="119"/>
-      <c r="D23" s="117"/>
+      <c r="A23" s="158"/>
+      <c r="B23" s="118"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="118"/>
       <c r="E23" s="16" t="s">
         <v>42</v>
       </c>
@@ -11939,10 +11991,10 @@
       </c>
     </row>
     <row r="24" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="157"/>
-      <c r="B24" s="117"/>
-      <c r="C24" s="119"/>
-      <c r="D24" s="117"/>
+      <c r="A24" s="158"/>
+      <c r="B24" s="118"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="118"/>
       <c r="E24" s="16" t="s">
         <v>43</v>
       </c>
@@ -11981,10 +12033,10 @@
       </c>
     </row>
     <row r="25" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="157"/>
-      <c r="B25" s="117"/>
-      <c r="C25" s="119"/>
-      <c r="D25" s="117"/>
+      <c r="A25" s="158"/>
+      <c r="B25" s="118"/>
+      <c r="C25" s="120"/>
+      <c r="D25" s="118"/>
       <c r="E25" s="16" t="s">
         <v>44</v>
       </c>
@@ -12023,10 +12075,10 @@
       </c>
     </row>
     <row r="26" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="157"/>
-      <c r="B26" s="117"/>
-      <c r="C26" s="125"/>
-      <c r="D26" s="118"/>
+      <c r="A26" s="158"/>
+      <c r="B26" s="118"/>
+      <c r="C26" s="126"/>
+      <c r="D26" s="119"/>
       <c r="E26" s="28" t="s">
         <v>20</v>
       </c>
@@ -12065,12 +12117,12 @@
       </c>
     </row>
     <row r="27" spans="1:16" s="1" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="157"/>
-      <c r="B27" s="117"/>
-      <c r="C27" s="138" t="s">
+      <c r="A27" s="158"/>
+      <c r="B27" s="118"/>
+      <c r="C27" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="116" t="s">
+      <c r="D27" s="117" t="s">
         <v>83</v>
       </c>
       <c r="E27" s="26" t="s">
@@ -12111,10 +12163,10 @@
       </c>
     </row>
     <row r="28" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="157"/>
-      <c r="B28" s="117"/>
-      <c r="C28" s="119"/>
-      <c r="D28" s="117"/>
+      <c r="A28" s="158"/>
+      <c r="B28" s="118"/>
+      <c r="C28" s="120"/>
+      <c r="D28" s="118"/>
       <c r="E28" s="16" t="s">
         <v>41</v>
       </c>
@@ -12153,10 +12205,10 @@
       </c>
     </row>
     <row r="29" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="157"/>
-      <c r="B29" s="117"/>
-      <c r="C29" s="119"/>
-      <c r="D29" s="117"/>
+      <c r="A29" s="158"/>
+      <c r="B29" s="118"/>
+      <c r="C29" s="120"/>
+      <c r="D29" s="118"/>
       <c r="E29" s="16" t="s">
         <v>42</v>
       </c>
@@ -12195,10 +12247,10 @@
       </c>
     </row>
     <row r="30" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="157"/>
-      <c r="B30" s="117"/>
-      <c r="C30" s="119"/>
-      <c r="D30" s="117"/>
+      <c r="A30" s="158"/>
+      <c r="B30" s="118"/>
+      <c r="C30" s="120"/>
+      <c r="D30" s="118"/>
       <c r="E30" s="16" t="s">
         <v>43</v>
       </c>
@@ -12237,10 +12289,10 @@
       </c>
     </row>
     <row r="31" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="157"/>
-      <c r="B31" s="117"/>
-      <c r="C31" s="119"/>
-      <c r="D31" s="117"/>
+      <c r="A31" s="158"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="120"/>
+      <c r="D31" s="118"/>
       <c r="E31" s="16" t="s">
         <v>44</v>
       </c>
@@ -12279,10 +12331,10 @@
       </c>
     </row>
     <row r="32" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="157"/>
-      <c r="B32" s="118"/>
-      <c r="C32" s="125"/>
-      <c r="D32" s="118"/>
+      <c r="A32" s="158"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="126"/>
+      <c r="D32" s="119"/>
       <c r="E32" s="28" t="s">
         <v>20</v>
       </c>
@@ -12321,14 +12373,14 @@
       </c>
     </row>
     <row r="33" spans="1:16" s="1" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="157"/>
-      <c r="B33" s="116" t="s">
+      <c r="A33" s="158"/>
+      <c r="B33" s="117" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="138" t="s">
+      <c r="C33" s="139" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="116" t="s">
+      <c r="D33" s="117" t="s">
         <v>83</v>
       </c>
       <c r="E33" s="16" t="s">
@@ -12369,10 +12421,10 @@
       </c>
     </row>
     <row r="34" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="157"/>
-      <c r="B34" s="117"/>
-      <c r="C34" s="119"/>
-      <c r="D34" s="117"/>
+      <c r="A34" s="158"/>
+      <c r="B34" s="118"/>
+      <c r="C34" s="120"/>
+      <c r="D34" s="118"/>
       <c r="E34" s="16" t="s">
         <v>41</v>
       </c>
@@ -12411,10 +12463,10 @@
       </c>
     </row>
     <row r="35" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="157"/>
-      <c r="B35" s="117"/>
-      <c r="C35" s="119"/>
-      <c r="D35" s="117"/>
+      <c r="A35" s="158"/>
+      <c r="B35" s="118"/>
+      <c r="C35" s="120"/>
+      <c r="D35" s="118"/>
       <c r="E35" s="16" t="s">
         <v>42</v>
       </c>
@@ -12453,10 +12505,10 @@
       </c>
     </row>
     <row r="36" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="157"/>
-      <c r="B36" s="117"/>
-      <c r="C36" s="119"/>
-      <c r="D36" s="117"/>
+      <c r="A36" s="158"/>
+      <c r="B36" s="118"/>
+      <c r="C36" s="120"/>
+      <c r="D36" s="118"/>
       <c r="E36" s="16" t="s">
         <v>43</v>
       </c>
@@ -12495,10 +12547,10 @@
       </c>
     </row>
     <row r="37" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="157"/>
-      <c r="B37" s="117"/>
-      <c r="C37" s="119"/>
-      <c r="D37" s="117"/>
+      <c r="A37" s="158"/>
+      <c r="B37" s="118"/>
+      <c r="C37" s="120"/>
+      <c r="D37" s="118"/>
       <c r="E37" s="16" t="s">
         <v>44</v>
       </c>
@@ -12537,10 +12589,10 @@
       </c>
     </row>
     <row r="38" spans="1:16" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="158"/>
-      <c r="B38" s="126"/>
-      <c r="C38" s="144"/>
-      <c r="D38" s="126"/>
+      <c r="A38" s="159"/>
+      <c r="B38" s="127"/>
+      <c r="C38" s="145"/>
+      <c r="D38" s="127"/>
       <c r="E38" s="19" t="s">
         <v>20</v>
       </c>
@@ -12579,16 +12631,16 @@
       </c>
     </row>
     <row r="39" spans="1:16" s="1" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="152" t="s">
+      <c r="A39" s="153" t="s">
         <v>80</v>
       </c>
-      <c r="B39" s="155" t="s">
+      <c r="B39" s="156" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="139" t="s">
-        <v>23</v>
-      </c>
-      <c r="D39" s="155" t="s">
+      <c r="C39" s="140" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="156" t="s">
         <v>83</v>
       </c>
       <c r="E39" s="14" t="s">
@@ -12629,10 +12681,10 @@
       </c>
     </row>
     <row r="40" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="153"/>
-      <c r="B40" s="117"/>
-      <c r="C40" s="119"/>
-      <c r="D40" s="117"/>
+      <c r="A40" s="154"/>
+      <c r="B40" s="118"/>
+      <c r="C40" s="120"/>
+      <c r="D40" s="118"/>
       <c r="E40" s="16" t="s">
         <v>41</v>
       </c>
@@ -12671,10 +12723,10 @@
       </c>
     </row>
     <row r="41" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="153"/>
-      <c r="B41" s="117"/>
-      <c r="C41" s="119"/>
-      <c r="D41" s="117"/>
+      <c r="A41" s="154"/>
+      <c r="B41" s="118"/>
+      <c r="C41" s="120"/>
+      <c r="D41" s="118"/>
       <c r="E41" s="16" t="s">
         <v>42</v>
       </c>
@@ -12713,10 +12765,10 @@
       </c>
     </row>
     <row r="42" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="153"/>
-      <c r="B42" s="117"/>
-      <c r="C42" s="119"/>
-      <c r="D42" s="117"/>
+      <c r="A42" s="154"/>
+      <c r="B42" s="118"/>
+      <c r="C42" s="120"/>
+      <c r="D42" s="118"/>
       <c r="E42" s="16" t="s">
         <v>43</v>
       </c>
@@ -12755,10 +12807,10 @@
       </c>
     </row>
     <row r="43" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="153"/>
-      <c r="B43" s="117"/>
-      <c r="C43" s="119"/>
-      <c r="D43" s="117"/>
+      <c r="A43" s="154"/>
+      <c r="B43" s="118"/>
+      <c r="C43" s="120"/>
+      <c r="D43" s="118"/>
       <c r="E43" s="16" t="s">
         <v>44</v>
       </c>
@@ -12797,10 +12849,10 @@
       </c>
     </row>
     <row r="44" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="153"/>
-      <c r="B44" s="118"/>
-      <c r="C44" s="125"/>
-      <c r="D44" s="118"/>
+      <c r="A44" s="154"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="126"/>
+      <c r="D44" s="119"/>
       <c r="E44" s="28" t="s">
         <v>20</v>
       </c>
@@ -12839,14 +12891,14 @@
       </c>
     </row>
     <row r="45" spans="1:16" s="1" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="153"/>
-      <c r="B45" s="116" t="s">
+      <c r="A45" s="154"/>
+      <c r="B45" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="138" t="s">
-        <v>23</v>
-      </c>
-      <c r="D45" s="116" t="s">
+      <c r="C45" s="139" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="117" t="s">
         <v>83</v>
       </c>
       <c r="E45" s="26" t="s">
@@ -12887,10 +12939,10 @@
       </c>
     </row>
     <row r="46" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="153"/>
-      <c r="B46" s="117"/>
-      <c r="C46" s="119"/>
-      <c r="D46" s="117"/>
+      <c r="A46" s="154"/>
+      <c r="B46" s="118"/>
+      <c r="C46" s="120"/>
+      <c r="D46" s="118"/>
       <c r="E46" s="16" t="s">
         <v>41</v>
       </c>
@@ -12929,10 +12981,10 @@
       </c>
     </row>
     <row r="47" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="153"/>
-      <c r="B47" s="117"/>
-      <c r="C47" s="119"/>
-      <c r="D47" s="117"/>
+      <c r="A47" s="154"/>
+      <c r="B47" s="118"/>
+      <c r="C47" s="120"/>
+      <c r="D47" s="118"/>
       <c r="E47" s="16" t="s">
         <v>42</v>
       </c>
@@ -12971,10 +13023,10 @@
       </c>
     </row>
     <row r="48" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="153"/>
-      <c r="B48" s="117"/>
-      <c r="C48" s="119"/>
-      <c r="D48" s="117"/>
+      <c r="A48" s="154"/>
+      <c r="B48" s="118"/>
+      <c r="C48" s="120"/>
+      <c r="D48" s="118"/>
       <c r="E48" s="16" t="s">
         <v>43</v>
       </c>
@@ -13013,10 +13065,10 @@
       </c>
     </row>
     <row r="49" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="153"/>
-      <c r="B49" s="117"/>
-      <c r="C49" s="119"/>
-      <c r="D49" s="117"/>
+      <c r="A49" s="154"/>
+      <c r="B49" s="118"/>
+      <c r="C49" s="120"/>
+      <c r="D49" s="118"/>
       <c r="E49" s="16" t="s">
         <v>44</v>
       </c>
@@ -13055,10 +13107,10 @@
       </c>
     </row>
     <row r="50" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="153"/>
-      <c r="B50" s="118"/>
-      <c r="C50" s="125"/>
-      <c r="D50" s="118"/>
+      <c r="A50" s="154"/>
+      <c r="B50" s="119"/>
+      <c r="C50" s="126"/>
+      <c r="D50" s="119"/>
       <c r="E50" s="28" t="s">
         <v>20</v>
       </c>
@@ -13097,14 +13149,14 @@
       </c>
     </row>
     <row r="51" spans="1:16" s="1" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="153"/>
-      <c r="B51" s="116" t="s">
+      <c r="A51" s="154"/>
+      <c r="B51" s="117" t="s">
         <v>61</v>
       </c>
-      <c r="C51" s="138" t="s">
-        <v>23</v>
-      </c>
-      <c r="D51" s="116" t="s">
+      <c r="C51" s="139" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" s="117" t="s">
         <v>83</v>
       </c>
       <c r="E51" s="26" t="s">
@@ -13145,10 +13197,10 @@
       </c>
     </row>
     <row r="52" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="153"/>
-      <c r="B52" s="117"/>
-      <c r="C52" s="119"/>
-      <c r="D52" s="117"/>
+      <c r="A52" s="154"/>
+      <c r="B52" s="118"/>
+      <c r="C52" s="120"/>
+      <c r="D52" s="118"/>
       <c r="E52" s="16" t="s">
         <v>41</v>
       </c>
@@ -13187,10 +13239,10 @@
       </c>
     </row>
     <row r="53" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="153"/>
-      <c r="B53" s="117"/>
-      <c r="C53" s="119"/>
-      <c r="D53" s="117"/>
+      <c r="A53" s="154"/>
+      <c r="B53" s="118"/>
+      <c r="C53" s="120"/>
+      <c r="D53" s="118"/>
       <c r="E53" s="16" t="s">
         <v>42</v>
       </c>
@@ -13229,10 +13281,10 @@
       </c>
     </row>
     <row r="54" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="153"/>
-      <c r="B54" s="117"/>
-      <c r="C54" s="119"/>
-      <c r="D54" s="117"/>
+      <c r="A54" s="154"/>
+      <c r="B54" s="118"/>
+      <c r="C54" s="120"/>
+      <c r="D54" s="118"/>
       <c r="E54" s="16" t="s">
         <v>43</v>
       </c>
@@ -13271,10 +13323,10 @@
       </c>
     </row>
     <row r="55" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="153"/>
-      <c r="B55" s="117"/>
-      <c r="C55" s="119"/>
-      <c r="D55" s="117"/>
+      <c r="A55" s="154"/>
+      <c r="B55" s="118"/>
+      <c r="C55" s="120"/>
+      <c r="D55" s="118"/>
       <c r="E55" s="16" t="s">
         <v>44</v>
       </c>
@@ -13313,10 +13365,10 @@
       </c>
     </row>
     <row r="56" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="153"/>
-      <c r="B56" s="118"/>
-      <c r="C56" s="125"/>
-      <c r="D56" s="118"/>
+      <c r="A56" s="154"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="126"/>
+      <c r="D56" s="119"/>
       <c r="E56" s="28" t="s">
         <v>20</v>
       </c>
@@ -13355,14 +13407,14 @@
       </c>
     </row>
     <row r="57" spans="1:16" s="1" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="153"/>
-      <c r="B57" s="116" t="s">
+      <c r="A57" s="154"/>
+      <c r="B57" s="117" t="s">
         <v>105</v>
       </c>
-      <c r="C57" s="138" t="s">
-        <v>23</v>
-      </c>
-      <c r="D57" s="116" t="s">
+      <c r="C57" s="139" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57" s="117" t="s">
         <v>83</v>
       </c>
       <c r="E57" s="16" t="s">
@@ -13403,10 +13455,10 @@
       </c>
     </row>
     <row r="58" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="153"/>
-      <c r="B58" s="117"/>
-      <c r="C58" s="119"/>
-      <c r="D58" s="117"/>
+      <c r="A58" s="154"/>
+      <c r="B58" s="118"/>
+      <c r="C58" s="120"/>
+      <c r="D58" s="118"/>
       <c r="E58" s="16" t="s">
         <v>41</v>
       </c>
@@ -13445,10 +13497,10 @@
       </c>
     </row>
     <row r="59" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="153"/>
-      <c r="B59" s="117"/>
-      <c r="C59" s="119"/>
-      <c r="D59" s="117"/>
+      <c r="A59" s="154"/>
+      <c r="B59" s="118"/>
+      <c r="C59" s="120"/>
+      <c r="D59" s="118"/>
       <c r="E59" s="16" t="s">
         <v>42</v>
       </c>
@@ -13487,10 +13539,10 @@
       </c>
     </row>
     <row r="60" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="153"/>
-      <c r="B60" s="117"/>
-      <c r="C60" s="119"/>
-      <c r="D60" s="117"/>
+      <c r="A60" s="154"/>
+      <c r="B60" s="118"/>
+      <c r="C60" s="120"/>
+      <c r="D60" s="118"/>
       <c r="E60" s="16" t="s">
         <v>43</v>
       </c>
@@ -13529,10 +13581,10 @@
       </c>
     </row>
     <row r="61" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="153"/>
-      <c r="B61" s="117"/>
-      <c r="C61" s="119"/>
-      <c r="D61" s="117"/>
+      <c r="A61" s="154"/>
+      <c r="B61" s="118"/>
+      <c r="C61" s="120"/>
+      <c r="D61" s="118"/>
       <c r="E61" s="16" t="s">
         <v>44</v>
       </c>
@@ -13571,10 +13623,10 @@
       </c>
     </row>
     <row r="62" spans="1:16" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="154"/>
-      <c r="B62" s="126"/>
-      <c r="C62" s="144"/>
-      <c r="D62" s="126"/>
+      <c r="A62" s="155"/>
+      <c r="B62" s="127"/>
+      <c r="C62" s="145"/>
+      <c r="D62" s="127"/>
       <c r="E62" s="19" t="s">
         <v>20</v>
       </c>
@@ -13735,8 +13787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C685B72-0FF8-4696-B648-856E741553DE}">
   <dimension ref="B2:P85"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13942,13 +13994,13 @@
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B7" s="138" t="s">
+      <c r="B7" s="139" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="138" t="s">
+      <c r="D7" s="139" t="s">
         <v>82</v>
       </c>
       <c r="E7" s="27" t="s">
@@ -13989,11 +14041,11 @@
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B8" s="119"/>
+      <c r="B8" s="120"/>
       <c r="C8" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="119"/>
+      <c r="D8" s="120"/>
       <c r="E8" s="17" t="s">
         <v>23</v>
       </c>
@@ -14032,11 +14084,11 @@
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B9" s="125"/>
+      <c r="B9" s="126"/>
       <c r="C9" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="125"/>
+      <c r="D9" s="126"/>
       <c r="E9" s="31" t="s">
         <v>23</v>
       </c>
@@ -14122,23 +14174,23 @@
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B12" s="159" t="s">
+      <c r="B12" s="160" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="159"/>
-      <c r="D12" s="159"/>
-      <c r="E12" s="159"/>
-      <c r="F12" s="159"/>
-      <c r="G12" s="159"/>
-      <c r="H12" s="159"/>
-      <c r="I12" s="159"/>
-      <c r="J12" s="159"/>
-      <c r="K12" s="159"/>
-      <c r="L12" s="159"/>
-      <c r="M12" s="159"/>
-      <c r="N12" s="159"/>
-      <c r="O12" s="159"/>
-      <c r="P12" s="159"/>
+      <c r="C12" s="160"/>
+      <c r="D12" s="160"/>
+      <c r="E12" s="160"/>
+      <c r="F12" s="160"/>
+      <c r="G12" s="160"/>
+      <c r="H12" s="160"/>
+      <c r="I12" s="160"/>
+      <c r="J12" s="160"/>
+      <c r="K12" s="160"/>
+      <c r="L12" s="160"/>
+      <c r="M12" s="160"/>
+      <c r="N12" s="160"/>
+      <c r="O12" s="160"/>
+      <c r="P12" s="160"/>
     </row>
     <row r="14" spans="2:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
@@ -14193,13 +14245,13 @@
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B16" s="138" t="s">
+      <c r="B16" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="138" t="s">
+      <c r="C16" s="139" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="138" t="s">
+      <c r="D16" s="139" t="s">
         <v>83</v>
       </c>
       <c r="E16" s="27" t="s">
@@ -14240,9 +14292,9 @@
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B17" s="119"/>
-      <c r="C17" s="119"/>
-      <c r="D17" s="119"/>
+      <c r="B17" s="120"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="120"/>
       <c r="E17" s="17" t="s">
         <v>41</v>
       </c>
@@ -14281,9 +14333,9 @@
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B18" s="119"/>
-      <c r="C18" s="119"/>
-      <c r="D18" s="119"/>
+      <c r="B18" s="120"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="120"/>
       <c r="E18" s="17" t="s">
         <v>42</v>
       </c>
@@ -14322,9 +14374,9 @@
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B19" s="119"/>
-      <c r="C19" s="119"/>
-      <c r="D19" s="119"/>
+      <c r="B19" s="120"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="120"/>
       <c r="E19" s="17" t="s">
         <v>43</v>
       </c>
@@ -14363,9 +14415,9 @@
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B20" s="119"/>
-      <c r="C20" s="119"/>
-      <c r="D20" s="119"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="120"/>
       <c r="E20" s="17" t="s">
         <v>44</v>
       </c>
@@ -14404,9 +14456,9 @@
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B21" s="125"/>
-      <c r="C21" s="125"/>
-      <c r="D21" s="125"/>
+      <c r="B21" s="126"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="126"/>
       <c r="E21" s="31" t="s">
         <v>20</v>
       </c>
@@ -14445,13 +14497,13 @@
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B22" s="138" t="s">
+      <c r="B22" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="138" t="s">
+      <c r="C22" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="138" t="s">
+      <c r="D22" s="139" t="s">
         <v>83</v>
       </c>
       <c r="E22" s="27" t="s">
@@ -14492,9 +14544,9 @@
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B23" s="119"/>
-      <c r="C23" s="119"/>
-      <c r="D23" s="119"/>
+      <c r="B23" s="120"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="120"/>
       <c r="E23" s="17" t="s">
         <v>41</v>
       </c>
@@ -14533,9 +14585,9 @@
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B24" s="119"/>
-      <c r="C24" s="119"/>
-      <c r="D24" s="119"/>
+      <c r="B24" s="120"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="120"/>
       <c r="E24" s="17" t="s">
         <v>42</v>
       </c>
@@ -14574,9 +14626,9 @@
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B25" s="119"/>
-      <c r="C25" s="119"/>
-      <c r="D25" s="119"/>
+      <c r="B25" s="120"/>
+      <c r="C25" s="120"/>
+      <c r="D25" s="120"/>
       <c r="E25" s="17" t="s">
         <v>43</v>
       </c>
@@ -14615,9 +14667,9 @@
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B26" s="119"/>
-      <c r="C26" s="119"/>
-      <c r="D26" s="119"/>
+      <c r="B26" s="120"/>
+      <c r="C26" s="120"/>
+      <c r="D26" s="120"/>
       <c r="E26" s="17" t="s">
         <v>44</v>
       </c>
@@ -14656,9 +14708,9 @@
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B27" s="125"/>
-      <c r="C27" s="125"/>
-      <c r="D27" s="125"/>
+      <c r="B27" s="126"/>
+      <c r="C27" s="126"/>
+      <c r="D27" s="126"/>
       <c r="E27" s="31" t="s">
         <v>20</v>
       </c>
@@ -14697,13 +14749,13 @@
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B28" s="138" t="s">
+      <c r="B28" s="139" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="138" t="s">
+      <c r="C28" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="138" t="s">
+      <c r="D28" s="139" t="s">
         <v>83</v>
       </c>
       <c r="E28" s="27" t="s">
@@ -14744,9 +14796,9 @@
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B29" s="119"/>
-      <c r="C29" s="119"/>
-      <c r="D29" s="119"/>
+      <c r="B29" s="120"/>
+      <c r="C29" s="120"/>
+      <c r="D29" s="120"/>
       <c r="E29" s="17" t="s">
         <v>41</v>
       </c>
@@ -14785,9 +14837,9 @@
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B30" s="119"/>
-      <c r="C30" s="119"/>
-      <c r="D30" s="119"/>
+      <c r="B30" s="120"/>
+      <c r="C30" s="120"/>
+      <c r="D30" s="120"/>
       <c r="E30" s="17" t="s">
         <v>42</v>
       </c>
@@ -14826,9 +14878,9 @@
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B31" s="119"/>
-      <c r="C31" s="119"/>
-      <c r="D31" s="119"/>
+      <c r="B31" s="120"/>
+      <c r="C31" s="120"/>
+      <c r="D31" s="120"/>
       <c r="E31" s="17" t="s">
         <v>43</v>
       </c>
@@ -14867,9 +14919,9 @@
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B32" s="119"/>
-      <c r="C32" s="119"/>
-      <c r="D32" s="119"/>
+      <c r="B32" s="120"/>
+      <c r="C32" s="120"/>
+      <c r="D32" s="120"/>
       <c r="E32" s="17" t="s">
         <v>44</v>
       </c>
@@ -14908,9 +14960,9 @@
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B33" s="119"/>
-      <c r="C33" s="125"/>
-      <c r="D33" s="125"/>
+      <c r="B33" s="120"/>
+      <c r="C33" s="126"/>
+      <c r="D33" s="126"/>
       <c r="E33" s="31" t="s">
         <v>20</v>
       </c>
@@ -14949,12 +15001,12 @@
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B34" s="119"/>
-      <c r="C34" s="138" t="s">
+      <c r="B34" s="120"/>
+      <c r="C34" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="138" t="s">
-        <v>83</v>
+      <c r="D34" s="139" t="s">
+        <v>111</v>
       </c>
       <c r="E34" s="27" t="s">
         <v>40</v>
@@ -14994,9 +15046,9 @@
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B35" s="119"/>
-      <c r="C35" s="119"/>
-      <c r="D35" s="119"/>
+      <c r="B35" s="120"/>
+      <c r="C35" s="120"/>
+      <c r="D35" s="120"/>
       <c r="E35" s="17" t="s">
         <v>41</v>
       </c>
@@ -15035,9 +15087,9 @@
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B36" s="119"/>
-      <c r="C36" s="119"/>
-      <c r="D36" s="119"/>
+      <c r="B36" s="120"/>
+      <c r="C36" s="120"/>
+      <c r="D36" s="120"/>
       <c r="E36" s="17" t="s">
         <v>42</v>
       </c>
@@ -15076,9 +15128,9 @@
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B37" s="119"/>
-      <c r="C37" s="119"/>
-      <c r="D37" s="119"/>
+      <c r="B37" s="120"/>
+      <c r="C37" s="120"/>
+      <c r="D37" s="120"/>
       <c r="E37" s="17" t="s">
         <v>43</v>
       </c>
@@ -15117,9 +15169,9 @@
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B38" s="119"/>
-      <c r="C38" s="119"/>
-      <c r="D38" s="119"/>
+      <c r="B38" s="120"/>
+      <c r="C38" s="120"/>
+      <c r="D38" s="120"/>
       <c r="E38" s="17" t="s">
         <v>44</v>
       </c>
@@ -15158,9 +15210,9 @@
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B39" s="125"/>
-      <c r="C39" s="125"/>
-      <c r="D39" s="125"/>
+      <c r="B39" s="126"/>
+      <c r="C39" s="126"/>
+      <c r="D39" s="126"/>
       <c r="E39" s="31" t="s">
         <v>20</v>
       </c>
@@ -15199,13 +15251,13 @@
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B40" s="138" t="s">
+      <c r="B40" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="138" t="s">
+      <c r="C40" s="139" t="s">
         <v>56</v>
       </c>
-      <c r="D40" s="138" t="s">
+      <c r="D40" s="139" t="s">
         <v>83</v>
       </c>
       <c r="E40" s="27" t="s">
@@ -15246,9 +15298,9 @@
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B41" s="119"/>
-      <c r="C41" s="119"/>
-      <c r="D41" s="119"/>
+      <c r="B41" s="120"/>
+      <c r="C41" s="120"/>
+      <c r="D41" s="120"/>
       <c r="E41" s="17" t="s">
         <v>41</v>
       </c>
@@ -15287,9 +15339,9 @@
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B42" s="119"/>
-      <c r="C42" s="119"/>
-      <c r="D42" s="119"/>
+      <c r="B42" s="120"/>
+      <c r="C42" s="120"/>
+      <c r="D42" s="120"/>
       <c r="E42" s="17" t="s">
         <v>42</v>
       </c>
@@ -15328,9 +15380,9 @@
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B43" s="119"/>
-      <c r="C43" s="119"/>
-      <c r="D43" s="119"/>
+      <c r="B43" s="120"/>
+      <c r="C43" s="120"/>
+      <c r="D43" s="120"/>
       <c r="E43" s="17" t="s">
         <v>43</v>
       </c>
@@ -15369,9 +15421,9 @@
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B44" s="119"/>
-      <c r="C44" s="119"/>
-      <c r="D44" s="119"/>
+      <c r="B44" s="120"/>
+      <c r="C44" s="120"/>
+      <c r="D44" s="120"/>
       <c r="E44" s="17" t="s">
         <v>44</v>
       </c>
@@ -15410,9 +15462,9 @@
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B45" s="125"/>
-      <c r="C45" s="125"/>
-      <c r="D45" s="125"/>
+      <c r="B45" s="126"/>
+      <c r="C45" s="126"/>
+      <c r="D45" s="126"/>
       <c r="E45" s="31" t="s">
         <v>20</v>
       </c>
@@ -15535,13 +15587,13 @@
       </c>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B52" s="138" t="s">
+      <c r="B52" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="138" t="s">
-        <v>23</v>
-      </c>
-      <c r="D52" s="138" t="s">
+      <c r="C52" s="139" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" s="139" t="s">
         <v>83</v>
       </c>
       <c r="E52" s="27" t="s">
@@ -15582,9 +15634,9 @@
       </c>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B53" s="119"/>
-      <c r="C53" s="119"/>
-      <c r="D53" s="119"/>
+      <c r="B53" s="120"/>
+      <c r="C53" s="120"/>
+      <c r="D53" s="120"/>
       <c r="E53" s="17" t="s">
         <v>41</v>
       </c>
@@ -15623,9 +15675,9 @@
       </c>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B54" s="119"/>
-      <c r="C54" s="119"/>
-      <c r="D54" s="119"/>
+      <c r="B54" s="120"/>
+      <c r="C54" s="120"/>
+      <c r="D54" s="120"/>
       <c r="E54" s="17" t="s">
         <v>42</v>
       </c>
@@ -15664,9 +15716,9 @@
       </c>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B55" s="119"/>
-      <c r="C55" s="119"/>
-      <c r="D55" s="119"/>
+      <c r="B55" s="120"/>
+      <c r="C55" s="120"/>
+      <c r="D55" s="120"/>
       <c r="E55" s="17" t="s">
         <v>43</v>
       </c>
@@ -15705,9 +15757,9 @@
       </c>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B56" s="119"/>
-      <c r="C56" s="119"/>
-      <c r="D56" s="119"/>
+      <c r="B56" s="120"/>
+      <c r="C56" s="120"/>
+      <c r="D56" s="120"/>
       <c r="E56" s="17" t="s">
         <v>44</v>
       </c>
@@ -15746,9 +15798,9 @@
       </c>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B57" s="125"/>
-      <c r="C57" s="125"/>
-      <c r="D57" s="125"/>
+      <c r="B57" s="126"/>
+      <c r="C57" s="126"/>
+      <c r="D57" s="126"/>
       <c r="E57" s="31" t="s">
         <v>20</v>
       </c>
@@ -15787,13 +15839,13 @@
       </c>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B58" s="138" t="s">
+      <c r="B58" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="C58" s="138" t="s">
-        <v>23</v>
-      </c>
-      <c r="D58" s="138" t="s">
+      <c r="C58" s="139" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" s="139" t="s">
         <v>83</v>
       </c>
       <c r="E58" s="27" t="s">
@@ -15834,9 +15886,9 @@
       </c>
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B59" s="119"/>
-      <c r="C59" s="119"/>
-      <c r="D59" s="119"/>
+      <c r="B59" s="120"/>
+      <c r="C59" s="120"/>
+      <c r="D59" s="120"/>
       <c r="E59" s="17" t="s">
         <v>41</v>
       </c>
@@ -15875,9 +15927,9 @@
       </c>
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B60" s="119"/>
-      <c r="C60" s="119"/>
-      <c r="D60" s="119"/>
+      <c r="B60" s="120"/>
+      <c r="C60" s="120"/>
+      <c r="D60" s="120"/>
       <c r="E60" s="17" t="s">
         <v>42</v>
       </c>
@@ -15916,9 +15968,9 @@
       </c>
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B61" s="119"/>
-      <c r="C61" s="119"/>
-      <c r="D61" s="119"/>
+      <c r="B61" s="120"/>
+      <c r="C61" s="120"/>
+      <c r="D61" s="120"/>
       <c r="E61" s="17" t="s">
         <v>43</v>
       </c>
@@ -15957,9 +16009,9 @@
       </c>
     </row>
     <row r="62" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B62" s="119"/>
-      <c r="C62" s="119"/>
-      <c r="D62" s="119"/>
+      <c r="B62" s="120"/>
+      <c r="C62" s="120"/>
+      <c r="D62" s="120"/>
       <c r="E62" s="17" t="s">
         <v>44</v>
       </c>
@@ -15998,9 +16050,9 @@
       </c>
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B63" s="125"/>
-      <c r="C63" s="125"/>
-      <c r="D63" s="125"/>
+      <c r="B63" s="126"/>
+      <c r="C63" s="126"/>
+      <c r="D63" s="126"/>
       <c r="E63" s="31" t="s">
         <v>20</v>
       </c>
@@ -16039,13 +16091,13 @@
       </c>
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B64" s="138" t="s">
+      <c r="B64" s="139" t="s">
         <v>61</v>
       </c>
-      <c r="C64" s="138" t="s">
-        <v>23</v>
-      </c>
-      <c r="D64" s="138" t="s">
+      <c r="C64" s="139" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" s="139" t="s">
         <v>83</v>
       </c>
       <c r="E64" s="27" t="s">
@@ -16086,9 +16138,9 @@
       </c>
     </row>
     <row r="65" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B65" s="119"/>
-      <c r="C65" s="119"/>
-      <c r="D65" s="119"/>
+      <c r="B65" s="120"/>
+      <c r="C65" s="120"/>
+      <c r="D65" s="120"/>
       <c r="E65" s="17" t="s">
         <v>41</v>
       </c>
@@ -16127,9 +16179,9 @@
       </c>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B66" s="119"/>
-      <c r="C66" s="119"/>
-      <c r="D66" s="119"/>
+      <c r="B66" s="120"/>
+      <c r="C66" s="120"/>
+      <c r="D66" s="120"/>
       <c r="E66" s="17" t="s">
         <v>42</v>
       </c>
@@ -16168,9 +16220,9 @@
       </c>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B67" s="119"/>
-      <c r="C67" s="119"/>
-      <c r="D67" s="119"/>
+      <c r="B67" s="120"/>
+      <c r="C67" s="120"/>
+      <c r="D67" s="120"/>
       <c r="E67" s="17" t="s">
         <v>43</v>
       </c>
@@ -16209,9 +16261,9 @@
       </c>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B68" s="119"/>
-      <c r="C68" s="119"/>
-      <c r="D68" s="119"/>
+      <c r="B68" s="120"/>
+      <c r="C68" s="120"/>
+      <c r="D68" s="120"/>
       <c r="E68" s="17" t="s">
         <v>44</v>
       </c>
@@ -16250,9 +16302,9 @@
       </c>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B69" s="125"/>
-      <c r="C69" s="125"/>
-      <c r="D69" s="125"/>
+      <c r="B69" s="126"/>
+      <c r="C69" s="126"/>
+      <c r="D69" s="126"/>
       <c r="E69" s="31" t="s">
         <v>20</v>
       </c>
@@ -16291,13 +16343,13 @@
       </c>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B70" s="138" t="s">
+      <c r="B70" s="139" t="s">
         <v>108</v>
       </c>
-      <c r="C70" s="138" t="s">
-        <v>23</v>
-      </c>
-      <c r="D70" s="138" t="s">
+      <c r="C70" s="139" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70" s="139" t="s">
         <v>83</v>
       </c>
       <c r="E70" s="27" t="s">
@@ -16338,9 +16390,9 @@
       </c>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B71" s="119"/>
-      <c r="C71" s="119"/>
-      <c r="D71" s="119"/>
+      <c r="B71" s="120"/>
+      <c r="C71" s="120"/>
+      <c r="D71" s="120"/>
       <c r="E71" s="17" t="s">
         <v>41</v>
       </c>
@@ -16379,9 +16431,9 @@
       </c>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B72" s="119"/>
-      <c r="C72" s="119"/>
-      <c r="D72" s="119"/>
+      <c r="B72" s="120"/>
+      <c r="C72" s="120"/>
+      <c r="D72" s="120"/>
       <c r="E72" s="17" t="s">
         <v>42</v>
       </c>
@@ -16420,9 +16472,9 @@
       </c>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B73" s="119"/>
-      <c r="C73" s="119"/>
-      <c r="D73" s="119"/>
+      <c r="B73" s="120"/>
+      <c r="C73" s="120"/>
+      <c r="D73" s="120"/>
       <c r="E73" s="17" t="s">
         <v>43</v>
       </c>
@@ -16461,9 +16513,9 @@
       </c>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B74" s="119"/>
-      <c r="C74" s="119"/>
-      <c r="D74" s="119"/>
+      <c r="B74" s="120"/>
+      <c r="C74" s="120"/>
+      <c r="D74" s="120"/>
       <c r="E74" s="17" t="s">
         <v>44</v>
       </c>
@@ -16502,9 +16554,9 @@
       </c>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B75" s="125"/>
-      <c r="C75" s="125"/>
-      <c r="D75" s="125"/>
+      <c r="B75" s="126"/>
+      <c r="C75" s="126"/>
+      <c r="D75" s="126"/>
       <c r="E75" s="31" t="s">
         <v>20</v>
       </c>
@@ -16543,42 +16595,42 @@
       </c>
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B77" s="159" t="s">
+      <c r="B77" s="160" t="s">
         <v>101</v>
       </c>
-      <c r="C77" s="159"/>
-      <c r="D77" s="159"/>
-      <c r="E77" s="159"/>
-      <c r="F77" s="159"/>
-      <c r="G77" s="159"/>
-      <c r="H77" s="159"/>
-      <c r="I77" s="159"/>
-      <c r="J77" s="159"/>
-      <c r="K77" s="159"/>
-      <c r="L77" s="159"/>
-      <c r="M77" s="159"/>
-      <c r="N77" s="159"/>
-      <c r="O77" s="159"/>
-      <c r="P77" s="159"/>
+      <c r="C77" s="160"/>
+      <c r="D77" s="160"/>
+      <c r="E77" s="160"/>
+      <c r="F77" s="160"/>
+      <c r="G77" s="160"/>
+      <c r="H77" s="160"/>
+      <c r="I77" s="160"/>
+      <c r="J77" s="160"/>
+      <c r="K77" s="160"/>
+      <c r="L77" s="160"/>
+      <c r="M77" s="160"/>
+      <c r="N77" s="160"/>
+      <c r="O77" s="160"/>
+      <c r="P77" s="160"/>
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B78" s="159" t="s">
+      <c r="B78" s="160" t="s">
         <v>107</v>
       </c>
-      <c r="C78" s="159"/>
-      <c r="D78" s="159"/>
-      <c r="E78" s="159"/>
-      <c r="F78" s="159"/>
-      <c r="G78" s="159"/>
-      <c r="H78" s="159"/>
-      <c r="I78" s="159"/>
-      <c r="J78" s="159"/>
-      <c r="K78" s="159"/>
-      <c r="L78" s="159"/>
-      <c r="M78" s="159"/>
-      <c r="N78" s="159"/>
-      <c r="O78" s="159"/>
-      <c r="P78" s="159"/>
+      <c r="C78" s="160"/>
+      <c r="D78" s="160"/>
+      <c r="E78" s="160"/>
+      <c r="F78" s="160"/>
+      <c r="G78" s="160"/>
+      <c r="H78" s="160"/>
+      <c r="I78" s="160"/>
+      <c r="J78" s="160"/>
+      <c r="K78" s="160"/>
+      <c r="L78" s="160"/>
+      <c r="M78" s="160"/>
+      <c r="N78" s="160"/>
+      <c r="O78" s="160"/>
+      <c r="P78" s="160"/>
     </row>
     <row r="79" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="80" spans="2:16" ht="16.5" x14ac:dyDescent="0.2">
@@ -16681,40 +16733,40 @@
       </c>
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B84" s="160" t="s">
+      <c r="B84" s="161" t="s">
         <v>102</v>
       </c>
-      <c r="C84" s="160"/>
-      <c r="D84" s="160"/>
-      <c r="E84" s="160"/>
-      <c r="F84" s="160"/>
-      <c r="G84" s="160"/>
-      <c r="H84" s="160"/>
-      <c r="I84" s="160"/>
-      <c r="J84" s="160"/>
-      <c r="K84" s="160"/>
-      <c r="L84" s="160"/>
-      <c r="M84" s="160"/>
-      <c r="N84" s="160"/>
-      <c r="O84" s="160"/>
-      <c r="P84" s="160"/>
+      <c r="C84" s="161"/>
+      <c r="D84" s="161"/>
+      <c r="E84" s="161"/>
+      <c r="F84" s="161"/>
+      <c r="G84" s="161"/>
+      <c r="H84" s="161"/>
+      <c r="I84" s="161"/>
+      <c r="J84" s="161"/>
+      <c r="K84" s="161"/>
+      <c r="L84" s="161"/>
+      <c r="M84" s="161"/>
+      <c r="N84" s="161"/>
+      <c r="O84" s="161"/>
+      <c r="P84" s="161"/>
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B85" s="160"/>
-      <c r="C85" s="160"/>
-      <c r="D85" s="160"/>
-      <c r="E85" s="160"/>
-      <c r="F85" s="160"/>
-      <c r="G85" s="160"/>
-      <c r="H85" s="160"/>
-      <c r="I85" s="160"/>
-      <c r="J85" s="160"/>
-      <c r="K85" s="160"/>
-      <c r="L85" s="160"/>
-      <c r="M85" s="160"/>
-      <c r="N85" s="160"/>
-      <c r="O85" s="160"/>
-      <c r="P85" s="160"/>
+      <c r="B85" s="161"/>
+      <c r="C85" s="161"/>
+      <c r="D85" s="161"/>
+      <c r="E85" s="161"/>
+      <c r="F85" s="161"/>
+      <c r="G85" s="161"/>
+      <c r="H85" s="161"/>
+      <c r="I85" s="161"/>
+      <c r="J85" s="161"/>
+      <c r="K85" s="161"/>
+      <c r="L85" s="161"/>
+      <c r="M85" s="161"/>
+      <c r="N85" s="161"/>
+      <c r="O85" s="161"/>
+      <c r="P85" s="161"/>
     </row>
   </sheetData>
   <mergeCells count="32">
@@ -16753,5 +16805,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>